--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A810ED-7144-44DE-B26B-741820349635}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27154F1F-931B-4921-B4A7-6C7C30A3C857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26370" windowHeight="14820" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,15 @@
     <definedName name="CurveType">'GetInfo &amp; GetInstrumentInfo'!$E$5</definedName>
     <definedName name="Market">'GetInfo &amp; GetInstrumentInfo'!$E$7</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2756,7 +2764,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="70" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 17-Mar-18</v>
+        <v>Last Update 01-Jul-19</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
@@ -2828,7 +2836,7 @@
       </c>
       <c r="B2" t="str">
         <f>_xll.HLV5r3.Utility.Utilities.GetCurveEngineVersionInfo()</f>
-        <v>Version: 1.0 Built on : 13/01/2018, 10:15 AM</v>
+        <v>Version: 1.0 Built on : 1/07/2019, 3:19 PM</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2878,12 +2886,12 @@
       </c>
       <c r="E8" s="80">
         <f ca="1">TODAY()</f>
-        <v>43176</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="76" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>45</v>
@@ -2892,47 +2900,47 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="76" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="76" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="76" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="76" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-USD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3057,22 +3065,22 @@
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="76" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="47" spans="2:2">
@@ -3137,97 +3145,97 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="76" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="76" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="76" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="76" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
   </sheetData>
@@ -3246,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -3319,14 +3327,14 @@
     <row r="2" spans="1:25" ht="12" thickBot="1">
       <c r="A2" s="54">
         <f ca="1">BaseDate</f>
-        <v>43176</v>
+        <v>43647</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B2, A2,E2, F2)</f>
-        <v>AUD-IRSwap-3Y-0.05-17/03/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-1/07/2019</v>
       </c>
       <c r="D2" s="27">
         <f>E2+F2</f>
@@ -3368,14 +3376,14 @@
     <row r="3" spans="1:25">
       <c r="A3" s="54">
         <f ca="1">A2+90</f>
-        <v>43266</v>
+        <v>43737</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B3, A3,E3, F3)</f>
-        <v>AUD-IRSwap-3Y-0.05-15/06/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
       </c>
       <c r="D3" s="27">
         <f t="shared" ref="D3:D32" si="0">E3+F3</f>
@@ -3394,7 +3402,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="13" t="str">
         <f t="array" aca="1" ref="I3:W34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($G$2:$G$7,'GetInfo &amp; GetInstrumentInfo'!$D$9, C3:C32, $A$2)</f>
-        <v>AUD-IRSwap-3Y-0.05-15/06/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
       </c>
       <c r="J3" s="14" t="str">
         <f ca="1"/>
@@ -3402,7 +3410,7 @@
       </c>
       <c r="K3" s="48">
         <f ca="1"/>
-        <v>7.4628688980228647E-2</v>
+        <v>7.4629901229968487E-2</v>
       </c>
       <c r="L3" s="14" t="str">
         <f ca="1"/>
@@ -3410,7 +3418,7 @@
       </c>
       <c r="M3" s="15">
         <f ca="1"/>
-        <v>2.6394729629369209</v>
+        <v>2.6406177227896381</v>
       </c>
       <c r="N3" s="14" t="str">
         <f ca="1"/>
@@ -3426,7 +3434,7 @@
       </c>
       <c r="Q3" s="44">
         <f ca="1"/>
-        <v>2.6394729629369211E-4</v>
+        <v>2.6406177227896382E-4</v>
       </c>
       <c r="R3" s="15" t="str">
         <f ca="1"/>
@@ -3458,20 +3466,20 @@
       </c>
       <c r="Y3" s="37">
         <f ca="1">(S3-K3)*10000</f>
-        <v>-246.28688980228645</v>
+        <v>-246.29901229968485</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="54">
         <f t="shared" ref="A4:A32" ca="1" si="2">A3+90</f>
-        <v>43356</v>
+        <v>43827</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B4, A4,E4, F4)</f>
-        <v>AUD-IRSwap-3Y-0.05-13/09/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
       </c>
       <c r="D4" s="27">
         <f t="shared" si="0"/>
@@ -3490,7 +3498,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-13/09/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
       </c>
       <c r="J4" s="9" t="str">
         <f ca="1"/>
@@ -3498,7 +3506,7 @@
       </c>
       <c r="K4" s="49">
         <f ca="1"/>
-        <v>7.5575099297089915E-2</v>
+        <v>7.5263531118901772E-2</v>
       </c>
       <c r="L4" s="9" t="str">
         <f ca="1"/>
@@ -3506,7 +3514,7 @@
       </c>
       <c r="M4" s="19">
         <f ca="1"/>
-        <v>2.5922689418935736</v>
+        <v>2.5919809309848469</v>
       </c>
       <c r="N4" s="9" t="str">
         <f ca="1"/>
@@ -3522,7 +3530,7 @@
       </c>
       <c r="Q4" s="45">
         <f ca="1"/>
-        <v>2.5922689418935737E-4</v>
+        <v>2.5919809309848469E-4</v>
       </c>
       <c r="R4" s="19" t="str">
         <f ca="1"/>
@@ -3554,20 +3562,20 @@
       </c>
       <c r="Y4" s="36">
         <f t="shared" ref="Y4:Y33" ca="1" si="3">(S4-K4)*10000</f>
-        <v>-255.75099297089912</v>
+        <v>-252.6353111890177</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43446</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B5, A5,E5, F5)</f>
-        <v>AUD-IRSwap-3Y-0.05-12/12/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
@@ -3586,7 +3594,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/12/2018</v>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
       </c>
       <c r="J5" s="9" t="str">
         <f ca="1"/>
@@ -3594,7 +3602,7 @@
       </c>
       <c r="K5" s="49">
         <f ca="1"/>
-        <v>7.605612261154468E-2</v>
+        <v>7.5874092663343135E-2</v>
       </c>
       <c r="L5" s="9" t="str">
         <f ca="1"/>
@@ -3602,7 +3610,7 @@
       </c>
       <c r="M5" s="19">
         <f ca="1"/>
-        <v>2.5445252703920946</v>
+        <v>2.5418202792644817</v>
       </c>
       <c r="N5" s="9" t="str">
         <f ca="1"/>
@@ -3618,7 +3626,7 @@
       </c>
       <c r="Q5" s="45">
         <f ca="1"/>
-        <v>2.5445252703920943E-4</v>
+        <v>2.5418202792644814E-4</v>
       </c>
       <c r="R5" s="19" t="str">
         <f ca="1"/>
@@ -3650,20 +3658,20 @@
       </c>
       <c r="Y5" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-260.56122611544674</v>
+        <v>-258.74092663343134</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43536</v>
+        <v>44007</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B6, A6,E6, F6)</f>
-        <v>AUD-IRSwap-3Y-0.05-12/03/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
@@ -3682,7 +3690,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/03/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
       </c>
       <c r="J6" s="9" t="str">
         <f ca="1"/>
@@ -3690,7 +3698,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1"/>
-        <v>7.6377979560971365E-2</v>
+        <v>7.6271379922207311E-2</v>
       </c>
       <c r="L6" s="9" t="str">
         <f ca="1"/>
@@ -3698,7 +3706,7 @@
       </c>
       <c r="M6" s="19">
         <f ca="1"/>
-        <v>2.4994947666009728</v>
+        <v>2.4959608664967061</v>
       </c>
       <c r="N6" s="9" t="str">
         <f ca="1"/>
@@ -3714,7 +3722,7 @@
       </c>
       <c r="Q6" s="45">
         <f ca="1"/>
-        <v>2.4994947666009726E-4</v>
+        <v>2.4959608664967061E-4</v>
       </c>
       <c r="R6" s="19" t="str">
         <f ca="1"/>
@@ -3746,20 +3754,20 @@
       </c>
       <c r="Y6" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-263.77979560971363</v>
+        <v>-262.71379922207308</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43626</v>
+        <v>44097</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B7, A7,E7, F7)</f>
-        <v>AUD-IRSwap-3Y-0.05-10/06/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
@@ -3778,7 +3786,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-10/06/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
       </c>
       <c r="J7" s="9" t="str">
         <f ca="1"/>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="K7" s="49">
         <f ca="1"/>
-        <v>7.7107596334004311E-2</v>
+        <v>7.6787994261508508E-2</v>
       </c>
       <c r="L7" s="9" t="str">
         <f ca="1"/>
@@ -3794,7 +3802,7 @@
       </c>
       <c r="M7" s="19">
         <f ca="1"/>
-        <v>2.4568242703401504</v>
+        <v>2.4515898936126841</v>
       </c>
       <c r="N7" s="9" t="str">
         <f ca="1"/>
@@ -3810,7 +3818,7 @@
       </c>
       <c r="Q7" s="45">
         <f ca="1"/>
-        <v>2.4568242703401508E-4</v>
+        <v>2.4515898936126841E-4</v>
       </c>
       <c r="R7" s="19" t="str">
         <f ca="1"/>
@@ -3842,20 +3850,20 @@
       </c>
       <c r="Y7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-271.07596334004307</v>
+        <v>-267.87994261508504</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43716</v>
+        <v>44187</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B8, A8,E8, F8)</f>
-        <v>AUD-IRSwap-3Y-0.05-8/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
@@ -3872,7 +3880,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-8/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
       </c>
       <c r="J8" s="9" t="str">
         <f ca="1"/>
@@ -3880,7 +3888,7 @@
       </c>
       <c r="K8" s="49">
         <f ca="1"/>
-        <v>7.8041116317123627E-2</v>
+        <v>7.7615749020259486E-2</v>
       </c>
       <c r="L8" s="9" t="str">
         <f ca="1"/>
@@ -3888,7 +3896,7 @@
       </c>
       <c r="M8" s="19">
         <f ca="1"/>
-        <v>2.4046611123765986</v>
+        <v>2.4113694402775385</v>
       </c>
       <c r="N8" s="9" t="str">
         <f ca="1"/>
@@ -3904,7 +3912,7 @@
       </c>
       <c r="Q8" s="45">
         <f ca="1"/>
-        <v>2.4046611123765987E-4</v>
+        <v>2.4113694402775387E-4</v>
       </c>
       <c r="R8" s="19" t="str">
         <f ca="1"/>
@@ -3936,20 +3944,20 @@
       </c>
       <c r="Y8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-280.41116317123624</v>
+        <v>-276.15749020259483</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43806</v>
+        <v>44277</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B9, A9,E9, F9)</f>
-        <v>AUD-IRSwap-3Y-0.05-7/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-22/03/2021</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
@@ -3966,7 +3974,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-7/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-22/03/2021</v>
       </c>
       <c r="J9" s="9" t="str">
         <f ca="1"/>
@@ -3974,7 +3982,7 @@
       </c>
       <c r="K9" s="49">
         <f ca="1"/>
-        <v>7.9193473309033424E-2</v>
+        <v>7.8601999361071109E-2</v>
       </c>
       <c r="L9" s="9" t="str">
         <f ca="1"/>
@@ -3982,7 +3990,7 @@
       </c>
       <c r="M9" s="19">
         <f ca="1"/>
-        <v>2.3581024401532127</v>
+        <v>2.3636248110707769</v>
       </c>
       <c r="N9" s="9" t="str">
         <f ca="1"/>
@@ -3998,7 +4006,7 @@
       </c>
       <c r="Q9" s="45">
         <f ca="1"/>
-        <v>2.3581024401532128E-4</v>
+        <v>2.3636248110707768E-4</v>
       </c>
       <c r="R9" s="19" t="str">
         <f ca="1"/>
@@ -4030,20 +4038,20 @@
       </c>
       <c r="Y9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-291.93473309033419</v>
+        <v>-286.01999361071108</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43896</v>
+        <v>44367</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B10, A10,E10, F10)</f>
-        <v>AUD-IRSwap-3Y-0.05-6/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
@@ -4060,7 +4068,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-6/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
       </c>
       <c r="J10" s="9" t="str">
         <f ca="1"/>
@@ -4068,7 +4076,7 @@
       </c>
       <c r="K10" s="49">
         <f ca="1"/>
-        <v>7.9609233707764904E-2</v>
+        <v>7.9724012024984317E-2</v>
       </c>
       <c r="L10" s="9" t="str">
         <f ca="1"/>
@@ -4076,7 +4084,7 @@
       </c>
       <c r="M10" s="19">
         <f ca="1"/>
-        <v>2.3103469380740114</v>
+        <v>2.3143620296919112</v>
       </c>
       <c r="N10" s="9" t="str">
         <f ca="1"/>
@@ -4092,7 +4100,7 @@
       </c>
       <c r="Q10" s="45">
         <f ca="1"/>
-        <v>2.3103469380740112E-4</v>
+        <v>2.3143620296919111E-4</v>
       </c>
       <c r="R10" s="19" t="str">
         <f ca="1"/>
@@ -4124,20 +4132,20 @@
       </c>
       <c r="Y10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-296.09233707764901</v>
+        <v>-297.24012024984313</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43986</v>
+        <v>44457</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B11, A11,E11, F11)</f>
-        <v>AUD-IRSwap-3Y-0.05-4/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
@@ -4154,7 +4162,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-4/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
       </c>
       <c r="J11" s="9" t="str">
         <f ca="1"/>
@@ -4162,7 +4170,7 @@
       </c>
       <c r="K11" s="49">
         <f ca="1"/>
-        <v>7.8298816529535839E-2</v>
+        <v>7.9092386550728755E-2</v>
       </c>
       <c r="L11" s="9" t="str">
         <f ca="1"/>
@@ -4170,7 +4178,7 @@
       </c>
       <c r="M11" s="19">
         <f ca="1"/>
-        <v>2.2676000569308035</v>
+        <v>2.2696267902482328</v>
       </c>
       <c r="N11" s="9" t="str">
         <f ca="1"/>
@@ -4186,7 +4194,7 @@
       </c>
       <c r="Q11" s="45">
         <f ca="1"/>
-        <v>2.2676000569308032E-4</v>
+        <v>2.2696267902482328E-4</v>
       </c>
       <c r="R11" s="19" t="str">
         <f ca="1"/>
@@ -4218,20 +4226,20 @@
       </c>
       <c r="Y11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-282.98816529535839</v>
+        <v>-290.92386550728753</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44076</v>
+        <v>44547</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B12, A12,E12, F12)</f>
-        <v>AUD-IRSwap-3Y-0.05-2/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
@@ -4248,7 +4256,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-2/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
       </c>
       <c r="J12" s="9" t="str">
         <f ca="1"/>
@@ -4256,7 +4264,7 @@
       </c>
       <c r="K12" s="49">
         <f ca="1"/>
-        <v>7.6153050267505545E-2</v>
+        <v>7.6744368969768967E-2</v>
       </c>
       <c r="L12" s="9" t="str">
         <f ca="1"/>
@@ -4264,7 +4272,7 @@
       </c>
       <c r="M12" s="19">
         <f ca="1"/>
-        <v>2.2276473265363239</v>
+        <v>2.2270161159150064</v>
       </c>
       <c r="N12" s="9" t="str">
         <f ca="1"/>
@@ -4280,7 +4288,7 @@
       </c>
       <c r="Q12" s="45">
         <f ca="1"/>
-        <v>2.2276473265363239E-4</v>
+        <v>2.2270161159150062E-4</v>
       </c>
       <c r="R12" s="19" t="str">
         <f ca="1"/>
@@ -4312,20 +4320,20 @@
       </c>
       <c r="Y12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-261.5305026750554</v>
+        <v>-267.44368969768965</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44166</v>
+        <v>44637</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B13, A13,E13, F13)</f>
-        <v>AUD-IRSwap-3Y-0.05-1/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
@@ -4342,7 +4350,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
       </c>
       <c r="J13" s="9" t="str">
         <f ca="1"/>
@@ -4350,7 +4358,7 @@
       </c>
       <c r="K13" s="49">
         <f ca="1"/>
-        <v>7.3512534043159022E-2</v>
+        <v>7.3932106776627135E-2</v>
       </c>
       <c r="L13" s="9" t="str">
         <f ca="1"/>
@@ -4358,7 +4366,7 @@
       </c>
       <c r="M13" s="19">
         <f ca="1"/>
-        <v>2.1897899962587988</v>
+        <v>2.1880212542810202</v>
       </c>
       <c r="N13" s="9" t="str">
         <f ca="1"/>
@@ -4374,7 +4382,7 @@
       </c>
       <c r="Q13" s="45">
         <f ca="1"/>
-        <v>2.1897899962587989E-4</v>
+        <v>2.1880212542810202E-4</v>
       </c>
       <c r="R13" s="19" t="str">
         <f ca="1"/>
@@ -4406,20 +4414,20 @@
       </c>
       <c r="Y13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-235.12534043159019</v>
+        <v>-239.32106776627131</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44256</v>
+        <v>44727</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B14, A14,E14, F14)</f>
-        <v>AUD-IRSwap-3Y-0.05-1/03/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
@@ -4436,7 +4444,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/03/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
       </c>
       <c r="J14" s="9" t="str">
         <f ca="1"/>
@@ -4444,7 +4452,7 @@
       </c>
       <c r="K14" s="49">
         <f ca="1"/>
-        <v>7.0380734769366377E-2</v>
+        <v>7.0504573181118038E-2</v>
       </c>
       <c r="L14" s="9" t="str">
         <f ca="1"/>
@@ -4452,7 +4460,7 @@
       </c>
       <c r="M14" s="19">
         <f ca="1"/>
-        <v>2.1541913132116761</v>
+        <v>2.1506978022142178</v>
       </c>
       <c r="N14" s="9" t="str">
         <f ca="1"/>
@@ -4468,7 +4476,7 @@
       </c>
       <c r="Q14" s="45">
         <f ca="1"/>
-        <v>2.1541913132116762E-4</v>
+        <v>2.1506978022142176E-4</v>
       </c>
       <c r="R14" s="19" t="str">
         <f ca="1"/>
@@ -4500,20 +4508,20 @@
       </c>
       <c r="Y14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-203.80734769366373</v>
+        <v>-205.04573181118036</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44346</v>
+        <v>44817</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B15, A15,E15, F15)</f>
-        <v>AUD-IRSwap-3Y-0.05-30/05/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
@@ -4530,7 +4538,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-30/05/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
       </c>
       <c r="J15" s="9" t="str">
         <f ca="1"/>
@@ -4538,7 +4546,7 @@
       </c>
       <c r="K15" s="49">
         <f ca="1"/>
-        <v>6.9022459614486525E-2</v>
+        <v>6.9030663083448754E-2</v>
       </c>
       <c r="L15" s="9" t="str">
         <f ca="1"/>
@@ -4546,7 +4554,7 @@
       </c>
       <c r="M15" s="19">
         <f ca="1"/>
-        <v>2.1147000476997828</v>
+        <v>2.1164470369689936</v>
       </c>
       <c r="N15" s="9" t="str">
         <f ca="1"/>
@@ -4562,7 +4570,7 @@
       </c>
       <c r="Q15" s="45">
         <f ca="1"/>
-        <v>2.1147000476997831E-4</v>
+        <v>2.1164470369689937E-4</v>
       </c>
       <c r="R15" s="19" t="str">
         <f ca="1"/>
@@ -4594,20 +4602,20 @@
       </c>
       <c r="Y15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-190.22459614486522</v>
+        <v>-190.30663083448752</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44436</v>
+        <v>44907</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B16, A16,E16, F16)</f>
-        <v>AUD-IRSwap-3Y-0.05-28/08/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="0"/>
@@ -4624,7 +4632,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/08/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
       </c>
       <c r="J16" s="9" t="str">
         <f ca="1"/>
@@ -4632,7 +4640,7 @@
       </c>
       <c r="K16" s="49">
         <f ca="1"/>
-        <v>6.807025488148187E-2</v>
+        <v>6.80818531916286E-2</v>
       </c>
       <c r="L16" s="9" t="str">
         <f ca="1"/>
@@ -4640,7 +4648,7 @@
       </c>
       <c r="M16" s="19">
         <f ca="1"/>
-        <v>2.0794128576833177</v>
+        <v>2.0832197704830611</v>
       </c>
       <c r="N16" s="9" t="str">
         <f ca="1"/>
@@ -4656,7 +4664,7 @@
       </c>
       <c r="Q16" s="45">
         <f ca="1"/>
-        <v>2.0794128576833178E-4</v>
+        <v>2.0832197704830611E-4</v>
       </c>
       <c r="R16" s="19" t="str">
         <f ca="1"/>
@@ -4688,20 +4696,20 @@
       </c>
       <c r="Y16" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-180.70254881481867</v>
+        <v>-180.81853191628596</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44526</v>
+        <v>44997</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B17, A17,E17, F17)</f>
-        <v>AUD-IRSwap-3Y-0.05-26/11/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
       </c>
       <c r="D17" s="27">
         <f t="shared" si="0"/>
@@ -4718,7 +4726,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-26/11/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
       </c>
       <c r="J17" s="9" t="str">
         <f ca="1"/>
@@ -4726,7 +4734,7 @@
       </c>
       <c r="K17" s="49">
         <f ca="1"/>
-        <v>6.7069997758635092E-2</v>
+        <v>6.7105873151555598E-2</v>
       </c>
       <c r="L17" s="9" t="str">
         <f ca="1"/>
@@ -4734,7 +4742,7 @@
       </c>
       <c r="M17" s="19">
         <f ca="1"/>
-        <v>2.0452169768458259</v>
+        <v>2.0459484129535883</v>
       </c>
       <c r="N17" s="9" t="str">
         <f ca="1"/>
@@ -4750,7 +4758,7 @@
       </c>
       <c r="Q17" s="45">
         <f ca="1"/>
-        <v>2.0452169768458262E-4</v>
+        <v>2.0459484129535884E-4</v>
       </c>
       <c r="R17" s="19" t="str">
         <f ca="1"/>
@@ -4782,20 +4790,20 @@
       </c>
       <c r="Y17" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-170.69997758635088</v>
+        <v>-171.05873151555596</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44616</v>
+        <v>45087</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B18, A18,E18, F18)</f>
-        <v>AUD-IRSwap-3Y-0.05-24/02/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
       </c>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
@@ -4812,7 +4820,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-24/02/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
       </c>
       <c r="J18" s="9" t="str">
         <f ca="1"/>
@@ -4820,7 +4828,7 @@
       </c>
       <c r="K18" s="49">
         <f ca="1"/>
-        <v>6.6056901650499877E-2</v>
+        <v>6.6032336821097354E-2</v>
       </c>
       <c r="L18" s="9" t="str">
         <f ca="1"/>
@@ -4828,7 +4836,7 @@
       </c>
       <c r="M18" s="19">
         <f ca="1"/>
-        <v>2.0131632323539606</v>
+        <v>2.0157656467446823</v>
       </c>
       <c r="N18" s="9" t="str">
         <f ca="1"/>
@@ -4844,7 +4852,7 @@
       </c>
       <c r="Q18" s="45">
         <f ca="1"/>
-        <v>2.0131632323539607E-4</v>
+        <v>2.0157656467446823E-4</v>
       </c>
       <c r="R18" s="19" t="str">
         <f ca="1"/>
@@ -4876,20 +4884,20 @@
       </c>
       <c r="Y18" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-160.56901650499876</v>
+        <v>-160.32336821097351</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44706</v>
+        <v>45177</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B19, A19,E19, F19)</f>
-        <v>AUD-IRSwap-3Y-0.05-25/05/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
@@ -4906,7 +4914,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/05/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
       </c>
       <c r="J19" s="9" t="str">
         <f ca="1"/>
@@ -4914,7 +4922,7 @@
       </c>
       <c r="K19" s="49">
         <f ca="1"/>
-        <v>6.5170766616015188E-2</v>
+        <v>6.5160347748091554E-2</v>
       </c>
       <c r="L19" s="9" t="str">
         <f ca="1"/>
@@ -4922,7 +4930,7 @@
       </c>
       <c r="M19" s="19">
         <f ca="1"/>
-        <v>1.9813238923994145</v>
+        <v>1.9806391734901685</v>
       </c>
       <c r="N19" s="9" t="str">
         <f ca="1"/>
@@ -4938,7 +4946,7 @@
       </c>
       <c r="Q19" s="45">
         <f ca="1"/>
-        <v>1.9813238923994145E-4</v>
+        <v>1.9806391734901685E-4</v>
       </c>
       <c r="R19" s="19" t="str">
         <f ca="1"/>
@@ -4970,20 +4978,20 @@
       </c>
       <c r="Y19" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-151.70766616015186</v>
+        <v>-151.60347748091553</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44796</v>
+        <v>45267</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B20, A20,E20, F20)</f>
-        <v>AUD-IRSwap-3Y-0.05-23/08/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-7/12/2023</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" si="0"/>
@@ -5000,7 +5008,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/08/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-7/12/2023</v>
       </c>
       <c r="J20" s="9" t="str">
         <f ca="1"/>
@@ -5008,7 +5016,7 @@
       </c>
       <c r="K20" s="49">
         <f ca="1"/>
-        <v>6.4299683208819347E-2</v>
+        <v>6.4309208090530895E-2</v>
       </c>
       <c r="L20" s="9" t="str">
         <f ca="1"/>
@@ -5016,7 +5024,7 @@
       </c>
       <c r="M20" s="19">
         <f ca="1"/>
-        <v>1.9520223597975124</v>
+        <v>1.950400783046208</v>
       </c>
       <c r="N20" s="9" t="str">
         <f ca="1"/>
@@ -5032,7 +5040,7 @@
       </c>
       <c r="Q20" s="45">
         <f ca="1"/>
-        <v>1.9520223597975123E-4</v>
+        <v>1.9504007830462079E-4</v>
       </c>
       <c r="R20" s="19" t="str">
         <f ca="1"/>
@@ -5064,20 +5072,20 @@
       </c>
       <c r="Y20" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-142.99683208819343</v>
+        <v>-143.09208090530893</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44886</v>
+        <v>45357</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B21, A21,E21, F21)</f>
-        <v>AUD-IRSwap-3Y-0.05-21/11/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-6/03/2024</v>
       </c>
       <c r="D21" s="27">
         <f t="shared" si="0"/>
@@ -5094,7 +5102,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-21/11/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-6/03/2024</v>
       </c>
       <c r="J21" s="9" t="str">
         <f ca="1"/>
@@ -5102,7 +5110,7 @@
       </c>
       <c r="K21" s="49">
         <f ca="1"/>
-        <v>6.339034851647013E-2</v>
+        <v>6.3399365857070789E-2</v>
       </c>
       <c r="L21" s="9" t="str">
         <f ca="1"/>
@@ -5110,7 +5118,7 @@
       </c>
       <c r="M21" s="19">
         <f ca="1"/>
-        <v>1.9235785266852319</v>
+        <v>1.9203931257282967</v>
       </c>
       <c r="N21" s="9" t="str">
         <f ca="1"/>
@@ -5126,7 +5134,7 @@
       </c>
       <c r="Q21" s="45">
         <f ca="1"/>
-        <v>1.9235785266852318E-4</v>
+        <v>1.9203931257282968E-4</v>
       </c>
       <c r="R21" s="19" t="str">
         <f ca="1"/>
@@ -5158,20 +5166,20 @@
       </c>
       <c r="Y21" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-133.90348516470127</v>
+        <v>-133.99365857070785</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44976</v>
+        <v>45447</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B22, A22,E22, F22)</f>
-        <v>AUD-IRSwap-3Y-0.05-19/02/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-4/06/2024</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="0"/>
@@ -5188,7 +5196,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-19/02/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-4/06/2024</v>
       </c>
       <c r="J22" s="9" t="str">
         <f ca="1"/>
@@ -5196,7 +5204,7 @@
       </c>
       <c r="K22" s="49">
         <f ca="1"/>
-        <v>6.2440186941417258E-2</v>
+        <v>6.2451413286450846E-2</v>
       </c>
       <c r="L22" s="9" t="str">
         <f ca="1"/>
@@ -5204,7 +5212,7 @@
       </c>
       <c r="M22" s="19">
         <f ca="1"/>
-        <v>1.8913053229657828</v>
+        <v>1.8928398309154899</v>
       </c>
       <c r="N22" s="9" t="str">
         <f ca="1"/>
@@ -5220,7 +5228,7 @@
       </c>
       <c r="Q22" s="45">
         <f ca="1"/>
-        <v>1.8913053229657826E-4</v>
+        <v>1.89283983091549E-4</v>
       </c>
       <c r="R22" s="19" t="str">
         <f ca="1"/>
@@ -5252,20 +5260,20 @@
       </c>
       <c r="Y22" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.40186941417255</v>
+        <v>-124.51413286450844</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45066</v>
+        <v>45537</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B23, A23,E23, F23)</f>
-        <v>AUD-IRSwap-3Y-0.05-20/05/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-2/09/2024</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="0"/>
@@ -5282,7 +5290,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-20/05/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-2/09/2024</v>
       </c>
       <c r="J23" s="9" t="str">
         <f ca="1"/>
@@ -5290,7 +5298,7 @@
       </c>
       <c r="K23" s="49">
         <f ca="1"/>
-        <v>6.2010542992799886E-2</v>
+        <v>6.2013802470589005E-2</v>
       </c>
       <c r="L23" s="9" t="str">
         <f ca="1"/>
@@ -5298,7 +5306,7 @@
       </c>
       <c r="M23" s="19">
         <f ca="1"/>
-        <v>1.8625049023423366</v>
+        <v>1.8612713229500457</v>
       </c>
       <c r="N23" s="9" t="str">
         <f ca="1"/>
@@ -5314,7 +5322,7 @@
       </c>
       <c r="Q23" s="45">
         <f ca="1"/>
-        <v>1.8625049023423366E-4</v>
+        <v>1.8612713229500458E-4</v>
       </c>
       <c r="R23" s="19" t="str">
         <f ca="1"/>
@@ -5346,20 +5354,20 @@
       </c>
       <c r="Y23" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-120.10542992799883</v>
+        <v>-120.13802470589002</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45156</v>
+        <v>45627</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B24, A24,E24, F24)</f>
-        <v>AUD-IRSwap-3Y-0.05-18/08/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2024</v>
       </c>
       <c r="D24" s="27">
         <f t="shared" si="0"/>
@@ -5376,7 +5384,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-18/08/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2024</v>
       </c>
       <c r="J24" s="9" t="str">
         <f ca="1"/>
@@ -5384,7 +5392,7 @@
       </c>
       <c r="K24" s="49">
         <f ca="1"/>
-        <v>6.1867248979871489E-2</v>
+        <v>6.1872955380663876E-2</v>
       </c>
       <c r="L24" s="9" t="str">
         <f ca="1"/>
@@ -5392,7 +5400,7 @@
       </c>
       <c r="M24" s="19">
         <f ca="1"/>
-        <v>1.8342137292326026</v>
+        <v>1.8333039186720825</v>
       </c>
       <c r="N24" s="9" t="str">
         <f ca="1"/>
@@ -5408,7 +5416,7 @@
       </c>
       <c r="Q24" s="45">
         <f ca="1"/>
-        <v>1.8342137292326024E-4</v>
+        <v>1.8333039186720827E-4</v>
       </c>
       <c r="R24" s="19" t="str">
         <f ca="1"/>
@@ -5440,20 +5448,20 @@
       </c>
       <c r="Y24" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-118.67248979871486</v>
+        <v>-118.72955380663873</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45246</v>
+        <v>45717</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B25, A25,E25, F25)</f>
-        <v>AUD-IRSwap-3Y-0.05-16/11/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-1/03/2025</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="0"/>
@@ -5470,7 +5478,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-16/11/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-1/03/2025</v>
       </c>
       <c r="J25" s="9" t="str">
         <f ca="1"/>
@@ -5478,7 +5486,7 @@
       </c>
       <c r="K25" s="49">
         <f ca="1"/>
-        <v>6.1775784741238945E-2</v>
+        <v>6.1780189490487053E-2</v>
       </c>
       <c r="L25" s="9" t="str">
         <f ca="1"/>
@@ -5486,7 +5494,7 @@
       </c>
       <c r="M25" s="19">
         <f ca="1"/>
-        <v>1.8073021046822213</v>
+        <v>1.8069818359805088</v>
       </c>
       <c r="N25" s="9" t="str">
         <f ca="1"/>
@@ -5502,7 +5510,7 @@
       </c>
       <c r="Q25" s="45">
         <f ca="1"/>
-        <v>1.8073021046822215E-4</v>
+        <v>1.8069818359805085E-4</v>
       </c>
       <c r="R25" s="19" t="str">
         <f ca="1"/>
@@ -5534,20 +5542,20 @@
       </c>
       <c r="Y25" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.75784741238942</v>
+        <v>-117.80189490487051</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45336</v>
+        <v>45807</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B26, A26,E26, F26)</f>
-        <v>AUD-IRSwap-3Y-0.05-14/02/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-30/05/2025</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="0"/>
@@ -5564,7 +5572,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-14/02/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-30/05/2025</v>
       </c>
       <c r="J26" s="9" t="str">
         <f ca="1"/>
@@ -5572,7 +5580,7 @@
       </c>
       <c r="K26" s="49">
         <f ca="1"/>
-        <v>6.1730635515449134E-2</v>
+        <v>6.1736825765452918E-2</v>
       </c>
       <c r="L26" s="9" t="str">
         <f ca="1"/>
@@ -5580,7 +5588,7 @@
       </c>
       <c r="M26" s="19">
         <f ca="1"/>
-        <v>1.7802099797799962</v>
+        <v>1.7795924352369559</v>
       </c>
       <c r="N26" s="9" t="str">
         <f ca="1"/>
@@ -5596,7 +5604,7 @@
       </c>
       <c r="Q26" s="45">
         <f ca="1"/>
-        <v>1.7802099797799959E-4</v>
+        <v>1.7795924352369559E-4</v>
       </c>
       <c r="R26" s="19" t="str">
         <f ca="1"/>
@@ -5628,20 +5636,20 @@
       </c>
       <c r="Y26" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.30635515449131</v>
+        <v>-117.36825765452916</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45426</v>
+        <v>45897</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B27, A27,E27, F27)</f>
-        <v>AUD-IRSwap-3Y-0.05-14/05/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-28/08/2025</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="0"/>
@@ -5658,7 +5666,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-14/05/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-28/08/2025</v>
       </c>
       <c r="J27" s="9" t="str">
         <f ca="1"/>
@@ -5666,7 +5674,7 @@
       </c>
       <c r="K27" s="29">
         <f ca="1"/>
-        <v>6.1782929982109172E-2</v>
+        <v>6.1785306087148148E-2</v>
       </c>
       <c r="L27" s="9" t="str">
         <f ca="1"/>
@@ -5674,7 +5682,7 @@
       </c>
       <c r="M27" s="19">
         <f ca="1"/>
-        <v>1.7549421269704328</v>
+        <v>1.7534725482453404</v>
       </c>
       <c r="N27" s="9" t="str">
         <f ca="1"/>
@@ -5690,7 +5698,7 @@
       </c>
       <c r="Q27" s="45">
         <f ca="1"/>
-        <v>1.754942126970433E-4</v>
+        <v>1.7534725482453405E-4</v>
       </c>
       <c r="R27" s="19" t="str">
         <f ca="1"/>
@@ -5722,20 +5730,20 @@
       </c>
       <c r="Y27" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.82929982109169</v>
+        <v>-117.85306087148145</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45516</v>
+        <v>45987</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B28, A28,E28, F28)</f>
-        <v>AUD-IRSwap-3Y-0.05-12/08/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-26/11/2025</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="0"/>
@@ -5752,7 +5760,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/08/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-26/11/2025</v>
       </c>
       <c r="J28" s="9" t="str">
         <f ca="1"/>
@@ -5760,7 +5768,7 @@
       </c>
       <c r="K28" s="29">
         <f ca="1"/>
-        <v>6.1914119118573779E-2</v>
+        <v>6.1915224515438315E-2</v>
       </c>
       <c r="L28" s="9" t="str">
         <f ca="1"/>
@@ -5768,7 +5776,7 @@
       </c>
       <c r="M28" s="19">
         <f ca="1"/>
-        <v>1.7257103689739492</v>
+        <v>1.7271090615092797</v>
       </c>
       <c r="N28" s="9" t="str">
         <f ca="1"/>
@@ -5784,7 +5792,7 @@
       </c>
       <c r="Q28" s="45">
         <f ca="1"/>
-        <v>1.7257103689739491E-4</v>
+        <v>1.7271090615092799E-4</v>
       </c>
       <c r="R28" s="19" t="str">
         <f ca="1"/>
@@ -5816,20 +5824,20 @@
       </c>
       <c r="Y28" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-119.14119118573777</v>
+        <v>-119.15224515438312</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45606</v>
+        <v>46077</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B29, A29,E29, F29)</f>
-        <v>AUD-IRSwap-3Y-0.05-10/11/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-24/02/2026</v>
       </c>
       <c r="D29" s="27">
         <f t="shared" si="0"/>
@@ -5846,7 +5854,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-10/11/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-24/02/2026</v>
       </c>
       <c r="J29" s="9" t="str">
         <f ca="1"/>
@@ -5854,7 +5862,7 @@
       </c>
       <c r="K29" s="29">
         <f ca="1"/>
-        <v>6.2102722954986714E-2</v>
+        <v>6.2101088515102404E-2</v>
       </c>
       <c r="L29" s="9" t="str">
         <f ca="1"/>
@@ -5862,7 +5870,7 @@
       </c>
       <c r="M29" s="19">
         <f ca="1"/>
-        <v>1.6996885206793197</v>
+        <v>1.7024659181751809</v>
       </c>
       <c r="N29" s="9" t="str">
         <f ca="1"/>
@@ -5878,7 +5886,7 @@
       </c>
       <c r="Q29" s="45">
         <f ca="1"/>
-        <v>1.6996885206793197E-4</v>
+        <v>1.7024659181751812E-4</v>
       </c>
       <c r="R29" s="19" t="str">
         <f ca="1"/>
@@ -5910,20 +5918,20 @@
       </c>
       <c r="Y29" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-121.02722954986712</v>
+        <v>-121.01088515102401</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45696</v>
+        <v>46167</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B30, A30,E30, F30)</f>
-        <v>AUD-IRSwap-3Y-0.05-8/02/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-25/05/2026</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="0"/>
@@ -5940,7 +5948,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-8/02/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-25/05/2026</v>
       </c>
       <c r="J30" s="9" t="str">
         <f ca="1"/>
@@ -5948,7 +5956,7 @@
       </c>
       <c r="K30" s="29">
         <f ca="1"/>
-        <v>6.2351927617550575E-2</v>
+        <v>6.2343479895170625E-2</v>
       </c>
       <c r="L30" s="9" t="str">
         <f ca="1"/>
@@ -5956,7 +5964,7 @@
       </c>
       <c r="M30" s="19">
         <f ca="1"/>
-        <v>1.6736720868816268</v>
+        <v>1.6780688837323152</v>
       </c>
       <c r="N30" s="9" t="str">
         <f ca="1"/>
@@ -5972,7 +5980,7 @@
       </c>
       <c r="Q30" s="45">
         <f ca="1"/>
-        <v>1.673672086881627E-4</v>
+        <v>1.678068883732315E-4</v>
       </c>
       <c r="R30" s="19" t="str">
         <f ca="1"/>
@@ -6004,20 +6012,20 @@
       </c>
       <c r="Y30" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-123.51927617550572</v>
+        <v>-123.43479895170623</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45786</v>
+        <v>46257</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B31, A31,E31, F31)</f>
-        <v>AUD-IRSwap-3Y-0.05-9/05/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-23/08/2026</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="0"/>
@@ -6034,7 +6042,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-9/05/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-23/08/2026</v>
       </c>
       <c r="J31" s="9" t="str">
         <f ca="1"/>
@@ -6042,7 +6050,7 @@
       </c>
       <c r="K31" s="29">
         <f ca="1"/>
-        <v>6.243699637328199E-2</v>
+        <v>6.2437617589464915E-2</v>
       </c>
       <c r="L31" s="9" t="str">
         <f ca="1"/>
@@ -6050,7 +6058,7 @@
       </c>
       <c r="M31" s="19">
         <f ca="1"/>
-        <v>1.6493732483964583</v>
+        <v>1.6499098857301202</v>
       </c>
       <c r="N31" s="9" t="str">
         <f ca="1"/>
@@ -6066,7 +6074,7 @@
       </c>
       <c r="Q31" s="45">
         <f ca="1"/>
-        <v>1.6493732483964583E-4</v>
+        <v>1.6499098857301203E-4</v>
       </c>
       <c r="R31" s="19" t="str">
         <f ca="1"/>
@@ -6098,20 +6106,20 @@
       </c>
       <c r="Y31" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.36996373281987</v>
+        <v>-124.37617589464912</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45876</v>
+        <v>46347</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B32, A32,E32, F32)</f>
-        <v>AUD-IRSwap-3Y-0.05-7/08/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-21/11/2026</v>
       </c>
       <c r="D32" s="27">
         <f t="shared" si="0"/>
@@ -6128,7 +6136,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-7/08/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-21/11/2026</v>
       </c>
       <c r="J32" s="9" t="str">
         <f ca="1"/>
@@ -6136,7 +6144,7 @@
       </c>
       <c r="K32" s="29">
         <f ca="1"/>
-        <v>6.2407625254759992E-2</v>
+        <v>6.2406621734651016E-2</v>
       </c>
       <c r="L32" s="9" t="str">
         <f ca="1"/>
@@ -6144,7 +6152,7 @@
       </c>
       <c r="M32" s="19">
         <f ca="1"/>
-        <v>1.6249290829497371</v>
+        <v>1.6246375025068962</v>
       </c>
       <c r="N32" s="9" t="str">
         <f ca="1"/>
@@ -6160,7 +6168,7 @@
       </c>
       <c r="Q32" s="45">
         <f ca="1"/>
-        <v>1.6249290829497371E-4</v>
+        <v>1.6246375025068962E-4</v>
       </c>
       <c r="R32" s="19" t="str">
         <f ca="1"/>
@@ -6192,7 +6200,7 @@
       </c>
       <c r="Y32" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.07625254759989</v>
+        <v>-124.06621734651013</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -6351,29 +6359,29 @@
       </c>
       <c r="C36" s="6" t="str">
         <f t="array" aca="1" ref="C36:D45" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuotes('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!C10:C26)</f>
-        <v>AUD-IRSwap-3Y-0.05-6/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
       </c>
       <c r="D36" s="84">
         <f ca="1"/>
-        <v>7.4405713571880902E-2</v>
+        <v>7.4335026625046582E-2</v>
       </c>
       <c r="G36" s="6" t="str">
-        <f t="array" ref="G36:G44">_xll.Orion.ExcelAPI.Cache.SupportedRateMetrics()</f>
+        <f t="array" ref="G36:G44">_xll.HLV5r3.Financial.Cache.SupportedRateMetrics()</f>
         <v>DiscountFactorAtMaturity</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12" thickBot="1">
       <c r="B37" s="6" t="str">
-        <f t="array" ref="B37:B90">_xll.Orion.ExcelAPI.Cache.SupportedAssets()</f>
+        <f t="array" ref="B37:B90">_xll.HLV5r3.Financial.Cache.SupportedAssets()</f>
         <v>BasisSwap</v>
       </c>
       <c r="C37" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-4/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
       </c>
       <c r="D37" s="84">
         <f ca="1"/>
-        <v>7.4347936564035114E-2</v>
+        <v>7.436714203517604E-2</v>
       </c>
       <c r="G37" s="6" t="str">
         <v>NPV</v>
@@ -6402,11 +6410,11 @@
       </c>
       <c r="C38" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-2/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
       </c>
       <c r="D38" s="84">
         <f ca="1"/>
-        <v>7.4370859821589821E-2</v>
+        <v>7.4399432464030385E-2</v>
       </c>
       <c r="G38" s="6" t="str">
         <v>AccrualFactor</v>
@@ -6433,38 +6441,38 @@
       </c>
       <c r="C39" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
       </c>
       <c r="D39" s="84">
         <f ca="1"/>
-        <v>7.4392789930820796E-2</v>
+        <v>7.4335274400096532E-2</v>
       </c>
       <c r="G39" s="6" t="str">
         <v>ImpliedQuote</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39" s="50" t="str">
         <f t="array" aca="1" ref="I39:W70" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(G2:G7,'GetInfo &amp; GetInstrumentInfo'!$D$9,C3:C32,$A$2)</f>
-        <v>7.4628688980228647E-2</v>
-      </c>
-      <c r="J39" s="14">
-        <f ca="1"/>
-        <v>2.6394729629369209</v>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J39" s="14" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K39" s="28">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14">
-        <f ca="1"/>
-        <v>2.6394729629369211E-4</v>
-      </c>
-      <c r="M39" s="15">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="14">
-        <f ca="1"/>
-        <v>-6.5006758675895962E-2</v>
+        <v>7.4629901229968487E-2</v>
+      </c>
+      <c r="L39" s="14" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" s="15" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="14" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O39" s="41" t="e">
         <f ca="1"/>
@@ -6509,38 +6517,38 @@
       </c>
       <c r="C40" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/03/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
       </c>
       <c r="D40" s="84">
         <f ca="1"/>
-        <v>7.4392041626980418E-2</v>
+        <v>7.4334894968071663E-2</v>
       </c>
       <c r="G40" s="6" t="str">
         <v>ConvexityAdjustment</v>
       </c>
-      <c r="I40" s="51">
-        <f ca="1"/>
-        <v>7.5575099297089915E-2</v>
-      </c>
-      <c r="J40" s="9">
-        <f ca="1"/>
-        <v>2.5922689418935736</v>
+      <c r="I40" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K40" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <f ca="1"/>
-        <v>2.5922689418935737E-4</v>
-      </c>
-      <c r="M40" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N40" s="9">
-        <f ca="1"/>
-        <v>-6.6297535593690324E-2</v>
+        <v>2.6406177227896381</v>
+      </c>
+      <c r="L40" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O40" s="42" t="e">
         <f ca="1"/>
@@ -6585,38 +6593,38 @@
       </c>
       <c r="C41" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-30/05/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
       </c>
       <c r="D41" s="84">
         <f ca="1"/>
-        <v>7.4371204642595196E-2</v>
+        <v>7.4359947091565778E-2</v>
       </c>
       <c r="G41" s="6" t="str">
         <v>DeltaR</v>
       </c>
-      <c r="I41" s="51">
-        <f ca="1"/>
-        <v>7.605612261154468E-2</v>
-      </c>
-      <c r="J41" s="9">
-        <f ca="1"/>
-        <v>2.5445252703920946</v>
+      <c r="I41" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K41" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="9">
-        <f ca="1"/>
-        <v>2.5445252703920943E-4</v>
-      </c>
-      <c r="M41" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N41" s="9">
-        <f ca="1"/>
-        <v>-6.6300462433510274E-2</v>
+      <c r="L41" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M41" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O41" s="42" t="e">
         <f ca="1"/>
@@ -6661,38 +6669,38 @@
       </c>
       <c r="C42" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/08/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
       </c>
       <c r="D42" s="84">
         <f ca="1"/>
-        <v>7.4399638926437361E-2</v>
+        <v>7.4385037012894534E-2</v>
       </c>
       <c r="G42" s="6" t="str">
         <v>MarketQuote</v>
       </c>
-      <c r="I42" s="51">
-        <f ca="1"/>
-        <v>7.6377979560971365E-2</v>
-      </c>
-      <c r="J42" s="9">
-        <f ca="1"/>
-        <v>2.4994947666009728</v>
+      <c r="I42" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J42" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K42" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <f ca="1"/>
-        <v>2.4994947666009726E-4</v>
-      </c>
-      <c r="M42" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N42" s="9">
-        <f ca="1"/>
-        <v>-6.5931621866155365E-2</v>
+        <v>2.6406177227896382E-4</v>
+      </c>
+      <c r="L42" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O42" s="42" t="e">
         <f ca="1"/>
@@ -6737,38 +6745,38 @@
       </c>
       <c r="C43" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-26/11/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
       </c>
       <c r="D43" s="84">
         <f ca="1"/>
-        <v>7.4405549291707299E-2</v>
-      </c>
-      <c r="G43" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I43" s="51">
-        <f ca="1"/>
-        <v>7.7107596334004311E-2</v>
-      </c>
-      <c r="J43" s="9">
-        <f ca="1"/>
-        <v>2.4568242703401504</v>
+        <v>7.4334972961416862E-2</v>
+      </c>
+      <c r="G43" s="6" t="str">
+        <v>NPVChange</v>
+      </c>
+      <c r="I43" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K43" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <f ca="1"/>
-        <v>2.4568242703401508E-4</v>
-      </c>
-      <c r="M43" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N43" s="9">
-        <f ca="1"/>
-        <v>-6.6598600583965481E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L43" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N43" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O43" s="42" t="e">
         <f ca="1"/>
@@ -6813,38 +6821,38 @@
       </c>
       <c r="C44" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-24/02/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
       </c>
       <c r="D44" s="84">
         <f ca="1"/>
-        <v>7.4370407954704842E-2</v>
+        <v>7.4397822719886611E-2</v>
       </c>
       <c r="G44" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I44" s="51">
-        <f ca="1"/>
-        <v>7.8041116317123627E-2</v>
-      </c>
-      <c r="J44" s="9">
-        <f ca="1"/>
-        <v>2.4046611123765986</v>
+      <c r="I44" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K44" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <f ca="1"/>
-        <v>2.4046611123765987E-4</v>
-      </c>
-      <c r="M44" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N44" s="9">
-        <f ca="1"/>
-        <v>-6.7429381955416076E-2</v>
+        <v>-6.5038153698413093E-2</v>
+      </c>
+      <c r="L44" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N44" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O44" s="42" t="e">
         <f ca="1"/>
@@ -6889,35 +6897,35 @@
       </c>
       <c r="C45" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/05/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
       </c>
       <c r="D45" s="84">
         <f ca="1"/>
-        <v>7.4370555732994448E-2</v>
-      </c>
-      <c r="I45" s="51">
-        <f ca="1"/>
-        <v>7.9193473309033424E-2</v>
-      </c>
-      <c r="J45" s="9">
-        <f ca="1"/>
-        <v>2.3581024401532127</v>
+        <v>7.4399459900428816E-2</v>
+      </c>
+      <c r="I45" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J45" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K45" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <f ca="1"/>
-        <v>2.3581024401532128E-4</v>
-      </c>
-      <c r="M45" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N45" s="9">
-        <f ca="1"/>
-        <v>-6.8841200646579379E-2</v>
+        <v>7.5263531118901772E-2</v>
+      </c>
+      <c r="L45" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O45" s="42" t="e">
         <f ca="1"/>
@@ -6961,29 +6969,29 @@
         <v>BillFloorlet</v>
       </c>
       <c r="D46" s="84"/>
-      <c r="I46" s="51">
-        <f ca="1"/>
-        <v>7.9609233707764904E-2</v>
-      </c>
-      <c r="J46" s="9">
-        <f ca="1"/>
-        <v>2.3103469380740114</v>
+      <c r="I46" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K46" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <f ca="1"/>
-        <v>2.3103469380740112E-4</v>
-      </c>
-      <c r="M46" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N46" s="9">
-        <f ca="1"/>
-        <v>-6.840760243545245E-2</v>
+        <v>2.5919809309848469</v>
+      </c>
+      <c r="L46" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M46" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N46" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O46" s="42" t="e">
         <f ca="1"/>
@@ -7028,31 +7036,31 @@
       </c>
       <c r="D47" s="84">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuote('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!C2)</f>
-        <v>7.4399179845323571E-2</v>
-      </c>
-      <c r="I47" s="51">
-        <f ca="1"/>
-        <v>7.8298816529535839E-2</v>
-      </c>
-      <c r="J47" s="9">
-        <f ca="1"/>
-        <v>2.2676000569308035</v>
+        <v>7.4385377875522213E-2</v>
+      </c>
+      <c r="I47" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K47" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="9">
-        <f ca="1"/>
-        <v>2.2676000569308032E-4</v>
-      </c>
-      <c r="M47" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N47" s="9">
-        <f ca="1"/>
-        <v>-6.4170397973449839E-2</v>
+      <c r="L47" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N47" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O47" s="42" t="e">
         <f ca="1"/>
@@ -7097,31 +7105,31 @@
       </c>
       <c r="D48" s="84">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetAssetImpliedQuote( 'GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!B2, 'Priceable Rate Assets'!D2, 'Priceable Rate Assets'!F2, 'Priceable Rate Assets'!A2)</f>
-        <v>7.4399179845323571E-2</v>
-      </c>
-      <c r="I48" s="51">
-        <f ca="1"/>
-        <v>7.6153050267505545E-2</v>
-      </c>
-      <c r="J48" s="9">
-        <f ca="1"/>
-        <v>2.2276473265363239</v>
+        <v>7.4385377875522213E-2</v>
+      </c>
+      <c r="I48" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K48" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <f ca="1"/>
-        <v>2.2276473265363239E-4</v>
-      </c>
-      <c r="M48" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N48" s="9">
-        <f ca="1"/>
-        <v>-5.8259772509178805E-2</v>
+        <v>2.5919809309848469E-4</v>
+      </c>
+      <c r="L48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M48" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O48" s="42" t="e">
         <f ca="1"/>
@@ -7164,29 +7172,29 @@
       <c r="B49" s="6" t="str">
         <v>FxFuture</v>
       </c>
-      <c r="I49" s="51">
-        <f ca="1"/>
-        <v>7.3512534043159022E-2</v>
-      </c>
-      <c r="J49" s="9">
-        <f ca="1"/>
-        <v>2.1897899962587988</v>
+      <c r="I49" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K49" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <f ca="1"/>
-        <v>2.1897899962587989E-4</v>
-      </c>
-      <c r="M49" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N49" s="9">
-        <f ca="1"/>
-        <v>-5.1487511834404066E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O49" s="42" t="e">
         <f ca="1"/>
@@ -7229,29 +7237,29 @@
       <c r="B50" s="6" t="str">
         <v>CommoditySpot</v>
       </c>
-      <c r="I50" s="51">
-        <f ca="1"/>
-        <v>7.0380734769366377E-2</v>
-      </c>
-      <c r="J50" s="9">
-        <f ca="1"/>
-        <v>2.1541913132116761</v>
+      <c r="I50" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K50" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <f ca="1"/>
-        <v>2.1541913132116762E-4</v>
-      </c>
-      <c r="M50" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N50" s="9">
-        <f ca="1"/>
-        <v>-4.3904001797040196E-2</v>
+        <v>-6.5482590909535662E-2</v>
+      </c>
+      <c r="L50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O50" s="42" t="e">
         <f ca="1"/>
@@ -7294,29 +7302,29 @@
       <c r="B51" s="6" t="str">
         <v>CommodityForward</v>
       </c>
-      <c r="I51" s="51">
-        <f ca="1"/>
-        <v>6.9022459614486525E-2</v>
-      </c>
-      <c r="J51" s="9">
-        <f ca="1"/>
-        <v>2.1147000476997828</v>
+      <c r="I51" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K51" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <f ca="1"/>
-        <v>2.1147000476997831E-4</v>
-      </c>
-      <c r="M51" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N51" s="9">
-        <f ca="1"/>
-        <v>-4.0226796254121844E-2</v>
+        <v>7.5874092663343135E-2</v>
+      </c>
+      <c r="L51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O51" s="42" t="e">
         <f ca="1"/>
@@ -7359,29 +7367,29 @@
       <c r="B52" s="6" t="str">
         <v>CommodityFuture</v>
       </c>
-      <c r="I52" s="51">
-        <f ca="1"/>
-        <v>6.807025488148187E-2</v>
-      </c>
-      <c r="J52" s="9">
-        <f ca="1"/>
-        <v>2.0794128576833177</v>
+      <c r="I52" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K52" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <f ca="1"/>
-        <v>2.0794128576833178E-4</v>
-      </c>
-      <c r="M52" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N52" s="9">
-        <f ca="1"/>
-        <v>-3.7575520342168121E-2</v>
+        <v>2.5418202792644817</v>
+      </c>
+      <c r="L52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O52" s="42" t="e">
         <f ca="1"/>
@@ -7424,29 +7432,29 @@
       <c r="B53" s="6" t="str">
         <v>CommodityAverageForward</v>
       </c>
-      <c r="I53" s="51">
-        <f ca="1"/>
-        <v>6.7069997758635092E-2</v>
-      </c>
-      <c r="J53" s="9">
-        <f ca="1"/>
-        <v>2.0452169768458259</v>
+      <c r="I53" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K53" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L53" s="9">
-        <f ca="1"/>
-        <v>2.0452169768458262E-4</v>
-      </c>
-      <c r="M53" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N53" s="9">
-        <f ca="1"/>
-        <v>-3.491184921068069E-2</v>
+      <c r="L53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O53" s="42" t="e">
         <f ca="1"/>
@@ -7489,29 +7497,29 @@
       <c r="B54" s="6" t="str">
         <v>CommoditySpread</v>
       </c>
-      <c r="I54" s="51">
-        <f ca="1"/>
-        <v>6.6056901650499877E-2</v>
-      </c>
-      <c r="J54" s="9">
-        <f ca="1"/>
-        <v>2.0131632323539606</v>
+      <c r="I54" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K54" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <f ca="1"/>
-        <v>2.0131632323539607E-4</v>
-      </c>
-      <c r="M54" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N54" s="9">
-        <f ca="1"/>
-        <v>-3.2325164028309969E-2</v>
+        <v>2.5418202792644814E-4</v>
+      </c>
+      <c r="L54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M54" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O54" s="42" t="e">
         <f ca="1"/>
@@ -7554,29 +7562,29 @@
       <c r="B55" s="6" t="str">
         <v>CommodityFutureSpread</v>
       </c>
-      <c r="I55" s="51">
-        <f ca="1"/>
-        <v>6.5170766616015188E-2</v>
-      </c>
-      <c r="J55" s="9">
-        <f ca="1"/>
-        <v>1.9813238923994145</v>
+      <c r="I55" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K55" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <f ca="1"/>
-        <v>1.9813238923994145E-4</v>
-      </c>
-      <c r="M55" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N55" s="9">
-        <f ca="1"/>
-        <v>-3.0058202362326286E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O55" s="42" t="e">
         <f ca="1"/>
@@ -7619,29 +7627,29 @@
       <c r="B56" s="6" t="str">
         <v>BankBill</v>
       </c>
-      <c r="I56" s="51">
-        <f ca="1"/>
-        <v>6.4299683208819347E-2</v>
-      </c>
-      <c r="J56" s="9">
-        <f ca="1"/>
-        <v>1.9520223597975124</v>
+      <c r="I56" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K56" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <f ca="1"/>
-        <v>1.9520223597975123E-4</v>
-      </c>
-      <c r="M56" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N56" s="9">
-        <f ca="1"/>
-        <v>-2.7913301361636389E-2</v>
+        <v>-6.5767293439253929E-2</v>
+      </c>
+      <c r="L56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O56" s="42" t="e">
         <f ca="1"/>
@@ -7684,29 +7692,29 @@
       <c r="B57" s="6" t="str">
         <v>SimpleFra</v>
       </c>
-      <c r="I57" s="51">
-        <f ca="1"/>
-        <v>6.339034851647013E-2</v>
-      </c>
-      <c r="J57" s="9">
-        <f ca="1"/>
-        <v>1.9235785266852319</v>
+      <c r="I57" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K57" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <f ca="1"/>
-        <v>1.9235785266852318E-4</v>
-      </c>
-      <c r="M57" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N57" s="9">
-        <f ca="1"/>
-        <v>-2.5757386871113411E-2</v>
+        <v>7.6271379922207311E-2</v>
+      </c>
+      <c r="L57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O57" s="42" t="e">
         <f ca="1"/>
@@ -7749,29 +7757,29 @@
       <c r="B58" s="6" t="str">
         <v>Fra</v>
       </c>
-      <c r="I58" s="51">
-        <f ca="1"/>
-        <v>6.2440186941417258E-2</v>
-      </c>
-      <c r="J58" s="9">
-        <f ca="1"/>
-        <v>1.8913053229657828</v>
+      <c r="I58" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J58" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K58" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <f ca="1"/>
-        <v>1.8913053229657826E-4</v>
-      </c>
-      <c r="M58" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N58" s="9">
-        <f ca="1"/>
-        <v>-2.3528191780991865E-2</v>
+        <v>2.4959608664967061</v>
+      </c>
+      <c r="L58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O58" s="42" t="e">
         <f ca="1"/>
@@ -7814,29 +7822,29 @@
       <c r="B59" s="6" t="str">
         <v>SpreadDeposit</v>
       </c>
-      <c r="I59" s="51">
-        <f ca="1"/>
-        <v>6.2010542992799886E-2</v>
-      </c>
-      <c r="J59" s="9">
-        <f ca="1"/>
-        <v>1.8625049023423366</v>
+      <c r="I59" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K59" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L59" s="9">
-        <f ca="1"/>
-        <v>1.8625049023423366E-4</v>
-      </c>
-      <c r="M59" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N59" s="9">
-        <f ca="1"/>
-        <v>-2.236969520388318E-2</v>
+      <c r="L59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M59" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O59" s="42" t="e">
         <f ca="1"/>
@@ -7879,29 +7887,29 @@
       <c r="B60" s="6" t="str">
         <v>SpreadFra</v>
       </c>
-      <c r="I60" s="51">
-        <f ca="1"/>
-        <v>6.1867248979871489E-2</v>
-      </c>
-      <c r="J60" s="9">
-        <f ca="1"/>
-        <v>1.8342137292326026</v>
+      <c r="I60" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K60" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
-        <f ca="1"/>
-        <v>1.8342137292326024E-4</v>
-      </c>
-      <c r="M60" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N60" s="9">
-        <f ca="1"/>
-        <v>-2.1767071007101877E-2</v>
+        <v>2.4959608664967061E-4</v>
+      </c>
+      <c r="L60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M60" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O60" s="42" t="e">
         <f ca="1"/>
@@ -7944,29 +7952,29 @@
       <c r="B61" s="6" t="str">
         <v>BillFra</v>
       </c>
-      <c r="I61" s="51">
-        <f ca="1"/>
-        <v>6.1775784741238945E-2</v>
-      </c>
-      <c r="J61" s="9">
-        <f ca="1"/>
-        <v>1.8073021046822213</v>
+      <c r="I61" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K61" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <f ca="1"/>
-        <v>1.8073021046822215E-4</v>
-      </c>
-      <c r="M61" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N61" s="9">
-        <f ca="1"/>
-        <v>-2.1282400547125935E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M61" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O61" s="42" t="e">
         <f ca="1"/>
@@ -8009,29 +8017,29 @@
       <c r="B62" s="6" t="str">
         <v>SimpleIRSwap</v>
       </c>
-      <c r="I62" s="51">
-        <f ca="1"/>
-        <v>6.1730635515449134E-2</v>
-      </c>
-      <c r="J62" s="9">
-        <f ca="1"/>
-        <v>1.7802099797799962</v>
+      <c r="I62" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J62" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K62" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="9">
-        <f ca="1"/>
-        <v>1.7802099797799959E-4</v>
-      </c>
-      <c r="M62" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N62" s="9">
-        <f ca="1"/>
-        <v>-2.0882994413764202E-2</v>
+        <v>-6.5572336194696698E-2</v>
+      </c>
+      <c r="L62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M62" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O62" s="42" t="e">
         <f ca="1"/>
@@ -8074,29 +8082,29 @@
       <c r="B63" s="6" t="str">
         <v>IRSwap</v>
       </c>
-      <c r="I63" s="51">
-        <f ca="1"/>
-        <v>6.1782929982109172E-2</v>
-      </c>
-      <c r="J63" s="9">
-        <f ca="1"/>
-        <v>1.7549421269704328</v>
+      <c r="I63" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K63" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="9">
-        <f ca="1"/>
-        <v>1.754942126970433E-4</v>
-      </c>
-      <c r="M63" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N63" s="9">
-        <f ca="1"/>
-        <v>-2.0678360204746362E-2</v>
+        <v>7.6787994261508508E-2</v>
+      </c>
+      <c r="L63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M63" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O63" s="42" t="e">
         <f ca="1"/>
@@ -8139,29 +8147,29 @@
       <c r="B64" s="6" t="str">
         <v>XccySwap</v>
       </c>
-      <c r="I64" s="18">
-        <f ca="1"/>
-        <v>6.1914119118573779E-2</v>
-      </c>
-      <c r="J64" s="9">
-        <f ca="1"/>
-        <v>1.7257103689739492</v>
+      <c r="I64" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K64" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <f ca="1"/>
-        <v>1.7257103689739491E-4</v>
-      </c>
-      <c r="M64" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N64" s="9">
-        <f ca="1"/>
-        <v>-2.0560318900113544E-2</v>
+        <v>2.4515898936126841</v>
+      </c>
+      <c r="L64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M64" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O64" s="42" t="e">
         <f ca="1"/>
@@ -8204,29 +8212,29 @@
       <c r="B65" s="6" t="str">
         <v>XccyBasisSwap</v>
       </c>
-      <c r="I65" s="18">
-        <f ca="1"/>
-        <v>6.2102722954986714E-2</v>
-      </c>
-      <c r="J65" s="9">
-        <f ca="1"/>
-        <v>1.6996885206793197</v>
+      <c r="I65" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K65" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L65" s="9">
-        <f ca="1"/>
-        <v>1.6996885206793197E-4</v>
-      </c>
-      <c r="M65" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N65" s="9">
-        <f ca="1"/>
-        <v>-2.0570859275553015E-2</v>
+      <c r="L65" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M65" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N65" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O65" s="42" t="e">
         <f ca="1"/>
@@ -8269,29 +8277,29 @@
       <c r="B66" s="6" t="str">
         <v>IRCap</v>
       </c>
-      <c r="I66" s="18">
-        <f ca="1"/>
-        <v>6.2351927617550575E-2</v>
-      </c>
-      <c r="J66" s="9">
-        <f ca="1"/>
-        <v>1.6736720868816268</v>
+      <c r="I66" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J66" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K66" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
-        <f ca="1"/>
-        <v>1.673672086881627E-4</v>
-      </c>
-      <c r="M66" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N66" s="9">
-        <f ca="1"/>
-        <v>-2.0673076472676667E-2</v>
+        <v>2.4515898936126841E-4</v>
+      </c>
+      <c r="L66" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M66" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N66" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O66" s="42" t="e">
         <f ca="1"/>
@@ -8334,29 +8342,29 @@
       <c r="B67" s="6" t="str">
         <v>Xibor</v>
       </c>
-      <c r="I67" s="18">
-        <f ca="1"/>
-        <v>6.243699637328199E-2</v>
-      </c>
-      <c r="J67" s="9">
-        <f ca="1"/>
-        <v>1.6493732483964583</v>
+      <c r="I67" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J67" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K67" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <f ca="1"/>
-        <v>1.6493732483964583E-4</v>
-      </c>
-      <c r="M67" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N67" s="9">
-        <f ca="1"/>
-        <v>-2.0513249108495096E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L67" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M67" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N67" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O67" s="42" t="e">
         <f ca="1"/>
@@ -8400,29 +8408,29 @@
         <v>OIS</v>
       </c>
       <c r="D68" s="47"/>
-      <c r="I68" s="18">
-        <f ca="1"/>
-        <v>6.2407625254759992E-2</v>
-      </c>
-      <c r="J68" s="9">
-        <f ca="1"/>
-        <v>1.6249290829497371</v>
+      <c r="I68" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J68" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K68" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <f ca="1"/>
-        <v>1.6249290829497371E-4</v>
-      </c>
-      <c r="M68" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N68" s="9">
-        <f ca="1"/>
-        <v>-2.0161511126801149E-2</v>
+        <v>-6.5673176001668804E-2</v>
+      </c>
+      <c r="L68" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M68" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N68" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O68" s="42" t="e">
         <f ca="1"/>
@@ -8466,17 +8474,17 @@
         <v>OISSwap</v>
       </c>
       <c r="D69" s="47"/>
-      <c r="I69" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I69" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+      </c>
+      <c r="J69" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="K69" s="29">
+        <f ca="1"/>
+        <v>7.7615749020259486E-2</v>
       </c>
       <c r="L69" s="9" t="e">
         <f ca="1"/>
@@ -8531,17 +8539,17 @@
       <c r="B70" s="6" t="str">
         <v>CPIndex</v>
       </c>
-      <c r="I70" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="24" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K70" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I70" s="23" t="str">
+        <f ca="1"/>
+        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+      </c>
+      <c r="J70" s="24" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
+      </c>
+      <c r="K70" s="30">
+        <f ca="1"/>
+        <v>2.4113694402775385</v>
       </c>
       <c r="L70" s="24" t="e">
         <f ca="1"/>
@@ -8653,33 +8661,33 @@
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B83" s="6" t="str">
+        <v>ResettableXccyBasisSwap</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B84" s="6" t="str">
+        <v>IRFloor</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B85" s="6" t="str">
+        <v>IRPutFutureOption</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B86" s="6" t="str">
+        <v>IRCallFutureOption</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B87" s="6" t="str">
+        <v>Swaption</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B88" s="6" t="str">
+        <v>Period</v>
       </c>
     </row>
     <row r="89" spans="2:2">
@@ -8705,7 +8713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
@@ -8778,14 +8786,14 @@
     <row r="2" spans="1:25" ht="12" thickBot="1">
       <c r="A2" s="54">
         <f ca="1">BaseDate</f>
-        <v>43176</v>
+        <v>43647</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B2, A2,E2, F2)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-17/03/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/07/2019</v>
       </c>
       <c r="D2" s="27">
         <f>E2+F2</f>
@@ -8827,14 +8835,14 @@
     <row r="3" spans="1:25">
       <c r="A3" s="54">
         <f ca="1">A2+90</f>
-        <v>43266</v>
+        <v>43737</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B3, A3,E3, F3)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-15/06/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
       </c>
       <c r="D3" s="27">
         <f t="shared" ref="D3:D32" si="0">E3+F3</f>
@@ -8853,7 +8861,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="13" t="str">
         <f t="array" aca="1" ref="I3:W34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($G$2:$G$7,'GetInfo &amp; GetInstrumentInfo'!$D$9, C3:C32, $A$2)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-15/06/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
       </c>
       <c r="J3" s="14" t="str">
         <f ca="1"/>
@@ -8861,7 +8869,7 @@
       </c>
       <c r="K3" s="48">
         <f ca="1"/>
-        <v>7.4628688980228633E-2</v>
+        <v>7.4629901229968487E-2</v>
       </c>
       <c r="L3" s="14" t="str">
         <f ca="1"/>
@@ -8869,7 +8877,7 @@
       </c>
       <c r="M3" s="15">
         <f ca="1"/>
-        <v>2.6394729629369209</v>
+        <v>2.6406177227896381</v>
       </c>
       <c r="N3" s="14" t="str">
         <f ca="1"/>
@@ -8885,7 +8893,7 @@
       </c>
       <c r="Q3" s="44">
         <f ca="1"/>
-        <v>2.6394729629369211E-4</v>
+        <v>2.6406177227896382E-4</v>
       </c>
       <c r="R3" s="15" t="str">
         <f ca="1"/>
@@ -8917,20 +8925,20 @@
       </c>
       <c r="Y3" s="37">
         <f ca="1">(S3-K3)*10000</f>
-        <v>-246.28688980228631</v>
+        <v>-246.29901229968485</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="54">
         <f t="shared" ref="A4:A32" ca="1" si="2">A3+90</f>
-        <v>43356</v>
+        <v>43827</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B4, A4,E4, F4)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-13/09/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
       </c>
       <c r="D4" s="27">
         <f t="shared" si="0"/>
@@ -8949,7 +8957,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-13/09/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
       </c>
       <c r="J4" s="9" t="str">
         <f ca="1"/>
@@ -8957,7 +8965,7 @@
       </c>
       <c r="K4" s="49">
         <f ca="1"/>
-        <v>7.5575099297089915E-2</v>
+        <v>7.5263531118901772E-2</v>
       </c>
       <c r="L4" s="9" t="str">
         <f ca="1"/>
@@ -8965,7 +8973,7 @@
       </c>
       <c r="M4" s="19">
         <f ca="1"/>
-        <v>2.5922689418935736</v>
+        <v>2.5919809309848469</v>
       </c>
       <c r="N4" s="9" t="str">
         <f ca="1"/>
@@ -8981,7 +8989,7 @@
       </c>
       <c r="Q4" s="45">
         <f ca="1"/>
-        <v>2.5922689418935737E-4</v>
+        <v>2.5919809309848469E-4</v>
       </c>
       <c r="R4" s="19" t="str">
         <f ca="1"/>
@@ -9013,20 +9021,20 @@
       </c>
       <c r="Y4" s="36">
         <f t="shared" ref="Y4:Y33" ca="1" si="3">(S4-K4)*10000</f>
-        <v>-255.75099297089912</v>
+        <v>-252.6353111890177</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43446</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B5, A5,E5, F5)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-12/12/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
@@ -9045,7 +9053,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-12/12/2018</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
       </c>
       <c r="J5" s="9" t="str">
         <f ca="1"/>
@@ -9053,7 +9061,7 @@
       </c>
       <c r="K5" s="49">
         <f ca="1"/>
-        <v>7.605612261154468E-2</v>
+        <v>7.5874092663343135E-2</v>
       </c>
       <c r="L5" s="9" t="str">
         <f ca="1"/>
@@ -9061,7 +9069,7 @@
       </c>
       <c r="M5" s="19">
         <f ca="1"/>
-        <v>2.5445252703920946</v>
+        <v>2.5418202792644817</v>
       </c>
       <c r="N5" s="9" t="str">
         <f ca="1"/>
@@ -9077,7 +9085,7 @@
       </c>
       <c r="Q5" s="45">
         <f ca="1"/>
-        <v>2.5445252703920943E-4</v>
+        <v>2.5418202792644814E-4</v>
       </c>
       <c r="R5" s="19" t="str">
         <f ca="1"/>
@@ -9109,20 +9117,20 @@
       </c>
       <c r="Y5" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-260.56122611544674</v>
+        <v>-258.74092663343134</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43536</v>
+        <v>44007</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B6, A6,E6, F6)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-12/03/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
@@ -9141,7 +9149,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-12/03/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
       </c>
       <c r="J6" s="9" t="str">
         <f ca="1"/>
@@ -9149,7 +9157,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1"/>
-        <v>7.6377979560971365E-2</v>
+        <v>7.6271379922207311E-2</v>
       </c>
       <c r="L6" s="9" t="str">
         <f ca="1"/>
@@ -9157,7 +9165,7 @@
       </c>
       <c r="M6" s="19">
         <f ca="1"/>
-        <v>2.4994947666009728</v>
+        <v>2.4959608664967061</v>
       </c>
       <c r="N6" s="9" t="str">
         <f ca="1"/>
@@ -9173,7 +9181,7 @@
       </c>
       <c r="Q6" s="45">
         <f ca="1"/>
-        <v>2.4994947666009726E-4</v>
+        <v>2.4959608664967061E-4</v>
       </c>
       <c r="R6" s="19" t="str">
         <f ca="1"/>
@@ -9205,20 +9213,20 @@
       </c>
       <c r="Y6" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-263.77979560971363</v>
+        <v>-262.71379922207308</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43626</v>
+        <v>44097</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B7, A7,E7, F7)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-10/06/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
@@ -9237,7 +9245,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-10/06/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
       </c>
       <c r="J7" s="9" t="str">
         <f ca="1"/>
@@ -9245,7 +9253,7 @@
       </c>
       <c r="K7" s="49">
         <f ca="1"/>
-        <v>7.7107596334004311E-2</v>
+        <v>7.6787994261508508E-2</v>
       </c>
       <c r="L7" s="9" t="str">
         <f ca="1"/>
@@ -9253,7 +9261,7 @@
       </c>
       <c r="M7" s="19">
         <f ca="1"/>
-        <v>2.4568242703401504</v>
+        <v>2.4515898936126841</v>
       </c>
       <c r="N7" s="9" t="str">
         <f ca="1"/>
@@ -9269,7 +9277,7 @@
       </c>
       <c r="Q7" s="45">
         <f ca="1"/>
-        <v>2.4568242703401508E-4</v>
+        <v>2.4515898936126841E-4</v>
       </c>
       <c r="R7" s="19" t="str">
         <f ca="1"/>
@@ -9301,20 +9309,20 @@
       </c>
       <c r="Y7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-271.07596334004307</v>
+        <v>-267.87994261508504</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43716</v>
+        <v>44187</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B8, A8,E8, F8)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2019</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
@@ -9331,7 +9339,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2019</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
       </c>
       <c r="J8" s="9" t="str">
         <f ca="1"/>
@@ -9339,7 +9347,7 @@
       </c>
       <c r="K8" s="49">
         <f ca="1"/>
-        <v>7.4224783558079252E-2</v>
+        <v>7.3968096422983354E-2</v>
       </c>
       <c r="L8" s="9" t="str">
         <f ca="1"/>
@@ -9347,7 +9355,7 @@
       </c>
       <c r="M8" s="19">
         <f ca="1"/>
-        <v>3.7066104853616562</v>
+        <v>3.7059305712703634</v>
       </c>
       <c r="N8" s="9" t="str">
         <f ca="1"/>
@@ -9363,7 +9371,7 @@
       </c>
       <c r="Q8" s="45">
         <f ca="1"/>
-        <v>3.7066104853616564E-4</v>
+        <v>3.7059305712703634E-4</v>
       </c>
       <c r="R8" s="19" t="str">
         <f ca="1"/>
@@ -9395,20 +9403,20 @@
       </c>
       <c r="Y8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-242.2478355807925</v>
+        <v>-239.68096422983351</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43806</v>
+        <v>44277</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B9, A9,E9, F9)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2019</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/03/2021</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
@@ -9425,7 +9433,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2019</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/03/2021</v>
       </c>
       <c r="J9" s="9" t="str">
         <f ca="1"/>
@@ -9433,7 +9441,7 @@
       </c>
       <c r="K9" s="49">
         <f ca="1"/>
-        <v>7.4275425181077839E-2</v>
+        <v>7.3917224735432913E-2</v>
       </c>
       <c r="L9" s="9" t="str">
         <f ca="1"/>
@@ -9441,7 +9449,7 @@
       </c>
       <c r="M9" s="19">
         <f ca="1"/>
-        <v>3.6404030638037912</v>
+        <v>3.6408712262720457</v>
       </c>
       <c r="N9" s="9" t="str">
         <f ca="1"/>
@@ -9457,7 +9465,7 @@
       </c>
       <c r="Q9" s="45">
         <f ca="1"/>
-        <v>3.6404030638037907E-4</v>
+        <v>3.6408712262720459E-4</v>
       </c>
       <c r="R9" s="19" t="str">
         <f ca="1"/>
@@ -9489,20 +9497,20 @@
       </c>
       <c r="Y9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-242.75425181077836</v>
+        <v>-239.1722473543291</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43896</v>
+        <v>44367</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B10, A10,E10, F10)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
@@ -9519,7 +9527,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
       </c>
       <c r="J10" s="9" t="str">
         <f ca="1"/>
@@ -9527,7 +9535,7 @@
       </c>
       <c r="K10" s="49">
         <f ca="1"/>
-        <v>7.3808219023641791E-2</v>
+        <v>7.3917927743234246E-2</v>
       </c>
       <c r="L10" s="9" t="str">
         <f ca="1"/>
@@ -9535,7 +9543,7 @@
       </c>
       <c r="M10" s="19">
         <f ca="1"/>
-        <v>3.5750383408571573</v>
+        <v>3.5772929829481743</v>
       </c>
       <c r="N10" s="9" t="str">
         <f ca="1"/>
@@ -9551,7 +9559,7 @@
       </c>
       <c r="Q10" s="45">
         <f ca="1"/>
-        <v>3.5750383408571571E-4</v>
+        <v>3.5772929829481744E-4</v>
       </c>
       <c r="R10" s="19" t="str">
         <f ca="1"/>
@@ -9583,20 +9591,20 @@
       </c>
       <c r="Y10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-238.08219023641789</v>
+        <v>-239.17927743234245</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43986</v>
+        <v>44457</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B11, A11,E11, F11)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-4/06/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
@@ -9613,7 +9621,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-4/06/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
       </c>
       <c r="J11" s="9" t="str">
         <f ca="1"/>
@@ -9621,7 +9629,7 @@
       </c>
       <c r="K11" s="49">
         <f ca="1"/>
-        <v>7.2827398454969897E-2</v>
+        <v>7.3346517935106395E-2</v>
       </c>
       <c r="L11" s="9" t="str">
         <f ca="1"/>
@@ -9629,7 +9637,7 @@
       </c>
       <c r="M11" s="19">
         <f ca="1"/>
-        <v>3.5133307126341009</v>
+        <v>3.5147522679223702</v>
       </c>
       <c r="N11" s="9" t="str">
         <f ca="1"/>
@@ -9645,7 +9653,7 @@
       </c>
       <c r="Q11" s="45">
         <f ca="1"/>
-        <v>3.5133307126341005E-4</v>
+        <v>3.5147522679223703E-4</v>
       </c>
       <c r="R11" s="19" t="str">
         <f ca="1"/>
@@ -9677,20 +9685,20 @@
       </c>
       <c r="Y11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-228.27398454969895</v>
+        <v>-233.46517935106391</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44076</v>
+        <v>44547</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B12, A12,E12, F12)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-2/09/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
@@ -9707,7 +9715,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-2/09/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
       </c>
       <c r="J12" s="9" t="str">
         <f ca="1"/>
@@ -9715,7 +9723,7 @@
       </c>
       <c r="K12" s="49">
         <f ca="1"/>
-        <v>7.1434650553126269E-2</v>
+        <v>7.181495393340738E-2</v>
       </c>
       <c r="L12" s="9" t="str">
         <f ca="1"/>
@@ -9723,7 +9731,7 @@
       </c>
       <c r="M12" s="19">
         <f ca="1"/>
-        <v>3.4533315634809103</v>
+        <v>3.4536714778430837</v>
       </c>
       <c r="N12" s="9" t="str">
         <f ca="1"/>
@@ -9739,7 +9747,7 @@
       </c>
       <c r="Q12" s="45">
         <f ca="1"/>
-        <v>3.4533315634809102E-4</v>
+        <v>3.4536714778430835E-4</v>
       </c>
       <c r="R12" s="19" t="str">
         <f ca="1"/>
@@ -9771,20 +9779,20 @@
       </c>
       <c r="Y12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-214.34650553126266</v>
+        <v>-218.14953933407378</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44166</v>
+        <v>44637</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B13, A13,E13, F13)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
@@ -9801,7 +9809,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
       </c>
       <c r="J13" s="9" t="str">
         <f ca="1"/>
@@ -9809,7 +9817,7 @@
       </c>
       <c r="K13" s="49">
         <f ca="1"/>
-        <v>6.9734773259699318E-2</v>
+        <v>6.9995319652005214E-2</v>
       </c>
       <c r="L13" s="9" t="str">
         <f ca="1"/>
@@ -9817,7 +9825,7 @@
       </c>
       <c r="M13" s="19">
         <f ca="1"/>
-        <v>3.3966209748359528</v>
+        <v>3.3966212959215349</v>
       </c>
       <c r="N13" s="9" t="str">
         <f ca="1"/>
@@ -9833,7 +9841,7 @@
       </c>
       <c r="Q13" s="45">
         <f ca="1"/>
-        <v>3.3966209748359527E-4</v>
+        <v>3.3966212959215348E-4</v>
       </c>
       <c r="R13" s="19" t="str">
         <f ca="1"/>
@@ -9865,20 +9873,20 @@
       </c>
       <c r="Y13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-197.34773259699315</v>
+        <v>-199.9531965200521</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44256</v>
+        <v>44727</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B14, A14,E14, F14)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/03/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
@@ -9895,7 +9903,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/03/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
       </c>
       <c r="J14" s="9" t="str">
         <f ca="1"/>
@@ -9903,7 +9911,7 @@
       </c>
       <c r="K14" s="49">
         <f ca="1"/>
-        <v>6.7763551863682575E-2</v>
+        <v>6.7828399835785369E-2</v>
       </c>
       <c r="L14" s="9" t="str">
         <f ca="1"/>
@@ -9911,7 +9919,7 @@
       </c>
       <c r="M14" s="19">
         <f ca="1"/>
-        <v>3.3417075740212074</v>
+        <v>3.3417175734203215</v>
       </c>
       <c r="N14" s="9" t="str">
         <f ca="1"/>
@@ -9927,7 +9935,7 @@
       </c>
       <c r="Q14" s="45">
         <f ca="1"/>
-        <v>3.3417075740212079E-4</v>
+        <v>3.3417175734203205E-4</v>
       </c>
       <c r="R14" s="19" t="str">
         <f ca="1"/>
@@ -9959,20 +9967,20 @@
       </c>
       <c r="Y14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-177.63551863682574</v>
+        <v>-178.28399835785368</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44346</v>
+        <v>44817</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B15, A15,E15, F15)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-30/05/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
@@ -9989,7 +9997,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-30/05/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
       </c>
       <c r="J15" s="9" t="str">
         <f ca="1"/>
@@ -9997,7 +10005,7 @@
       </c>
       <c r="K15" s="49">
         <f ca="1"/>
-        <v>6.6950247840837709E-2</v>
+        <v>6.6953227578221988E-2</v>
       </c>
       <c r="L15" s="9" t="str">
         <f ca="1"/>
@@ -10005,7 +10013,7 @@
       </c>
       <c r="M15" s="19">
         <f ca="1"/>
-        <v>3.2850839677852344</v>
+        <v>3.2881084228555766</v>
       </c>
       <c r="N15" s="9" t="str">
         <f ca="1"/>
@@ -10021,7 +10029,7 @@
       </c>
       <c r="Q15" s="45">
         <f ca="1"/>
-        <v>3.2850839677852348E-4</v>
+        <v>3.2881084228555767E-4</v>
       </c>
       <c r="R15" s="19" t="str">
         <f ca="1"/>
@@ -10053,20 +10061,20 @@
       </c>
       <c r="Y15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-169.50247840837707</v>
+        <v>-169.53227578221984</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44436</v>
+        <v>44907</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B16, A16,E16, F16)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-28/08/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="0"/>
@@ -10083,7 +10091,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-28/08/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
       </c>
       <c r="J16" s="9" t="str">
         <f ca="1"/>
@@ -10091,7 +10099,7 @@
       </c>
       <c r="K16" s="49">
         <f ca="1"/>
-        <v>6.6427392424716528E-2</v>
+        <v>6.644306722451726E-2</v>
       </c>
       <c r="L16" s="9" t="str">
         <f ca="1"/>
@@ -10099,7 +10107,7 @@
       </c>
       <c r="M16" s="19">
         <f ca="1"/>
-        <v>3.236664817252136</v>
+        <v>3.235748618414207</v>
       </c>
       <c r="N16" s="9" t="str">
         <f ca="1"/>
@@ -10115,7 +10123,7 @@
       </c>
       <c r="Q16" s="45">
         <f ca="1"/>
-        <v>3.2366648172521361E-4</v>
+        <v>3.2357486184142069E-4</v>
       </c>
       <c r="R16" s="19" t="str">
         <f ca="1"/>
@@ -10147,20 +10155,20 @@
       </c>
       <c r="Y16" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-164.27392424716524</v>
+        <v>-164.43067224517259</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44526</v>
+        <v>44997</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B17, A17,E17, F17)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-26/11/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
       </c>
       <c r="D17" s="27">
         <f t="shared" si="0"/>
@@ -10177,7 +10185,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-26/11/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
       </c>
       <c r="J17" s="9" t="str">
         <f ca="1"/>
@@ -10185,7 +10193,7 @@
       </c>
       <c r="K17" s="49">
         <f ca="1"/>
-        <v>6.5907042497559465E-2</v>
+        <v>6.5930704549826247E-2</v>
       </c>
       <c r="L17" s="9" t="str">
         <f ca="1"/>
@@ -10193,7 +10201,7 @@
       </c>
       <c r="M17" s="19">
         <f ca="1"/>
-        <v>3.1849578923698481</v>
+        <v>3.1860390334179223</v>
       </c>
       <c r="N17" s="9" t="str">
         <f ca="1"/>
@@ -10209,7 +10217,7 @@
       </c>
       <c r="Q17" s="45">
         <f ca="1"/>
-        <v>3.1849578923698481E-4</v>
+        <v>3.1860390334179225E-4</v>
       </c>
       <c r="R17" s="19" t="str">
         <f ca="1"/>
@@ -10241,20 +10249,20 @@
       </c>
       <c r="Y17" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-159.07042497559462</v>
+        <v>-159.30704549826243</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44616</v>
+        <v>45087</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B18, A18,E18, F18)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-24/02/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
       </c>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
@@ -10271,7 +10279,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-24/02/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
       </c>
       <c r="J18" s="9" t="str">
         <f ca="1"/>
@@ -10279,7 +10287,7 @@
       </c>
       <c r="K18" s="49">
         <f ca="1"/>
-        <v>6.5403604441467172E-2</v>
+        <v>6.5405443147371317E-2</v>
       </c>
       <c r="L18" s="9" t="str">
         <f ca="1"/>
@@ -10287,7 +10295,7 @@
       </c>
       <c r="M18" s="19">
         <f ca="1"/>
-        <v>3.1346616282501318</v>
+        <v>3.1349931818983312</v>
       </c>
       <c r="N18" s="9" t="str">
         <f ca="1"/>
@@ -10303,7 +10311,7 @@
       </c>
       <c r="Q18" s="45">
         <f ca="1"/>
-        <v>3.1346616282501317E-4</v>
+        <v>3.1349931818983311E-4</v>
       </c>
       <c r="R18" s="19" t="str">
         <f ca="1"/>
@@ -10335,20 +10343,20 @@
       </c>
       <c r="Y18" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-154.03604441467169</v>
+        <v>-154.05443147371315</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44706</v>
+        <v>45177</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B19, A19,E19, F19)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-25/05/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
@@ -10365,7 +10373,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-25/05/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
       </c>
       <c r="J19" s="9" t="str">
         <f ca="1"/>
@@ -10373,7 +10381,7 @@
       </c>
       <c r="K19" s="49">
         <f ca="1"/>
-        <v>6.4785490768567808E-2</v>
+        <v>6.4783701871841487E-2</v>
       </c>
       <c r="L19" s="9" t="str">
         <f ca="1"/>
@@ -10381,7 +10389,7 @@
       </c>
       <c r="M19" s="19">
         <f ca="1"/>
-        <v>3.0860192963347646</v>
+        <v>3.0863728133192811</v>
       </c>
       <c r="N19" s="9" t="str">
         <f ca="1"/>
@@ -10397,7 +10405,7 @@
       </c>
       <c r="Q19" s="45">
         <f ca="1"/>
-        <v>3.0860192963347646E-4</v>
+        <v>3.0863728133192814E-4</v>
       </c>
       <c r="R19" s="19" t="str">
         <f ca="1"/>
@@ -10429,20 +10437,20 @@
       </c>
       <c r="Y19" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-147.85490768567806</v>
+        <v>-147.83701871841484</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44796</v>
+        <v>45267</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B20, A20,E20, F20)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-23/08/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2023</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" si="0"/>
@@ -10459,7 +10467,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-23/08/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2023</v>
       </c>
       <c r="J20" s="9" t="str">
         <f ca="1"/>
@@ -10467,7 +10475,7 @@
       </c>
       <c r="K20" s="49">
         <f ca="1"/>
-        <v>6.4111151906472597E-2</v>
+        <v>6.4123353971034705E-2</v>
       </c>
       <c r="L20" s="9" t="str">
         <f ca="1"/>
@@ -10475,7 +10483,7 @@
       </c>
       <c r="M20" s="19">
         <f ca="1"/>
-        <v>3.038622463020793</v>
+        <v>3.0399720944867559</v>
       </c>
       <c r="N20" s="9" t="str">
         <f ca="1"/>
@@ -10491,7 +10499,7 @@
       </c>
       <c r="Q20" s="45">
         <f ca="1"/>
-        <v>3.0386224630207933E-4</v>
+        <v>3.039972094486756E-4</v>
       </c>
       <c r="R20" s="19" t="str">
         <f ca="1"/>
@@ -10523,20 +10531,20 @@
       </c>
       <c r="Y20" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-141.11151906472594</v>
+        <v>-141.23353971034703</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44886</v>
+        <v>45357</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B21, A21,E21, F21)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-21/11/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2024</v>
       </c>
       <c r="D21" s="27">
         <f t="shared" si="0"/>
@@ -10553,7 +10561,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-21/11/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2024</v>
       </c>
       <c r="J21" s="9" t="str">
         <f ca="1"/>
@@ -10561,7 +10569,7 @@
       </c>
       <c r="K21" s="49">
         <f ca="1"/>
-        <v>6.3413795335995587E-2</v>
+        <v>6.3424484496108741E-2</v>
       </c>
       <c r="L21" s="9" t="str">
         <f ca="1"/>
@@ -10569,7 +10577,7 @@
       </c>
       <c r="M21" s="19">
         <f ca="1"/>
-        <v>2.9924991073664735</v>
+        <v>2.9924454138530114</v>
       </c>
       <c r="N21" s="9" t="str">
         <f ca="1"/>
@@ -10585,7 +10593,7 @@
       </c>
       <c r="Q21" s="45">
         <f ca="1"/>
-        <v>2.9924991073664731E-4</v>
+        <v>2.9924454138530111E-4</v>
       </c>
       <c r="R21" s="19" t="str">
         <f ca="1"/>
@@ -10617,20 +10625,20 @@
       </c>
       <c r="Y21" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-134.13795335995584</v>
+        <v>-134.24484496108738</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44976</v>
+        <v>45447</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B22, A22,E22, F22)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-19/02/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-4/06/2024</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="0"/>
@@ -10647,7 +10655,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-19/02/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-4/06/2024</v>
       </c>
       <c r="J22" s="9" t="str">
         <f ca="1"/>
@@ -10655,7 +10663,7 @@
       </c>
       <c r="K22" s="49">
         <f ca="1"/>
-        <v>6.4063545734301466E-2</v>
+        <v>6.4121214114430516E-2</v>
       </c>
       <c r="L22" s="9" t="str">
         <f ca="1"/>
@@ -10663,7 +10671,7 @@
       </c>
       <c r="M22" s="19">
         <f ca="1"/>
-        <v>0.66861255835423739</v>
+        <v>0.6686035544993324</v>
       </c>
       <c r="N22" s="9" t="str">
         <f ca="1"/>
@@ -10679,7 +10687,7 @@
       </c>
       <c r="Q22" s="45">
         <f ca="1"/>
-        <v>6.6861255835423737E-5</v>
+        <v>6.6860355449933234E-5</v>
       </c>
       <c r="R22" s="19" t="str">
         <f ca="1"/>
@@ -10711,20 +10719,20 @@
       </c>
       <c r="Y22" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-140.63545734301465</v>
+        <v>-141.21214114430515</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45066</v>
+        <v>45537</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B23, A23,E23, F23)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-20/05/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-2/09/2024</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="0"/>
@@ -10741,7 +10749,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-20/05/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-2/09/2024</v>
       </c>
       <c r="J23" s="9" t="str">
         <f ca="1"/>
@@ -10749,7 +10757,7 @@
       </c>
       <c r="K23" s="49">
         <f ca="1"/>
-        <v>6.2479084707637543E-2</v>
+        <v>6.2519963511782822E-2</v>
       </c>
       <c r="L23" s="9" t="str">
         <f ca="1"/>
@@ -10757,7 +10765,7 @@
       </c>
       <c r="M23" s="19">
         <f ca="1"/>
-        <v>0.66009023599018146</v>
+        <v>0.65845623371172513</v>
       </c>
       <c r="N23" s="9" t="str">
         <f ca="1"/>
@@ -10773,7 +10781,7 @@
       </c>
       <c r="Q23" s="45">
         <f ca="1"/>
-        <v>6.600902359901815E-5</v>
+        <v>6.5845623371172516E-5</v>
       </c>
       <c r="R23" s="19" t="str">
         <f ca="1"/>
@@ -10805,20 +10813,20 @@
       </c>
       <c r="Y23" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.7908470763754</v>
+        <v>-125.19963511782819</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45156</v>
+        <v>45627</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B24, A24,E24, F24)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-18/08/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/12/2024</v>
       </c>
       <c r="D24" s="27">
         <f t="shared" si="0"/>
@@ -10835,7 +10843,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-18/08/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/12/2024</v>
       </c>
       <c r="J24" s="9" t="str">
         <f ca="1"/>
@@ -10843,7 +10851,7 @@
       </c>
       <c r="K24" s="49">
         <f ca="1"/>
-        <v>6.1588757270005075E-2</v>
+        <v>6.162728266041452E-2</v>
       </c>
       <c r="L24" s="9" t="str">
         <f ca="1"/>
@@ -10851,7 +10859,7 @@
       </c>
       <c r="M24" s="19">
         <f ca="1"/>
-        <v>0.65010943105482966</v>
+        <v>0.64860173274239152</v>
       </c>
       <c r="N24" s="9" t="str">
         <f ca="1"/>
@@ -10867,7 +10875,7 @@
       </c>
       <c r="Q24" s="45">
         <f ca="1"/>
-        <v>6.5010943105482967E-5</v>
+        <v>6.4860173274239154E-5</v>
       </c>
       <c r="R24" s="19" t="str">
         <f ca="1"/>
@@ -10899,20 +10907,20 @@
       </c>
       <c r="Y24" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-115.88757270005073</v>
+        <v>-116.27282660414518</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45246</v>
+        <v>45717</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B25, A25,E25, F25)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-16/11/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/03/2025</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="0"/>
@@ -10929,7 +10937,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-16/11/2023</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/03/2025</v>
       </c>
       <c r="J25" s="9" t="str">
         <f ca="1"/>
@@ -10937,7 +10945,7 @@
       </c>
       <c r="K25" s="49">
         <f ca="1"/>
-        <v>6.0726943559924695E-2</v>
+        <v>6.0725858079840704E-2</v>
       </c>
       <c r="L25" s="9" t="str">
         <f ca="1"/>
@@ -10945,7 +10953,7 @@
       </c>
       <c r="M25" s="19">
         <f ca="1"/>
-        <v>0.64241574598906726</v>
+        <v>0.63892700797218249</v>
       </c>
       <c r="N25" s="9" t="str">
         <f ca="1"/>
@@ -10961,7 +10969,7 @@
       </c>
       <c r="Q25" s="45">
         <f ca="1"/>
-        <v>6.4241574598906714E-5</v>
+        <v>6.3892700797218247E-5</v>
       </c>
       <c r="R25" s="19" t="str">
         <f ca="1"/>
@@ -10993,20 +11001,20 @@
       </c>
       <c r="Y25" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-107.26943559924693</v>
+        <v>-107.25858079840701</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45336</v>
+        <v>45807</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B26, A26,E26, F26)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-14/02/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-30/05/2025</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="0"/>
@@ -11023,7 +11031,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-14/02/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-30/05/2025</v>
       </c>
       <c r="J26" s="9" t="str">
         <f ca="1"/>
@@ -11031,7 +11039,7 @@
       </c>
       <c r="K26" s="49">
         <f ca="1"/>
-        <v>5.9846987505153298E-2</v>
+        <v>5.98252102609588E-2</v>
       </c>
       <c r="L26" s="9" t="str">
         <f ca="1"/>
@@ -11039,7 +11047,7 @@
       </c>
       <c r="M26" s="19">
         <f ca="1"/>
-        <v>0.63474284291804972</v>
+        <v>0.62953878296753685</v>
       </c>
       <c r="N26" s="9" t="str">
         <f ca="1"/>
@@ -11055,7 +11063,7 @@
       </c>
       <c r="Q26" s="45">
         <f ca="1"/>
-        <v>6.3474284291804964E-5</v>
+        <v>6.295387829675369E-5</v>
       </c>
       <c r="R26" s="19" t="str">
         <f ca="1"/>
@@ -11087,20 +11095,20 @@
       </c>
       <c r="Y26" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-98.469875051532952</v>
+        <v>-98.252102609587965</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45426</v>
+        <v>45897</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B27, A27,E27, F27)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-14/05/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/08/2025</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="0"/>
@@ -11117,7 +11125,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-14/05/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/08/2025</v>
       </c>
       <c r="J27" s="9" t="str">
         <f ca="1"/>
@@ -11125,7 +11133,7 @@
       </c>
       <c r="K27" s="29">
         <f ca="1"/>
-        <v>6.1736109846636529E-2</v>
+        <v>6.1725951461019252E-2</v>
       </c>
       <c r="L27" s="9" t="str">
         <f ca="1"/>
@@ -11133,7 +11141,7 @@
       </c>
       <c r="M27" s="19">
         <f ca="1"/>
-        <v>1.2038270230308339</v>
+        <v>1.2053562619648674</v>
       </c>
       <c r="N27" s="9" t="str">
         <f ca="1"/>
@@ -11149,7 +11157,7 @@
       </c>
       <c r="Q27" s="45">
         <f ca="1"/>
-        <v>1.2038270230308339E-4</v>
+        <v>1.2053562619648674E-4</v>
       </c>
       <c r="R27" s="19" t="str">
         <f ca="1"/>
@@ -11181,20 +11189,20 @@
       </c>
       <c r="Y27" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.36109846636526</v>
+        <v>-117.25951461019248</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45516</v>
+        <v>45987</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B28, A28,E28, F28)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-12/08/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-26/11/2025</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="0"/>
@@ -11211,7 +11219,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-12/08/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-26/11/2025</v>
       </c>
       <c r="J28" s="9" t="str">
         <f ca="1"/>
@@ -11219,7 +11227,7 @@
       </c>
       <c r="K28" s="29">
         <f ca="1"/>
-        <v>6.1993718648201933E-2</v>
+        <v>6.1992478585146893E-2</v>
       </c>
       <c r="L28" s="9" t="str">
         <f ca="1"/>
@@ -11227,7 +11235,7 @@
       </c>
       <c r="M28" s="19">
         <f ca="1"/>
-        <v>1.1857057782056439</v>
+        <v>1.1887249915753371</v>
       </c>
       <c r="N28" s="9" t="str">
         <f ca="1"/>
@@ -11243,7 +11251,7 @@
       </c>
       <c r="Q28" s="45">
         <f ca="1"/>
-        <v>1.1857057782056437E-4</v>
+        <v>1.1887249915753372E-4</v>
       </c>
       <c r="R28" s="19" t="str">
         <f ca="1"/>
@@ -11275,20 +11283,20 @@
       </c>
       <c r="Y28" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-119.9371864820193</v>
+        <v>-119.9247858514689</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45606</v>
+        <v>46077</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B29, A29,E29, F29)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-10/11/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-24/02/2026</v>
       </c>
       <c r="D29" s="27">
         <f t="shared" si="0"/>
@@ -11305,7 +11313,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-10/11/2024</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-24/02/2026</v>
       </c>
       <c r="J29" s="9" t="str">
         <f ca="1"/>
@@ -11313,7 +11321,7 @@
       </c>
       <c r="K29" s="29">
         <f ca="1"/>
-        <v>6.2325206744164349E-2</v>
+        <v>6.2331836779521865E-2</v>
       </c>
       <c r="L29" s="9" t="str">
         <f ca="1"/>
@@ -11321,7 +11329,7 @@
       </c>
       <c r="M29" s="19">
         <f ca="1"/>
-        <v>1.1677613468045922</v>
+        <v>1.1677527755673711</v>
       </c>
       <c r="N29" s="9" t="str">
         <f ca="1"/>
@@ -11337,7 +11345,7 @@
       </c>
       <c r="Q29" s="45">
         <f ca="1"/>
-        <v>1.1677613468045922E-4</v>
+        <v>1.1677527755673712E-4</v>
       </c>
       <c r="R29" s="19" t="str">
         <f ca="1"/>
@@ -11369,20 +11377,20 @@
       </c>
       <c r="Y29" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-123.25206744164346</v>
+        <v>-123.31836779521862</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45696</v>
+        <v>46167</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B30, A30,E30, F30)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-8/02/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-25/05/2026</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="0"/>
@@ -11399,7 +11407,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-8/02/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-25/05/2026</v>
       </c>
       <c r="J30" s="9" t="str">
         <f ca="1"/>
@@ -11407,7 +11415,7 @@
       </c>
       <c r="K30" s="29">
         <f ca="1"/>
-        <v>6.2736902327210742E-2</v>
+        <v>6.2748053307891072E-2</v>
       </c>
       <c r="L30" s="9" t="str">
         <f ca="1"/>
@@ -11415,7 +11423,7 @@
       </c>
       <c r="M30" s="19">
         <f ca="1"/>
-        <v>1.1497779230477514</v>
+        <v>1.1514258437140557</v>
       </c>
       <c r="N30" s="9" t="str">
         <f ca="1"/>
@@ -11431,7 +11439,7 @@
       </c>
       <c r="Q30" s="45">
         <f ca="1"/>
-        <v>1.1497779230477513E-4</v>
+        <v>1.1514258437140556E-4</v>
       </c>
       <c r="R30" s="19" t="str">
         <f ca="1"/>
@@ -11463,20 +11471,20 @@
       </c>
       <c r="Y30" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-127.36902327210738</v>
+        <v>-127.4805330789107</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45786</v>
+        <v>46257</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B31, A31,E31, F31)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-9/05/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-23/08/2026</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="0"/>
@@ -11493,7 +11501,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-9/05/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-23/08/2026</v>
       </c>
       <c r="J31" s="9" t="str">
         <f ca="1"/>
@@ -11501,7 +11509,7 @@
       </c>
       <c r="K31" s="29">
         <f ca="1"/>
-        <v>6.2741266478816754E-2</v>
+        <v>6.2771190483140948E-2</v>
       </c>
       <c r="L31" s="9" t="str">
         <f ca="1"/>
@@ -11509,7 +11517,7 @@
       </c>
       <c r="M31" s="19">
         <f ca="1"/>
-        <v>1.1320656903812871</v>
+        <v>1.1338822985631629</v>
       </c>
       <c r="N31" s="9" t="str">
         <f ca="1"/>
@@ -11525,7 +11533,7 @@
       </c>
       <c r="Q31" s="45">
         <f ca="1"/>
-        <v>1.1320656903812872E-4</v>
+        <v>1.1338822985631631E-4</v>
       </c>
       <c r="R31" s="19" t="str">
         <f ca="1"/>
@@ -11557,20 +11565,20 @@
       </c>
       <c r="Y31" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-127.41266478816752</v>
+        <v>-127.71190483140946</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45876</v>
+        <v>46347</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B32, A32,E32, F32)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-7/08/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-21/11/2026</v>
       </c>
       <c r="D32" s="27">
         <f t="shared" si="0"/>
@@ -11587,7 +11595,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-7/08/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-21/11/2026</v>
       </c>
       <c r="J32" s="9" t="str">
         <f ca="1"/>
@@ -11595,7 +11603,7 @@
       </c>
       <c r="K32" s="29">
         <f ca="1"/>
-        <v>6.2446576024871137E-2</v>
+        <v>6.246096589911327E-2</v>
       </c>
       <c r="L32" s="9" t="str">
         <f ca="1"/>
@@ -11603,7 +11611,7 @@
       </c>
       <c r="M32" s="19">
         <f ca="1"/>
-        <v>1.1167025882255794</v>
+        <v>1.1164978861974026</v>
       </c>
       <c r="N32" s="9" t="str">
         <f ca="1"/>
@@ -11619,7 +11627,7 @@
       </c>
       <c r="Q32" s="45">
         <f ca="1"/>
-        <v>1.1167025882255793E-4</v>
+        <v>1.1164978861974024E-4</v>
       </c>
       <c r="R32" s="19" t="str">
         <f ca="1"/>
@@ -11651,7 +11659,7 @@
       </c>
       <c r="Y32" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.46576024871133</v>
+        <v>-124.60965899113268</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -11811,11 +11819,11 @@
       <c r="B36" s="85"/>
       <c r="C36" s="6" t="str">
         <f t="array" aca="1" ref="C36:D45" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuotes('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!C10:C26)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
       </c>
       <c r="D36" s="83">
         <f ca="1"/>
-        <v>7.4500180239778863E-2</v>
+        <v>7.4489736981522905E-2</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12" thickBot="1">
@@ -11823,11 +11831,11 @@
       <c r="B37" s="85"/>
       <c r="C37" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-4/06/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
       </c>
       <c r="D37" s="83">
         <f ca="1"/>
-        <v>7.4493720701684404E-2</v>
+        <v>7.4494640034465404E-2</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>5</v>
@@ -11850,11 +11858,11 @@
     <row r="38" spans="1:25" ht="12" thickBot="1">
       <c r="C38" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-2/09/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
       </c>
       <c r="D38" s="83">
         <f ca="1"/>
-        <v>7.4494311252534862E-2</v>
+        <v>7.4499621908744151E-2</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="10"/>
@@ -11875,35 +11883,35 @@
     <row r="39" spans="1:25">
       <c r="C39" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
       </c>
       <c r="D39" s="83">
         <f ca="1"/>
-        <v>7.4495124855451733E-2</v>
-      </c>
-      <c r="I39" s="50">
+        <v>7.4489096864969268E-2</v>
+      </c>
+      <c r="I39" s="50" t="str">
         <f t="array" aca="1" ref="I39:W70" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(G2:G7,'GetInfo &amp; GetInstrumentInfo'!$D$9,C3:C32,$A$2)</f>
-        <v>7.4628688980228633E-2</v>
-      </c>
-      <c r="J39" s="14">
-        <f ca="1"/>
-        <v>2.6394729629369209</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J39" s="14" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K39" s="28">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14">
-        <f ca="1"/>
-        <v>2.6394729629369211E-4</v>
-      </c>
-      <c r="M39" s="15">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="14">
-        <f ca="1"/>
-        <v>-6.5006758675895962E-2</v>
+        <v>7.4629901229968487E-2</v>
+      </c>
+      <c r="L39" s="14" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M39" s="15" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N39" s="14" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O39" s="41" t="e">
         <f ca="1"/>
@@ -11945,35 +11953,35 @@
     <row r="40" spans="1:25">
       <c r="C40" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-1/03/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
       </c>
       <c r="D40" s="83">
         <f ca="1"/>
-        <v>7.4494958208030301E-2</v>
-      </c>
-      <c r="I40" s="51">
-        <f ca="1"/>
-        <v>7.5575099297089915E-2</v>
-      </c>
-      <c r="J40" s="9">
-        <f ca="1"/>
-        <v>2.5922689418935736</v>
+        <v>7.4488715539729675E-2</v>
+      </c>
+      <c r="I40" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J40" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K40" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <f ca="1"/>
-        <v>2.5922689418935737E-4</v>
-      </c>
-      <c r="M40" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N40" s="9">
-        <f ca="1"/>
-        <v>-6.6297535593690324E-2</v>
+        <v>2.6406177227896381</v>
+      </c>
+      <c r="L40" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M40" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N40" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O40" s="42" t="e">
         <f ca="1"/>
@@ -12015,35 +12023,35 @@
     <row r="41" spans="1:25">
       <c r="C41" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-30/05/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
       </c>
       <c r="D41" s="83">
         <f ca="1"/>
-        <v>7.4493166252688744E-2</v>
-      </c>
-      <c r="I41" s="51">
-        <f ca="1"/>
-        <v>7.605612261154468E-2</v>
-      </c>
-      <c r="J41" s="9">
-        <f ca="1"/>
-        <v>2.5445252703920946</v>
+        <v>7.44892557150761E-2</v>
+      </c>
+      <c r="I41" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K41" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="9">
-        <f ca="1"/>
-        <v>2.5445252703920943E-4</v>
-      </c>
-      <c r="M41" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N41" s="9">
-        <f ca="1"/>
-        <v>-6.6300462433510274E-2</v>
+      <c r="L41" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M41" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O41" s="42" t="e">
         <f ca="1"/>
@@ -12085,35 +12093,35 @@
     <row r="42" spans="1:25">
       <c r="C42" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-28/08/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
       </c>
       <c r="D42" s="83">
         <f ca="1"/>
-        <v>7.4499952757835025E-2</v>
-      </c>
-      <c r="I42" s="51">
-        <f ca="1"/>
-        <v>7.6377979560971365E-2</v>
-      </c>
-      <c r="J42" s="9">
-        <f ca="1"/>
-        <v>2.4994947666009728</v>
+        <v>7.4490241540043245E-2</v>
+      </c>
+      <c r="I42" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J42" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K42" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <f ca="1"/>
-        <v>2.4994947666009726E-4</v>
-      </c>
-      <c r="M42" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N42" s="9">
-        <f ca="1"/>
-        <v>-6.5931621866155365E-2</v>
+        <v>2.6406177227896382E-4</v>
+      </c>
+      <c r="L42" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M42" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O42" s="42" t="e">
         <f ca="1"/>
@@ -12155,35 +12163,35 @@
     <row r="43" spans="1:25">
       <c r="C43" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-26/11/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
       </c>
       <c r="D43" s="83">
         <f ca="1"/>
-        <v>7.4500294093040598E-2</v>
-      </c>
-      <c r="I43" s="51">
-        <f ca="1"/>
-        <v>7.7107596334004311E-2</v>
-      </c>
-      <c r="J43" s="9">
-        <f ca="1"/>
-        <v>2.4568242703401504</v>
+        <v>7.4489631314805058E-2</v>
+      </c>
+      <c r="I43" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J43" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K43" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <f ca="1"/>
-        <v>2.4568242703401508E-4</v>
-      </c>
-      <c r="M43" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N43" s="9">
-        <f ca="1"/>
-        <v>-6.6598600583965481E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L43" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M43" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N43" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O43" s="42" t="e">
         <f ca="1"/>
@@ -12225,35 +12233,35 @@
     <row r="44" spans="1:25">
       <c r="C44" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-24/02/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
       </c>
       <c r="D44" s="83">
         <f ca="1"/>
-        <v>7.4494632926503018E-2</v>
-      </c>
-      <c r="I44" s="51">
-        <f ca="1"/>
-        <v>7.4224783558079252E-2</v>
-      </c>
-      <c r="J44" s="9">
-        <f ca="1"/>
-        <v>3.7066104853616562</v>
+        <v>7.4499537111213043E-2</v>
+      </c>
+      <c r="I44" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+      </c>
+      <c r="J44" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K44" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <f ca="1"/>
-        <v>3.7066104853616564E-4</v>
-      </c>
-      <c r="M44" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N44" s="9">
-        <f ca="1"/>
-        <v>-8.9791836741993203E-2</v>
+        <v>-6.5038153698413093E-2</v>
+      </c>
+      <c r="L44" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M44" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N44" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O44" s="42" t="e">
         <f ca="1"/>
@@ -12295,35 +12303,35 @@
     <row r="45" spans="1:25">
       <c r="C45" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-25/05/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
       </c>
       <c r="D45" s="83">
         <f ca="1"/>
-        <v>7.449389919392696E-2</v>
-      </c>
-      <c r="I45" s="51">
-        <f ca="1"/>
-        <v>7.4275425181077839E-2</v>
-      </c>
-      <c r="J45" s="9">
-        <f ca="1"/>
-        <v>3.6404030638037912</v>
+        <v>7.4499577973310374E-2</v>
+      </c>
+      <c r="I45" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J45" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
       </c>
       <c r="K45" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <f ca="1"/>
-        <v>3.6404030638037907E-4</v>
-      </c>
-      <c r="M45" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N45" s="9">
-        <f ca="1"/>
-        <v>-8.8372332204335449E-2</v>
+        <v>7.5263531118901772E-2</v>
+      </c>
+      <c r="L45" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M45" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N45" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O45" s="42" t="e">
         <f ca="1"/>
@@ -12365,31 +12373,31 @@
     <row r="46" spans="1:25">
       <c r="D46" s="83">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuote('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!C2)</f>
-        <v>7.4399179845323571E-2</v>
-      </c>
-      <c r="I46" s="51">
-        <f ca="1"/>
-        <v>7.3808219023641791E-2</v>
-      </c>
-      <c r="J46" s="9">
-        <f ca="1"/>
-        <v>3.5750383408571573</v>
+        <v>7.4385377875522213E-2</v>
+      </c>
+      <c r="I46" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J46" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
       </c>
       <c r="K46" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <f ca="1"/>
-        <v>3.5750383408571571E-4</v>
-      </c>
-      <c r="M46" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N46" s="9">
-        <f ca="1"/>
-        <v>-8.511529583704415E-2</v>
+        <v>2.5919809309848469</v>
+      </c>
+      <c r="L46" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M46" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N46" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O46" s="42" t="e">
         <f ca="1"/>
@@ -12431,31 +12439,31 @@
     <row r="47" spans="1:25">
       <c r="D47" s="83">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetAssetImpliedQuote( 'GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!B2, 'Priceable Cleared Rate Assets'!D2, 'Priceable Cleared Rate Assets'!F2, 'Priceable Cleared Rate Assets'!A2)</f>
-        <v>7.4399179845323571E-2</v>
-      </c>
-      <c r="I47" s="51">
-        <f ca="1"/>
-        <v>7.2827398454969897E-2</v>
-      </c>
-      <c r="J47" s="9">
-        <f ca="1"/>
-        <v>3.5133307126341009</v>
+        <v>7.4385377875522213E-2</v>
+      </c>
+      <c r="I47" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J47" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
       </c>
       <c r="K47" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="9">
-        <f ca="1"/>
-        <v>3.5133307126341005E-4</v>
-      </c>
-      <c r="M47" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N47" s="9">
-        <f ca="1"/>
-        <v>-8.0200200081381984E-2</v>
+      <c r="L47" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M47" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N47" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O47" s="42" t="e">
         <f ca="1"/>
@@ -12495,1083 +12503,1083 @@
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="I48" s="51">
-        <f ca="1"/>
-        <v>7.1434650553126269E-2</v>
-      </c>
-      <c r="J48" s="9">
-        <f ca="1"/>
-        <v>3.4533315634809103</v>
+      <c r="I48" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J48" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K48" s="29">
         <f ca="1"/>
+        <v>2.5919809309848469E-4</v>
+      </c>
+      <c r="L48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M48" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O48" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P48" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q48" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R48" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S48" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U48" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V48" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W48" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="9:23">
+      <c r="I49" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J49" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K49" s="29">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="L49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O49" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P49" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R49" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S49" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U49" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V49" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W49" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="9:23">
+      <c r="I50" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+      </c>
+      <c r="J50" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="K50" s="29">
+        <f ca="1"/>
+        <v>-6.5482590909535662E-2</v>
+      </c>
+      <c r="L50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O50" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R50" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S50" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U50" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V50" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W50" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="9:23">
+      <c r="I51" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J51" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="K51" s="29">
+        <f ca="1"/>
+        <v>7.5874092663343135E-2</v>
+      </c>
+      <c r="L51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P51" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R51" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U51" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W51" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="9:23">
+      <c r="I52" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J52" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
+      </c>
+      <c r="K52" s="29">
+        <f ca="1"/>
+        <v>2.5418202792644817</v>
+      </c>
+      <c r="L52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P52" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R52" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S52" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U52" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V52" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W52" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="9:23">
+      <c r="I53" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J53" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
+      </c>
+      <c r="K53" s="29">
+        <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L48" s="9">
-        <f ca="1"/>
-        <v>3.4533315634809102E-4</v>
-      </c>
-      <c r="M48" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N48" s="9">
-        <f ca="1"/>
-        <v>-7.4020955307294509E-2</v>
-      </c>
-      <c r="O48" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P48" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R48" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S48" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T48" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U48" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V48" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W48" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="9:23">
-      <c r="I49" s="51">
-        <f ca="1"/>
-        <v>6.9734773259699318E-2</v>
-      </c>
-      <c r="J49" s="9">
-        <f ca="1"/>
-        <v>3.3966209748359528</v>
-      </c>
-      <c r="K49" s="29">
+      <c r="L53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O53" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P53" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R53" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S53" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U53" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V53" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W53" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="9:23">
+      <c r="I54" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J54" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="K54" s="29">
+        <f ca="1"/>
+        <v>2.5418202792644814E-4</v>
+      </c>
+      <c r="L54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M54" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O54" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P54" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q54" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R54" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S54" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U54" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V54" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W54" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="9:23">
+      <c r="I55" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J55" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K55" s="29">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="L55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O55" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P55" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q55" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R55" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S55" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U55" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V55" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W55" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="9:23">
+      <c r="I56" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+      </c>
+      <c r="J56" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="K56" s="29">
+        <f ca="1"/>
+        <v>-6.5767293439253929E-2</v>
+      </c>
+      <c r="L56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O56" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P56" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q56" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R56" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S56" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U56" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V56" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W56" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="9:23">
+      <c r="I57" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J57" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="K57" s="29">
+        <f ca="1"/>
+        <v>7.6271379922207311E-2</v>
+      </c>
+      <c r="L57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O57" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P57" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q57" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R57" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S57" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U57" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V57" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W57" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="9:23">
+      <c r="I58" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J58" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
+      </c>
+      <c r="K58" s="29">
+        <f ca="1"/>
+        <v>2.4959608664967061</v>
+      </c>
+      <c r="L58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O58" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P58" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q58" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R58" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S58" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U58" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V58" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W58" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="9:23">
+      <c r="I59" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J59" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
+      </c>
+      <c r="K59" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L49" s="9">
-        <f ca="1"/>
-        <v>3.3966209748359527E-4</v>
-      </c>
-      <c r="M49" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N49" s="9">
-        <f ca="1"/>
-        <v>-6.703154478752639E-2</v>
-      </c>
-      <c r="O49" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R49" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S49" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T49" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U49" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V49" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W49" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="9:23">
-      <c r="I50" s="51">
-        <f ca="1"/>
-        <v>6.7763551863682575E-2</v>
-      </c>
-      <c r="J50" s="9">
-        <f ca="1"/>
-        <v>3.3417075740212074</v>
-      </c>
-      <c r="K50" s="29">
+      <c r="L59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M59" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O59" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P59" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q59" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R59" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S59" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U59" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V59" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W59" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="9:23">
+      <c r="I60" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J60" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="K60" s="29">
+        <f ca="1"/>
+        <v>2.4959608664967061E-4</v>
+      </c>
+      <c r="L60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M60" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O60" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P60" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q60" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R60" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S60" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U60" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V60" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W60" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="9:23">
+      <c r="I61" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J61" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K61" s="29">
+        <f ca="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="L61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M61" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O61" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P61" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R61" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S61" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U61" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V61" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W61" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="9:23">
+      <c r="I62" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+      </c>
+      <c r="J62" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="K62" s="29">
+        <f ca="1"/>
+        <v>-6.5572336194696698E-2</v>
+      </c>
+      <c r="L62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M62" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O62" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P62" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R62" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S62" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U62" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V62" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W62" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="9:23">
+      <c r="I63" s="51" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J63" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="K63" s="29">
+        <f ca="1"/>
+        <v>7.6787994261508508E-2</v>
+      </c>
+      <c r="L63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M63" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O63" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P63" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q63" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R63" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S63" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U63" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V63" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W63" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="9:23">
+      <c r="I64" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J64" s="9" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
+      </c>
+      <c r="K64" s="29">
+        <f ca="1"/>
+        <v>2.4515898936126841</v>
+      </c>
+      <c r="L64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M64" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O64" s="42" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P64" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q64" s="45" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R64" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S64" s="39" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U64" s="32" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V64" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W64" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="4:23">
+      <c r="I65" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J65" s="9" t="str">
+        <f ca="1"/>
+        <v>ConvexityAdjustment</v>
+      </c>
+      <c r="K65" s="29">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L50" s="9">
-        <f ca="1"/>
-        <v>3.3417075740212079E-4</v>
-      </c>
-      <c r="M50" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N50" s="9">
-        <f ca="1"/>
-        <v>-5.9360595804386622E-2</v>
-      </c>
-      <c r="O50" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R50" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T50" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U50" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V50" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W50" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="9:23">
-      <c r="I51" s="51">
-        <f ca="1"/>
-        <v>6.6950247840837709E-2</v>
-      </c>
-      <c r="J51" s="9">
-        <f ca="1"/>
-        <v>3.2850839677852344</v>
-      </c>
-      <c r="K51" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <f ca="1"/>
-        <v>3.2850839677852348E-4</v>
-      </c>
-      <c r="M51" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N51" s="9">
-        <f ca="1"/>
-        <v>-5.5682987431922272E-2</v>
-      </c>
-      <c r="O51" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R51" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T51" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U51" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="9:23">
-      <c r="I52" s="51">
-        <f ca="1"/>
-        <v>6.6427392424716528E-2</v>
-      </c>
-      <c r="J52" s="9">
-        <f ca="1"/>
-        <v>3.236664817252136</v>
-      </c>
-      <c r="K52" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <f ca="1"/>
-        <v>3.2366648172521361E-4</v>
-      </c>
-      <c r="M52" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N52" s="9">
-        <f ca="1"/>
-        <v>-5.3169963100274213E-2</v>
-      </c>
-      <c r="O52" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R52" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T52" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U52" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="9:23">
-      <c r="I53" s="51">
-        <f ca="1"/>
-        <v>6.5907042497559465E-2</v>
-      </c>
-      <c r="J53" s="9">
-        <f ca="1"/>
-        <v>3.1849578923698481</v>
-      </c>
-      <c r="K53" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <f ca="1"/>
-        <v>3.1849578923698481E-4</v>
-      </c>
-      <c r="M53" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N53" s="9">
-        <f ca="1"/>
-        <v>-5.0663260546864604E-2</v>
-      </c>
-      <c r="O53" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R53" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T53" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U53" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V53" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="9:23">
-      <c r="I54" s="51">
-        <f ca="1"/>
-        <v>6.5403604441467172E-2</v>
-      </c>
-      <c r="J54" s="9">
-        <f ca="1"/>
-        <v>3.1346616282501318</v>
-      </c>
-      <c r="K54" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <f ca="1"/>
-        <v>3.1346616282501317E-4</v>
-      </c>
-      <c r="M54" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N54" s="9">
-        <f ca="1"/>
-        <v>-4.8285087779410422E-2</v>
-      </c>
-      <c r="O54" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R54" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S54" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T54" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U54" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V54" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W54" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="9:23">
-      <c r="I55" s="51">
-        <f ca="1"/>
-        <v>6.4785490768567808E-2</v>
-      </c>
-      <c r="J55" s="9">
-        <f ca="1"/>
-        <v>3.0860192963347646</v>
-      </c>
-      <c r="K55" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <f ca="1"/>
-        <v>3.0860192963347646E-4</v>
-      </c>
-      <c r="M55" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N55" s="9">
-        <f ca="1"/>
-        <v>-4.5628309817579787E-2</v>
-      </c>
-      <c r="O55" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P55" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R55" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S55" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T55" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U55" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V55" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W55" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="9:23">
-      <c r="I56" s="51">
-        <f ca="1"/>
-        <v>6.4111151906472597E-2</v>
-      </c>
-      <c r="J56" s="9">
-        <f ca="1"/>
-        <v>3.038622463020793</v>
-      </c>
-      <c r="K56" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <f ca="1"/>
-        <v>3.0386224630207933E-4</v>
-      </c>
-      <c r="M56" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N56" s="9">
-        <f ca="1"/>
-        <v>-4.2878463162106341E-2</v>
-      </c>
-      <c r="O56" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P56" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R56" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S56" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T56" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U56" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V56" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W56" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="9:23">
-      <c r="I57" s="51">
-        <f ca="1"/>
-        <v>6.3413795335995587E-2</v>
-      </c>
-      <c r="J57" s="9">
-        <f ca="1"/>
-        <v>2.9924991073664735</v>
-      </c>
-      <c r="K57" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <f ca="1"/>
-        <v>2.9924991073664731E-4</v>
-      </c>
-      <c r="M57" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N57" s="9">
-        <f ca="1"/>
-        <v>-4.0140770569363333E-2</v>
-      </c>
-      <c r="O57" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R57" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S57" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T57" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U57" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V57" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W57" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="9:23">
-      <c r="I58" s="51">
-        <f ca="1"/>
-        <v>6.4063545734301466E-2</v>
-      </c>
-      <c r="J58" s="9">
-        <f ca="1"/>
-        <v>0.66861255835423739</v>
-      </c>
-      <c r="K58" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <f ca="1"/>
-        <v>6.6861255835423737E-5</v>
-      </c>
-      <c r="M58" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N58" s="9">
-        <f ca="1"/>
-        <v>-9.4030632929431295E-3</v>
-      </c>
-      <c r="O58" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R58" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S58" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T58" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U58" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V58" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W58" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="9:23">
-      <c r="I59" s="51">
-        <f ca="1"/>
-        <v>6.2479084707637543E-2</v>
-      </c>
-      <c r="J59" s="9">
-        <f ca="1"/>
-        <v>0.66009023599018146</v>
-      </c>
-      <c r="K59" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="9">
-        <f ca="1"/>
-        <v>6.600902359901815E-5</v>
-      </c>
-      <c r="M59" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N59" s="9">
-        <f ca="1"/>
-        <v>-8.2373219696059274E-3</v>
-      </c>
-      <c r="O59" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R59" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S59" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T59" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U59" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V59" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W59" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="9:23">
-      <c r="I60" s="51">
-        <f ca="1"/>
-        <v>6.1588757270005075E-2</v>
-      </c>
-      <c r="J60" s="9">
-        <f ca="1"/>
-        <v>0.65010943105482966</v>
-      </c>
-      <c r="K60" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
-        <f ca="1"/>
-        <v>6.5010943105482967E-5</v>
-      </c>
-      <c r="M60" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N60" s="9">
-        <f ca="1"/>
-        <v>-7.5339603954355213E-3</v>
-      </c>
-      <c r="O60" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R60" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S60" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T60" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U60" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V60" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W60" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="9:23">
-      <c r="I61" s="51">
-        <f ca="1"/>
-        <v>6.0726943559924695E-2</v>
-      </c>
-      <c r="J61" s="9">
-        <f ca="1"/>
-        <v>0.64241574598906726</v>
-      </c>
-      <c r="K61" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <f ca="1"/>
-        <v>6.4241574598906714E-5</v>
-      </c>
-      <c r="M61" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N61" s="9">
-        <f ca="1"/>
-        <v>-6.8911574492316425E-3</v>
-      </c>
-      <c r="O61" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P61" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R61" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S61" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T61" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U61" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V61" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W61" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="9:23">
-      <c r="I62" s="51">
-        <f ca="1"/>
-        <v>5.9846987505153298E-2</v>
-      </c>
-      <c r="J62" s="9">
-        <f ca="1"/>
-        <v>0.63474284291804972</v>
-      </c>
-      <c r="K62" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="9">
-        <f ca="1"/>
-        <v>6.3474284291804964E-5</v>
-      </c>
-      <c r="M62" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N62" s="9">
-        <f ca="1"/>
-        <v>-6.2503048431995171E-3</v>
-      </c>
-      <c r="O62" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P62" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R62" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S62" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T62" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U62" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V62" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W62" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="9:23">
-      <c r="I63" s="51">
-        <f ca="1"/>
-        <v>6.1736109846636529E-2</v>
-      </c>
-      <c r="J63" s="9">
-        <f ca="1"/>
-        <v>1.2038270230308339</v>
-      </c>
-      <c r="K63" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="9">
-        <f ca="1"/>
-        <v>1.2038270230308339E-4</v>
-      </c>
-      <c r="M63" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N63" s="9">
-        <f ca="1"/>
-        <v>-1.4128246178639309E-2</v>
-      </c>
-      <c r="O63" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P63" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R63" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S63" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T63" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U63" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V63" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W63" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="9:23">
-      <c r="I64" s="18">
-        <f ca="1"/>
-        <v>6.1993718648201933E-2</v>
-      </c>
-      <c r="J64" s="9">
-        <f ca="1"/>
-        <v>1.1857057782056439</v>
-      </c>
-      <c r="K64" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="9">
-        <f ca="1"/>
-        <v>1.1857057782056437E-4</v>
-      </c>
-      <c r="M64" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N64" s="9">
-        <f ca="1"/>
-        <v>-1.4221021503345815E-2</v>
-      </c>
-      <c r="O64" s="42" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P64" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q64" s="45" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R64" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S64" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T64" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U64" s="32" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V64" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W64" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="4:23">
-      <c r="I65" s="18">
-        <f ca="1"/>
-        <v>6.2325206744164349E-2</v>
-      </c>
-      <c r="J65" s="9">
-        <f ca="1"/>
-        <v>1.1677613468045922</v>
-      </c>
-      <c r="K65" s="29">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <f ca="1"/>
-        <v>1.1677613468045922E-4</v>
-      </c>
-      <c r="M65" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N65" s="9">
-        <f ca="1"/>
-        <v>-1.4392900027210396E-2</v>
+      <c r="L65" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M65" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N65" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O65" s="42" t="e">
         <f ca="1"/>
@@ -13611,29 +13619,29 @@
       </c>
     </row>
     <row r="66" spans="4:23">
-      <c r="I66" s="18">
-        <f ca="1"/>
-        <v>6.2736902327210742E-2</v>
-      </c>
-      <c r="J66" s="9">
-        <f ca="1"/>
-        <v>1.1497779230477514</v>
+      <c r="I66" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J66" s="9" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
       </c>
       <c r="K66" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
-        <f ca="1"/>
-        <v>1.1497779230477513E-4</v>
-      </c>
-      <c r="M66" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N66" s="9">
-        <f ca="1"/>
-        <v>-1.4644609103842434E-2</v>
+        <v>2.4515898936126841E-4</v>
+      </c>
+      <c r="L66" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M66" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N66" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O66" s="42" t="e">
         <f ca="1"/>
@@ -13673,29 +13681,29 @@
       </c>
     </row>
     <row r="67" spans="4:23">
-      <c r="I67" s="18">
-        <f ca="1"/>
-        <v>6.2741266478816754E-2</v>
-      </c>
-      <c r="J67" s="9">
-        <f ca="1"/>
-        <v>1.1320656903812871</v>
+      <c r="I67" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J67" s="9" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
       </c>
       <c r="K67" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="9">
-        <f ca="1"/>
-        <v>1.1320656903812872E-4</v>
-      </c>
-      <c r="M67" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N67" s="9">
-        <f ca="1"/>
-        <v>-1.4423950632673646E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="L67" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M67" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N67" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O67" s="42" t="e">
         <f ca="1"/>
@@ -13736,29 +13744,29 @@
     </row>
     <row r="68" spans="4:23">
       <c r="D68" s="47"/>
-      <c r="I68" s="18">
-        <f ca="1"/>
-        <v>6.2446576024871137E-2</v>
-      </c>
-      <c r="J68" s="9">
-        <f ca="1"/>
-        <v>1.1167025882255794</v>
+      <c r="I68" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+      </c>
+      <c r="J68" s="9" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
       </c>
       <c r="K68" s="29">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <f ca="1"/>
-        <v>1.1167025882255793E-4</v>
-      </c>
-      <c r="M68" s="19">
-        <f ca="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="N68" s="9">
-        <f ca="1"/>
-        <v>-1.3899123661520034E-2</v>
+        <v>-6.5673176001668804E-2</v>
+      </c>
+      <c r="L68" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M68" s="19" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N68" s="9" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
       </c>
       <c r="O68" s="42" t="e">
         <f ca="1"/>
@@ -13799,17 +13807,17 @@
     </row>
     <row r="69" spans="4:23">
       <c r="D69" s="47"/>
-      <c r="I69" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="9" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K69" s="29" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I69" s="18" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+      </c>
+      <c r="J69" s="9" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="K69" s="29">
+        <f ca="1"/>
+        <v>7.3968096422983354E-2</v>
       </c>
       <c r="L69" s="9" t="e">
         <f ca="1"/>
@@ -13861,17 +13869,17 @@
       </c>
     </row>
     <row r="70" spans="4:23" ht="12" thickBot="1">
-      <c r="I70" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="24" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K70" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I70" s="23" t="str">
+        <f ca="1"/>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+      </c>
+      <c r="J70" s="24" t="str">
+        <f ca="1"/>
+        <v>AccrualFactor</v>
+      </c>
+      <c r="K70" s="30">
+        <f ca="1"/>
+        <v>3.7059305712703634</v>
       </c>
       <c r="L70" s="24" t="e">
         <f ca="1"/>
@@ -14032,287 +14040,287 @@
     <row r="9" spans="3:11">
       <c r="C9" s="54">
         <f ca="1">BaseDate</f>
-        <v>43176</v>
+        <v>43647</v>
       </c>
       <c r="D9" s="82">
         <f t="array" aca="1" ref="D9:H19" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuoteMatrix(C9:C19, D8:H8, J5:K7)</f>
-        <v>2.5341945755720085E-2</v>
+        <v>2.5342388189716625E-2</v>
       </c>
       <c r="E9" s="82">
         <f ca="1"/>
-        <v>2.5327696394128428E-2</v>
+        <v>2.5327920908831774E-2</v>
       </c>
       <c r="F9" s="82">
         <f ca="1"/>
-        <v>2.5112008656855696E-2</v>
+        <v>2.5111708089527174E-2</v>
       </c>
       <c r="G9" s="82">
         <f ca="1"/>
-        <v>2.5189015966207998E-2</v>
+        <v>2.5189146808183651E-2</v>
       </c>
       <c r="H9" s="82">
         <f ca="1"/>
-        <v>2.5189173205229416E-2</v>
+        <v>2.5189356854965438E-2</v>
       </c>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="54">
         <f ca="1">C9+182</f>
-        <v>43358</v>
+        <v>43829</v>
       </c>
       <c r="D10" s="82">
         <f ca="1"/>
-        <v>2.5341933892382189E-2</v>
+        <v>2.5342382523899514E-2</v>
       </c>
       <c r="E10" s="82">
         <f ca="1"/>
-        <v>2.532768751975446E-2</v>
+        <v>2.5327881269464086E-2</v>
       </c>
       <c r="F10" s="82">
         <f ca="1"/>
-        <v>2.5111982796012216E-2</v>
+        <v>2.51137241541796E-2</v>
       </c>
       <c r="G10" s="82">
         <f ca="1"/>
-        <v>2.5188983248096691E-2</v>
+        <v>2.5188812765459128E-2</v>
       </c>
       <c r="H10" s="82">
         <f ca="1"/>
-        <v>2.5189151716652636E-2</v>
+        <v>2.5189330350393307E-2</v>
       </c>
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="54">
         <f t="shared" ref="C11:C19" ca="1" si="0">C10+182</f>
-        <v>43540</v>
+        <v>44011</v>
       </c>
       <c r="D11" s="82">
         <f ca="1"/>
-        <v>2.5342127093544924E-2</v>
+        <v>2.5342203138008758E-2</v>
       </c>
       <c r="E11" s="82">
         <f ca="1"/>
-        <v>2.5327699212793767E-2</v>
+        <v>2.5327830550408142E-2</v>
       </c>
       <c r="F11" s="82">
         <f ca="1"/>
-        <v>2.5112010544037836E-2</v>
+        <v>2.5113726405229891E-2</v>
       </c>
       <c r="G11" s="82">
         <f ca="1"/>
-        <v>2.5189018881392581E-2</v>
+        <v>2.5188807521787076E-2</v>
       </c>
       <c r="H11" s="82">
         <f ca="1"/>
-        <v>2.5189175568288116E-2</v>
+        <v>2.5189243692705452E-2</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>43722</v>
+        <v>44193</v>
       </c>
       <c r="D12" s="82">
         <f ca="1"/>
-        <v>2.534212142614552E-2</v>
+        <v>2.5342201749426745E-2</v>
       </c>
       <c r="E12" s="82">
         <f ca="1"/>
-        <v>2.5327692053888649E-2</v>
+        <v>2.5327828437067851E-2</v>
       </c>
       <c r="F12" s="82">
         <f ca="1"/>
-        <v>2.5111985831748708E-2</v>
+        <v>2.5113723365248912E-2</v>
       </c>
       <c r="G12" s="82">
         <f ca="1"/>
-        <v>2.5188987163916019E-2</v>
+        <v>2.5189109043424775E-2</v>
       </c>
       <c r="H12" s="82">
         <f ca="1"/>
-        <v>2.5189149857986461E-2</v>
+        <v>2.5189242389957432E-2</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>43904</v>
+        <v>44375</v>
       </c>
       <c r="D13" s="82">
         <f ca="1"/>
-        <v>2.5341945755720085E-2</v>
+        <v>2.5342203138008758E-2</v>
       </c>
       <c r="E13" s="82">
         <f ca="1"/>
-        <v>2.5327644814503066E-2</v>
+        <v>2.5327830550408142E-2</v>
       </c>
       <c r="F13" s="82">
         <f ca="1"/>
-        <v>2.511267978404742E-2</v>
+        <v>2.5113726405229891E-2</v>
       </c>
       <c r="G13" s="82">
         <f ca="1"/>
-        <v>2.5189003253672702E-2</v>
+        <v>2.5189118393780487E-2</v>
       </c>
       <c r="H13" s="82">
         <f ca="1"/>
-        <v>2.5189162900403177E-2</v>
+        <v>2.5189249968356316E-2</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44086</v>
+        <v>44557</v>
       </c>
       <c r="D14" s="82">
         <f ca="1"/>
-        <v>2.5341935315554516E-2</v>
+        <v>2.5341938758007283E-2</v>
       </c>
       <c r="E14" s="82">
         <f ca="1"/>
-        <v>2.5327635240463341E-2</v>
+        <v>2.5327637717208206E-2</v>
       </c>
       <c r="F14" s="82">
         <f ca="1"/>
-        <v>2.5112668526830331E-2</v>
+        <v>2.5111301467120414E-2</v>
       </c>
       <c r="G14" s="82">
         <f ca="1"/>
-        <v>2.5188980754182452E-2</v>
+        <v>2.5188765313002279E-2</v>
       </c>
       <c r="H14" s="82">
         <f ca="1"/>
-        <v>2.5189149695075252E-2</v>
+        <v>2.5189046952988722E-2</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44268</v>
+        <v>44739</v>
       </c>
       <c r="D15" s="82">
         <f ca="1"/>
-        <v>2.5341945755720085E-2</v>
+        <v>2.5342203138008758E-2</v>
       </c>
       <c r="E15" s="82">
         <f ca="1"/>
-        <v>2.5327644814503066E-2</v>
+        <v>2.5327882732440174E-2</v>
       </c>
       <c r="F15" s="82">
         <f ca="1"/>
-        <v>2.5111990575207327E-2</v>
+        <v>2.5111685775982627E-2</v>
       </c>
       <c r="G15" s="82">
         <f ca="1"/>
-        <v>2.5188992919387976E-2</v>
+        <v>2.5189112815340704E-2</v>
       </c>
       <c r="H15" s="82">
         <f ca="1"/>
-        <v>2.5189154523393834E-2</v>
+        <v>2.5189247366395502E-2</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
+        <v>44921</v>
       </c>
       <c r="D16" s="82">
         <f ca="1"/>
-        <v>2.5341935315554516E-2</v>
+        <v>2.5341938758007283E-2</v>
       </c>
       <c r="E16" s="82">
         <f ca="1"/>
-        <v>2.5327635240463341E-2</v>
+        <v>2.5327806886102883E-2</v>
       </c>
       <c r="F16" s="82">
         <f ca="1"/>
-        <v>2.5111980913242297E-2</v>
+        <v>2.51113200154107E-2</v>
       </c>
       <c r="G16" s="82">
         <f ca="1"/>
-        <v>2.5188977433788923E-2</v>
+        <v>2.5188888951130507E-2</v>
       </c>
       <c r="H16" s="82">
         <f ca="1"/>
-        <v>2.5189147003550159E-2</v>
+        <v>2.5189150891758182E-2</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>45103</v>
       </c>
       <c r="D17" s="82">
         <f ca="1"/>
-        <v>2.5341945755720085E-2</v>
+        <v>2.5342385349981698E-2</v>
       </c>
       <c r="E17" s="82">
         <f ca="1"/>
-        <v>2.5327696394128428E-2</v>
+        <v>2.532788554865515E-2</v>
       </c>
       <c r="F17" s="82">
         <f ca="1"/>
-        <v>2.5112008656855696E-2</v>
+        <v>2.5111687658189601E-2</v>
       </c>
       <c r="G17" s="82">
         <f ca="1"/>
-        <v>2.5189015966207998E-2</v>
+        <v>2.5189118195091034E-2</v>
       </c>
       <c r="H17" s="82">
         <f ca="1"/>
-        <v>2.5189173205229416E-2</v>
+        <v>2.5189336498737697E-2</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44814</v>
+        <v>45285</v>
       </c>
       <c r="D18" s="82">
         <f ca="1"/>
-        <v>2.5341935315554516E-2</v>
+        <v>2.5342124266701332E-2</v>
       </c>
       <c r="E18" s="82">
         <f ca="1"/>
-        <v>2.5327688238959978E-2</v>
+        <v>2.5327809688467429E-2</v>
       </c>
       <c r="F18" s="82">
         <f ca="1"/>
-        <v>2.5111983277541536E-2</v>
+        <v>2.5111386886509449E-2</v>
       </c>
       <c r="G18" s="82">
         <f ca="1"/>
-        <v>2.5188983248096691E-2</v>
+        <v>2.5188996531450531E-2</v>
       </c>
       <c r="H18" s="82">
         <f ca="1"/>
-        <v>2.5189151716652636E-2</v>
+        <v>2.5189157330925086E-2</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45467</v>
       </c>
       <c r="D19" s="82">
         <f ca="1"/>
-        <v>2.5342127093544924E-2</v>
+        <v>2.5342234752751092E-2</v>
       </c>
       <c r="E19" s="82">
         <f ca="1"/>
-        <v>2.5327699212793767E-2</v>
+        <v>2.5327896714954307E-2</v>
       </c>
       <c r="F19" s="82">
         <f ca="1"/>
-        <v>2.5112010544037836E-2</v>
+        <v>2.5113803763121795E-2</v>
       </c>
       <c r="G19" s="82">
         <f ca="1"/>
-        <v>2.5189018881392581E-2</v>
+        <v>2.5189205271176303E-2</v>
       </c>
       <c r="H19" s="82">
         <f ca="1"/>
-        <v>2.5189175568288116E-2</v>
+        <v>2.5189326019174261E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/RateAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27154F1F-931B-4921-B4A7-6C7C30A3C857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0E825-E083-42CB-B2A8-4C769923F6F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26370" windowHeight="14820" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="465" windowWidth="26370" windowHeight="14820" tabRatio="653" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -2764,7 +2764,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="70" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 01-Jul-19</v>
+        <v>Last Update 02-Sep-19</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E8" s="80">
         <f ca="1">TODAY()</f>
-        <v>43647</v>
+        <v>43710</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3254,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -3327,14 +3327,14 @@
     <row r="2" spans="1:25" ht="12" thickBot="1">
       <c r="A2" s="54">
         <f ca="1">BaseDate</f>
-        <v>43647</v>
+        <v>43710</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B2, A2,E2, F2)</f>
-        <v>AUD-IRSwap-3Y-0.05-1/07/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-2/09/2019</v>
       </c>
       <c r="D2" s="27">
         <f>E2+F2</f>
@@ -3376,14 +3376,14 @@
     <row r="3" spans="1:25">
       <c r="A3" s="54">
         <f ca="1">A2+90</f>
-        <v>43737</v>
+        <v>43800</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B3, A3,E3, F3)</f>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="D3" s="27">
         <f t="shared" ref="D3:D32" si="0">E3+F3</f>
@@ -3402,7 +3402,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="13" t="str">
         <f t="array" aca="1" ref="I3:W34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($G$2:$G$7,'GetInfo &amp; GetInstrumentInfo'!$D$9, C3:C32, $A$2)</f>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J3" s="14" t="str">
         <f ca="1"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="K3" s="48">
         <f ca="1"/>
-        <v>7.4629901229968487E-2</v>
+        <v>4.854796185397766E-2</v>
       </c>
       <c r="L3" s="14" t="str">
         <f ca="1"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="M3" s="15">
         <f ca="1"/>
-        <v>2.6406177227896381</v>
+        <v>2.7492584186692977</v>
       </c>
       <c r="N3" s="14" t="str">
         <f ca="1"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="Q3" s="44">
         <f ca="1"/>
-        <v>2.6406177227896382E-4</v>
+        <v>2.7492584186692977E-4</v>
       </c>
       <c r="R3" s="15" t="str">
         <f ca="1"/>
@@ -3466,20 +3466,20 @@
       </c>
       <c r="Y3" s="37">
         <f ca="1">(S3-K3)*10000</f>
-        <v>-246.29901229968485</v>
+        <v>14.520381460223428</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="54">
         <f t="shared" ref="A4:A32" ca="1" si="2">A3+90</f>
-        <v>43827</v>
+        <v>43890</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B4, A4,E4, F4)</f>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="D4" s="27">
         <f t="shared" si="0"/>
@@ -3498,7 +3498,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J4" s="9" t="str">
         <f ca="1"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K4" s="49">
         <f ca="1"/>
-        <v>7.5263531118901772E-2</v>
+        <v>4.9146484750953283E-2</v>
       </c>
       <c r="L4" s="9" t="str">
         <f ca="1"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="M4" s="19">
         <f ca="1"/>
-        <v>2.5919809309848469</v>
+        <v>2.7136964628382114</v>
       </c>
       <c r="N4" s="9" t="str">
         <f ca="1"/>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="Q4" s="45">
         <f ca="1"/>
-        <v>2.5919809309848469E-4</v>
+        <v>2.7136964628382115E-4</v>
       </c>
       <c r="R4" s="19" t="str">
         <f ca="1"/>
@@ -3562,20 +3562,20 @@
       </c>
       <c r="Y4" s="36">
         <f t="shared" ref="Y4:Y33" ca="1" si="3">(S4-K4)*10000</f>
-        <v>-252.6353111890177</v>
+        <v>8.5351524904671994</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B5, A5,E5, F5)</f>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
@@ -3594,7 +3594,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J5" s="9" t="str">
         <f ca="1"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="K5" s="49">
         <f ca="1"/>
-        <v>7.5874092663343135E-2</v>
+        <v>4.9786158458676316E-2</v>
       </c>
       <c r="L5" s="9" t="str">
         <f ca="1"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="M5" s="19">
         <f ca="1"/>
-        <v>2.5418202792644817</v>
+        <v>2.6804246440408335</v>
       </c>
       <c r="N5" s="9" t="str">
         <f ca="1"/>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="Q5" s="45">
         <f ca="1"/>
-        <v>2.5418202792644814E-4</v>
+        <v>2.6804246440408335E-4</v>
       </c>
       <c r="R5" s="19" t="str">
         <f ca="1"/>
@@ -3658,20 +3658,20 @@
       </c>
       <c r="Y5" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-258.74092663343134</v>
+        <v>2.1384154132368662</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44007</v>
+        <v>44070</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B6, A6,E6, F6)</f>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
@@ -3690,7 +3690,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J6" s="9" t="str">
         <f ca="1"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1"/>
-        <v>7.6271379922207311E-2</v>
+        <v>5.0459026976231586E-2</v>
       </c>
       <c r="L6" s="9" t="str">
         <f ca="1"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="M6" s="19">
         <f ca="1"/>
-        <v>2.4959608664967061</v>
+        <v>2.6482006543150449</v>
       </c>
       <c r="N6" s="9" t="str">
         <f ca="1"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="Q6" s="45">
         <f ca="1"/>
-        <v>2.4959608664967061E-4</v>
+        <v>2.6482006543150448E-4</v>
       </c>
       <c r="R6" s="19" t="str">
         <f ca="1"/>
@@ -3754,20 +3754,20 @@
       </c>
       <c r="Y6" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-262.71379922207308</v>
+        <v>-4.5902697623158293</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44097</v>
+        <v>44160</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B7, A7,E7, F7)</f>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
@@ -3786,7 +3786,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J7" s="9" t="str">
         <f ca="1"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="K7" s="49">
         <f ca="1"/>
-        <v>7.6787994261508508E-2</v>
+        <v>5.1003122680912817E-2</v>
       </c>
       <c r="L7" s="9" t="str">
         <f ca="1"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="M7" s="19">
         <f ca="1"/>
-        <v>2.4515898936126841</v>
+        <v>2.6174935710797289</v>
       </c>
       <c r="N7" s="9" t="str">
         <f ca="1"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="Q7" s="45">
         <f ca="1"/>
-        <v>2.4515898936126841E-4</v>
+        <v>2.6174935710797289E-4</v>
       </c>
       <c r="R7" s="19" t="str">
         <f ca="1"/>
@@ -3850,20 +3850,20 @@
       </c>
       <c r="Y7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-267.87994261508504</v>
+        <v>-10.031226809128144</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44187</v>
+        <v>44250</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B8, A8,E8, F8)</f>
-        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-23/02/2021</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
@@ -3880,7 +3880,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-23/02/2021</v>
       </c>
       <c r="J8" s="9" t="str">
         <f ca="1"/>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="K8" s="49">
         <f ca="1"/>
-        <v>7.7615749020259486E-2</v>
+        <v>5.1540982898413377E-2</v>
       </c>
       <c r="L8" s="9" t="str">
         <f ca="1"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="M8" s="19">
         <f ca="1"/>
-        <v>2.4113694402775385</v>
+        <v>2.5868170057047029</v>
       </c>
       <c r="N8" s="9" t="str">
         <f ca="1"/>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="Q8" s="45">
         <f ca="1"/>
-        <v>2.4113694402775387E-4</v>
+        <v>2.5868170057047031E-4</v>
       </c>
       <c r="R8" s="19" t="str">
         <f ca="1"/>
@@ -3944,20 +3944,20 @@
       </c>
       <c r="Y8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-276.15749020259483</v>
+        <v>-15.409828984133748</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B9, A9,E9, F9)</f>
-        <v>AUD-IRSwap-3Y-0.05-22/03/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-24/05/2021</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
@@ -3974,7 +3974,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-22/03/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-24/05/2021</v>
       </c>
       <c r="J9" s="9" t="str">
         <f ca="1"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="K9" s="49">
         <f ca="1"/>
-        <v>7.8601999361071109E-2</v>
+        <v>5.2080395932937035E-2</v>
       </c>
       <c r="L9" s="9" t="str">
         <f ca="1"/>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="M9" s="19">
         <f ca="1"/>
-        <v>2.3636248110707769</v>
+        <v>2.556149194593297</v>
       </c>
       <c r="N9" s="9" t="str">
         <f ca="1"/>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="Q9" s="45">
         <f ca="1"/>
-        <v>2.3636248110707768E-4</v>
+        <v>2.5561491945932967E-4</v>
       </c>
       <c r="R9" s="19" t="str">
         <f ca="1"/>
@@ -4038,20 +4038,20 @@
       </c>
       <c r="Y9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-286.01999361071108</v>
+        <v>-20.803959329370318</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44367</v>
+        <v>44430</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B10, A10,E10, F10)</f>
-        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-22/08/2021</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
@@ -4068,7 +4068,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-22/08/2021</v>
       </c>
       <c r="J10" s="9" t="str">
         <f ca="1"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="K10" s="49">
         <f ca="1"/>
-        <v>7.9724012024984317E-2</v>
+        <v>5.2632758442833785E-2</v>
       </c>
       <c r="L10" s="9" t="str">
         <f ca="1"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="M10" s="19">
         <f ca="1"/>
-        <v>2.3143620296919112</v>
+        <v>2.5191971334339613</v>
       </c>
       <c r="N10" s="9" t="str">
         <f ca="1"/>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="Q10" s="45">
         <f ca="1"/>
-        <v>2.3143620296919111E-4</v>
+        <v>2.5191971334339615E-4</v>
       </c>
       <c r="R10" s="19" t="str">
         <f ca="1"/>
@@ -4132,20 +4132,20 @@
       </c>
       <c r="Y10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-297.24012024984313</v>
+        <v>-26.327584428337826</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44457</v>
+        <v>44520</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B11, A11,E11, F11)</f>
-        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-20/11/2021</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
@@ -4162,7 +4162,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-20/11/2021</v>
       </c>
       <c r="J11" s="9" t="str">
         <f ca="1"/>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K11" s="49">
         <f ca="1"/>
-        <v>7.9092386550728755E-2</v>
+        <v>5.3153173243372473E-2</v>
       </c>
       <c r="L11" s="9" t="str">
         <f ca="1"/>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="M11" s="19">
         <f ca="1"/>
-        <v>2.2696267902482328</v>
+        <v>2.4862508391537981</v>
       </c>
       <c r="N11" s="9" t="str">
         <f ca="1"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="Q11" s="45">
         <f ca="1"/>
-        <v>2.2696267902482328E-4</v>
+        <v>2.4862508391537978E-4</v>
       </c>
       <c r="R11" s="19" t="str">
         <f ca="1"/>
@@ -4226,20 +4226,20 @@
       </c>
       <c r="Y11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-290.92386550728753</v>
+        <v>-31.531732433724702</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44547</v>
+        <v>44610</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B12, A12,E12, F12)</f>
-        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-18/02/2022</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
@@ -4256,7 +4256,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-18/02/2022</v>
       </c>
       <c r="J12" s="9" t="str">
         <f ca="1"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="K12" s="49">
         <f ca="1"/>
-        <v>7.6744368969768967E-2</v>
+        <v>5.3677644119928036E-2</v>
       </c>
       <c r="L12" s="9" t="str">
         <f ca="1"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="M12" s="19">
         <f ca="1"/>
-        <v>2.2270161159150064</v>
+        <v>2.4534207051561365</v>
       </c>
       <c r="N12" s="9" t="str">
         <f ca="1"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="Q12" s="45">
         <f ca="1"/>
-        <v>2.2270161159150062E-4</v>
+        <v>2.4534207051561365E-4</v>
       </c>
       <c r="R12" s="19" t="str">
         <f ca="1"/>
@@ -4320,20 +4320,20 @@
       </c>
       <c r="Y12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-267.44368969768965</v>
+        <v>-36.776441199280335</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44637</v>
+        <v>44700</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B13, A13,E13, F13)</f>
-        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-19/05/2022</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
@@ -4350,7 +4350,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-19/05/2022</v>
       </c>
       <c r="J13" s="9" t="str">
         <f ca="1"/>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="K13" s="49">
         <f ca="1"/>
-        <v>7.3932106776627135E-2</v>
+        <v>5.4196134801534818E-2</v>
       </c>
       <c r="L13" s="9" t="str">
         <f ca="1"/>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="M13" s="19">
         <f ca="1"/>
-        <v>2.1880212542810202</v>
+        <v>2.4217761951112431</v>
       </c>
       <c r="N13" s="9" t="str">
         <f ca="1"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="Q13" s="45">
         <f ca="1"/>
-        <v>2.1880212542810202E-4</v>
+        <v>2.4217761951112428E-4</v>
       </c>
       <c r="R13" s="19" t="str">
         <f ca="1"/>
@@ -4414,20 +4414,20 @@
       </c>
       <c r="Y13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-239.32106776627131</v>
+        <v>-41.96134801534815</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44727</v>
+        <v>44790</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B14, A14,E14, F14)</f>
-        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-17/08/2022</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
@@ -4444,7 +4444,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-17/08/2022</v>
       </c>
       <c r="J14" s="9" t="str">
         <f ca="1"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K14" s="49">
         <f ca="1"/>
-        <v>7.0504573181118038E-2</v>
+        <v>5.4738109613946845E-2</v>
       </c>
       <c r="L14" s="9" t="str">
         <f ca="1"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="M14" s="19">
         <f ca="1"/>
-        <v>2.1506978022142178</v>
+        <v>2.3895196958799572</v>
       </c>
       <c r="N14" s="9" t="str">
         <f ca="1"/>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="Q14" s="45">
         <f ca="1"/>
-        <v>2.1506978022142176E-4</v>
+        <v>2.3895196958799572E-4</v>
       </c>
       <c r="R14" s="19" t="str">
         <f ca="1"/>
@@ -4508,20 +4508,20 @@
       </c>
       <c r="Y14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-205.04573181118036</v>
+        <v>-47.381096139468418</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44817</v>
+        <v>44880</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B15, A15,E15, F15)</f>
-        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-15/11/2022</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
@@ -4538,7 +4538,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-15/11/2022</v>
       </c>
       <c r="J15" s="9" t="str">
         <f ca="1"/>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="K15" s="49">
         <f ca="1"/>
-        <v>6.9030663083448754E-2</v>
+        <v>5.5005016569768722E-2</v>
       </c>
       <c r="L15" s="9" t="str">
         <f ca="1"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M15" s="19">
         <f ca="1"/>
-        <v>2.1164470369689936</v>
+        <v>2.3595148875989458</v>
       </c>
       <c r="N15" s="9" t="str">
         <f ca="1"/>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="Q15" s="45">
         <f ca="1"/>
-        <v>2.1164470369689937E-4</v>
+        <v>2.3595148875989459E-4</v>
       </c>
       <c r="R15" s="19" t="str">
         <f ca="1"/>
@@ -4602,20 +4602,20 @@
       </c>
       <c r="Y15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-190.30663083448752</v>
+        <v>-50.050165697687191</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44907</v>
+        <v>44970</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B16, A16,E16, F16)</f>
-        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-13/02/2023</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="0"/>
@@ -4632,7 +4632,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-13/02/2023</v>
       </c>
       <c r="J16" s="9" t="str">
         <f ca="1"/>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="K16" s="49">
         <f ca="1"/>
-        <v>6.80818531916286E-2</v>
+        <v>5.5176856357096973E-2</v>
       </c>
       <c r="L16" s="9" t="str">
         <f ca="1"/>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="M16" s="19">
         <f ca="1"/>
-        <v>2.0832197704830611</v>
+        <v>2.3297905711290769</v>
       </c>
       <c r="N16" s="9" t="str">
         <f ca="1"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="Q16" s="45">
         <f ca="1"/>
-        <v>2.0832197704830611E-4</v>
+        <v>2.3297905711290771E-4</v>
       </c>
       <c r="R16" s="19" t="str">
         <f ca="1"/>
@@ -4696,20 +4696,20 @@
       </c>
       <c r="Y16" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-180.81853191628596</v>
+        <v>-51.768563570969704</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44997</v>
+        <v>45060</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B17, A17,E17, F17)</f>
-        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-14/05/2023</v>
       </c>
       <c r="D17" s="27">
         <f t="shared" si="0"/>
@@ -4726,7 +4726,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-14/05/2023</v>
       </c>
       <c r="J17" s="9" t="str">
         <f ca="1"/>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="K17" s="49">
         <f ca="1"/>
-        <v>6.7105873151555598E-2</v>
+        <v>5.530313260245092E-2</v>
       </c>
       <c r="L17" s="9" t="str">
         <f ca="1"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="M17" s="19">
         <f ca="1"/>
-        <v>2.0459484129535883</v>
+        <v>2.294617893834265</v>
       </c>
       <c r="N17" s="9" t="str">
         <f ca="1"/>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="Q17" s="45">
         <f ca="1"/>
-        <v>2.0459484129535884E-4</v>
+        <v>2.2946178938342652E-4</v>
       </c>
       <c r="R17" s="19" t="str">
         <f ca="1"/>
@@ -4790,20 +4790,20 @@
       </c>
       <c r="Y17" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-171.05873151555596</v>
+        <v>-53.031326024509177</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45087</v>
+        <v>45150</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B18, A18,E18, F18)</f>
-        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-12/08/2023</v>
       </c>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
@@ -4820,7 +4820,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-12/08/2023</v>
       </c>
       <c r="J18" s="9" t="str">
         <f ca="1"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K18" s="49">
         <f ca="1"/>
-        <v>6.6032336821097354E-2</v>
+        <v>5.5389039084212568E-2</v>
       </c>
       <c r="L18" s="9" t="str">
         <f ca="1"/>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="M18" s="19">
         <f ca="1"/>
-        <v>2.0157656467446823</v>
+        <v>2.2633673761991799</v>
       </c>
       <c r="N18" s="9" t="str">
         <f ca="1"/>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="Q18" s="45">
         <f ca="1"/>
-        <v>2.0157656467446823E-4</v>
+        <v>2.2633673761991797E-4</v>
       </c>
       <c r="R18" s="19" t="str">
         <f ca="1"/>
@@ -4884,20 +4884,20 @@
       </c>
       <c r="Y18" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-160.32336821097351</v>
+        <v>-53.890390842125655</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45177</v>
+        <v>45240</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B19, A19,E19, F19)</f>
-        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-10/11/2023</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
@@ -4914,7 +4914,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-10/11/2023</v>
       </c>
       <c r="J19" s="9" t="str">
         <f ca="1"/>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="K19" s="49">
         <f ca="1"/>
-        <v>6.5160347748091554E-2</v>
+        <v>5.5511858551777427E-2</v>
       </c>
       <c r="L19" s="9" t="str">
         <f ca="1"/>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="M19" s="19">
         <f ca="1"/>
-        <v>1.9806391734901685</v>
+        <v>2.2324756599716102</v>
       </c>
       <c r="N19" s="9" t="str">
         <f ca="1"/>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="Q19" s="45">
         <f ca="1"/>
-        <v>1.9806391734901685E-4</v>
+        <v>2.2324756599716104E-4</v>
       </c>
       <c r="R19" s="19" t="str">
         <f ca="1"/>
@@ -4978,20 +4978,20 @@
       </c>
       <c r="Y19" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-151.60347748091553</v>
+        <v>-55.118585517774235</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45267</v>
+        <v>45330</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B20, A20,E20, F20)</f>
-        <v>AUD-IRSwap-3Y-0.05-7/12/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-8/02/2024</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" si="0"/>
@@ -5008,7 +5008,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-7/12/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-8/02/2024</v>
       </c>
       <c r="J20" s="9" t="str">
         <f ca="1"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="K20" s="49">
         <f ca="1"/>
-        <v>6.4309208090530895E-2</v>
+        <v>5.5620459316443882E-2</v>
       </c>
       <c r="L20" s="9" t="str">
         <f ca="1"/>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="M20" s="19">
         <f ca="1"/>
-        <v>1.950400783046208</v>
+        <v>2.2029400076257035</v>
       </c>
       <c r="N20" s="9" t="str">
         <f ca="1"/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="Q20" s="45">
         <f ca="1"/>
-        <v>1.9504007830462079E-4</v>
+        <v>2.2029400076257035E-4</v>
       </c>
       <c r="R20" s="19" t="str">
         <f ca="1"/>
@@ -5072,20 +5072,20 @@
       </c>
       <c r="Y20" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-143.09208090530893</v>
+        <v>-56.204593164438791</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45357</v>
+        <v>45420</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B21, A21,E21, F21)</f>
-        <v>AUD-IRSwap-3Y-0.05-6/03/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-8/05/2024</v>
       </c>
       <c r="D21" s="27">
         <f t="shared" si="0"/>
@@ -5102,7 +5102,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-6/03/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-8/05/2024</v>
       </c>
       <c r="J21" s="9" t="str">
         <f ca="1"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K21" s="49">
         <f ca="1"/>
-        <v>6.3399365857070789E-2</v>
+        <v>5.5706345775572173E-2</v>
       </c>
       <c r="L21" s="9" t="str">
         <f ca="1"/>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="M21" s="19">
         <f ca="1"/>
-        <v>1.9203931257282967</v>
+        <v>2.1730908419114234</v>
       </c>
       <c r="N21" s="9" t="str">
         <f ca="1"/>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="Q21" s="45">
         <f ca="1"/>
-        <v>1.9203931257282968E-4</v>
+        <v>2.1730908419114237E-4</v>
       </c>
       <c r="R21" s="19" t="str">
         <f ca="1"/>
@@ -5166,20 +5166,20 @@
       </c>
       <c r="Y21" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-133.99365857070785</v>
+        <v>-57.063457755721707</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45447</v>
+        <v>45510</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B22, A22,E22, F22)</f>
-        <v>AUD-IRSwap-3Y-0.05-4/06/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-6/08/2024</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="0"/>
@@ -5196,7 +5196,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-4/06/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-6/08/2024</v>
       </c>
       <c r="J22" s="9" t="str">
         <f ca="1"/>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="K22" s="49">
         <f ca="1"/>
-        <v>6.2451413286450846E-2</v>
+        <v>5.5766854370389508E-2</v>
       </c>
       <c r="L22" s="9" t="str">
         <f ca="1"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="M22" s="19">
         <f ca="1"/>
-        <v>1.8928398309154899</v>
+        <v>2.1454017353688752</v>
       </c>
       <c r="N22" s="9" t="str">
         <f ca="1"/>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="Q22" s="45">
         <f ca="1"/>
-        <v>1.89283983091549E-4</v>
+        <v>2.1454017353688754E-4</v>
       </c>
       <c r="R22" s="19" t="str">
         <f ca="1"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="Y22" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.51413286450844</v>
+        <v>-57.668543703895054</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45537</v>
+        <v>45600</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B23, A23,E23, F23)</f>
-        <v>AUD-IRSwap-3Y-0.05-2/09/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-4/11/2024</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="0"/>
@@ -5290,7 +5290,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-2/09/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-4/11/2024</v>
       </c>
       <c r="J23" s="9" t="str">
         <f ca="1"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="K23" s="49">
         <f ca="1"/>
-        <v>6.2013802470589005E-2</v>
+        <v>5.5799769215929967E-2</v>
       </c>
       <c r="L23" s="9" t="str">
         <f ca="1"/>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M23" s="19">
         <f ca="1"/>
-        <v>1.8612713229500457</v>
+        <v>2.1127740953639029</v>
       </c>
       <c r="N23" s="9" t="str">
         <f ca="1"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="Q23" s="45">
         <f ca="1"/>
-        <v>1.8612713229500458E-4</v>
+        <v>2.1127740953639032E-4</v>
       </c>
       <c r="R23" s="19" t="str">
         <f ca="1"/>
@@ -5354,20 +5354,20 @@
       </c>
       <c r="Y23" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-120.13802470589002</v>
+        <v>-57.997692159299646</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45627</v>
+        <v>45690</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B24, A24,E24, F24)</f>
-        <v>AUD-IRSwap-3Y-0.05-1/12/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-2/02/2025</v>
       </c>
       <c r="D24" s="27">
         <f t="shared" si="0"/>
@@ -5384,7 +5384,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/12/2024</v>
+        <v>AUD-IRSwap-3Y-0.05-2/02/2025</v>
       </c>
       <c r="J24" s="9" t="str">
         <f ca="1"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="K24" s="49">
         <f ca="1"/>
-        <v>6.1872955380663876E-2</v>
+        <v>5.5808869311937667E-2</v>
       </c>
       <c r="L24" s="9" t="str">
         <f ca="1"/>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="M24" s="19">
         <f ca="1"/>
-        <v>1.8333039186720825</v>
+        <v>2.0840991487774638</v>
       </c>
       <c r="N24" s="9" t="str">
         <f ca="1"/>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="Q24" s="45">
         <f ca="1"/>
-        <v>1.8333039186720827E-4</v>
+        <v>2.0840991487774634E-4</v>
       </c>
       <c r="R24" s="19" t="str">
         <f ca="1"/>
@@ -5448,20 +5448,20 @@
       </c>
       <c r="Y24" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-118.72955380663873</v>
+        <v>-58.088693119376643</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45717</v>
+        <v>45780</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B25, A25,E25, F25)</f>
-        <v>AUD-IRSwap-3Y-0.05-1/03/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-3/05/2025</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="0"/>
@@ -5478,7 +5478,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-1/03/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-3/05/2025</v>
       </c>
       <c r="J25" s="9" t="str">
         <f ca="1"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="K25" s="49">
         <f ca="1"/>
-        <v>6.1780189490487053E-2</v>
+        <v>5.5793893318954298E-2</v>
       </c>
       <c r="L25" s="9" t="str">
         <f ca="1"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="M25" s="19">
         <f ca="1"/>
-        <v>1.8069818359805088</v>
+        <v>2.0572140554682705</v>
       </c>
       <c r="N25" s="9" t="str">
         <f ca="1"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="Q25" s="45">
         <f ca="1"/>
-        <v>1.8069818359805085E-4</v>
+        <v>2.0572140554682707E-4</v>
       </c>
       <c r="R25" s="19" t="str">
         <f ca="1"/>
@@ -5542,20 +5542,20 @@
       </c>
       <c r="Y25" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.80189490487051</v>
+        <v>-57.938933189542951</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45807</v>
+        <v>45870</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B26, A26,E26, F26)</f>
-        <v>AUD-IRSwap-3Y-0.05-30/05/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-1/08/2025</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="0"/>
@@ -5572,7 +5572,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-30/05/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-1/08/2025</v>
       </c>
       <c r="J26" s="9" t="str">
         <f ca="1"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="K26" s="49">
         <f ca="1"/>
-        <v>6.1736825765452918E-2</v>
+        <v>5.5753900515265686E-2</v>
       </c>
       <c r="L26" s="9" t="str">
         <f ca="1"/>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="M26" s="19">
         <f ca="1"/>
-        <v>1.7795924352369559</v>
+        <v>2.0337720959527319</v>
       </c>
       <c r="N26" s="9" t="str">
         <f ca="1"/>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="Q26" s="45">
         <f ca="1"/>
-        <v>1.7795924352369559E-4</v>
+        <v>2.0337720959527321E-4</v>
       </c>
       <c r="R26" s="19" t="str">
         <f ca="1"/>
@@ -5636,20 +5636,20 @@
       </c>
       <c r="Y26" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.36825765452916</v>
+        <v>-57.539005152656834</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45897</v>
+        <v>45960</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B27, A27,E27, F27)</f>
-        <v>AUD-IRSwap-3Y-0.05-28/08/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-30/10/2025</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="0"/>
@@ -5666,7 +5666,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/08/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-30/10/2025</v>
       </c>
       <c r="J27" s="9" t="str">
         <f ca="1"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="K27" s="29">
         <f ca="1"/>
-        <v>6.1785306087148148E-2</v>
+        <v>5.5724796755022704E-2</v>
       </c>
       <c r="L27" s="9" t="str">
         <f ca="1"/>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="M27" s="19">
         <f ca="1"/>
-        <v>1.7534725482453404</v>
+        <v>2.0021257855805623</v>
       </c>
       <c r="N27" s="9" t="str">
         <f ca="1"/>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="Q27" s="45">
         <f ca="1"/>
-        <v>1.7534725482453405E-4</v>
+        <v>2.0021257855805624E-4</v>
       </c>
       <c r="R27" s="19" t="str">
         <f ca="1"/>
@@ -5730,20 +5730,20 @@
       </c>
       <c r="Y27" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.85306087148145</v>
+        <v>-57.247967550227017</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45987</v>
+        <v>46050</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B28, A28,E28, F28)</f>
-        <v>AUD-IRSwap-3Y-0.05-26/11/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-28/01/2026</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="0"/>
@@ -5760,7 +5760,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-26/11/2025</v>
+        <v>AUD-IRSwap-3Y-0.05-28/01/2026</v>
       </c>
       <c r="J28" s="9" t="str">
         <f ca="1"/>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="K28" s="29">
         <f ca="1"/>
-        <v>6.1915224515438315E-2</v>
+        <v>5.5692906599415032E-2</v>
       </c>
       <c r="L28" s="9" t="str">
         <f ca="1"/>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M28" s="19">
         <f ca="1"/>
-        <v>1.7271090615092797</v>
+        <v>1.9750059365825112</v>
       </c>
       <c r="N28" s="9" t="str">
         <f ca="1"/>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="Q28" s="45">
         <f ca="1"/>
-        <v>1.7271090615092799E-4</v>
+        <v>1.9750059365825111E-4</v>
       </c>
       <c r="R28" s="19" t="str">
         <f ca="1"/>
@@ -5824,20 +5824,20 @@
       </c>
       <c r="Y28" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-119.15224515438312</v>
+        <v>-56.929065994150292</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46077</v>
+        <v>46140</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B29, A29,E29, F29)</f>
-        <v>AUD-IRSwap-3Y-0.05-24/02/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-28/04/2026</v>
       </c>
       <c r="D29" s="27">
         <f t="shared" si="0"/>
@@ -5854,7 +5854,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-24/02/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-28/04/2026</v>
       </c>
       <c r="J29" s="9" t="str">
         <f ca="1"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="K29" s="29">
         <f ca="1"/>
-        <v>6.2101088515102404E-2</v>
+        <v>5.5641559937630647E-2</v>
       </c>
       <c r="L29" s="9" t="str">
         <f ca="1"/>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="M29" s="19">
         <f ca="1"/>
-        <v>1.7024659181751809</v>
+        <v>1.9498992790428227</v>
       </c>
       <c r="N29" s="9" t="str">
         <f ca="1"/>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="Q29" s="45">
         <f ca="1"/>
-        <v>1.7024659181751812E-4</v>
+        <v>1.9498992790428229E-4</v>
       </c>
       <c r="R29" s="19" t="str">
         <f ca="1"/>
@@ -5918,20 +5918,20 @@
       </c>
       <c r="Y29" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-121.01088515102401</v>
+        <v>-56.415599376306439</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46167</v>
+        <v>46230</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B30, A30,E30, F30)</f>
-        <v>AUD-IRSwap-3Y-0.05-25/05/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-27/07/2026</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="0"/>
@@ -5948,7 +5948,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/05/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-27/07/2026</v>
       </c>
       <c r="J30" s="9" t="str">
         <f ca="1"/>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="K30" s="29">
         <f ca="1"/>
-        <v>6.2343479895170625E-2</v>
+        <v>5.5570263862009195E-2</v>
       </c>
       <c r="L30" s="9" t="str">
         <f ca="1"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="M30" s="19">
         <f ca="1"/>
-        <v>1.6780688837323152</v>
+        <v>1.9251480456243422</v>
       </c>
       <c r="N30" s="9" t="str">
         <f ca="1"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="Q30" s="45">
         <f ca="1"/>
-        <v>1.678068883732315E-4</v>
+        <v>1.9251480456243422E-4</v>
       </c>
       <c r="R30" s="19" t="str">
         <f ca="1"/>
@@ -6012,20 +6012,20 @@
       </c>
       <c r="Y30" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-123.43479895170623</v>
+        <v>-55.702638620091918</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46257</v>
+        <v>46320</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B31, A31,E31, F31)</f>
-        <v>AUD-IRSwap-3Y-0.05-23/08/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-25/10/2026</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="0"/>
@@ -6042,7 +6042,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/08/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-25/10/2026</v>
       </c>
       <c r="J31" s="9" t="str">
         <f ca="1"/>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="K31" s="29">
         <f ca="1"/>
-        <v>6.2437617589464915E-2</v>
+        <v>5.5537957630499672E-2</v>
       </c>
       <c r="L31" s="9" t="str">
         <f ca="1"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="M31" s="19">
         <f ca="1"/>
-        <v>1.6499098857301202</v>
+        <v>1.8959820807493861</v>
       </c>
       <c r="N31" s="9" t="str">
         <f ca="1"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="Q31" s="45">
         <f ca="1"/>
-        <v>1.6499098857301203E-4</v>
+        <v>1.895982080749386E-4</v>
       </c>
       <c r="R31" s="19" t="str">
         <f ca="1"/>
@@ -6106,20 +6106,20 @@
       </c>
       <c r="Y31" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.37617589464912</v>
+        <v>-55.379576304996696</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46347</v>
+        <v>46410</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B32, A32,E32, F32)</f>
-        <v>AUD-IRSwap-3Y-0.05-21/11/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-23/01/2027</v>
       </c>
       <c r="D32" s="27">
         <f t="shared" si="0"/>
@@ -6136,7 +6136,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-21/11/2026</v>
+        <v>AUD-IRSwap-3Y-0.05-23/01/2027</v>
       </c>
       <c r="J32" s="9" t="str">
         <f ca="1"/>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="K32" s="29">
         <f ca="1"/>
-        <v>6.2406621734651016E-2</v>
+        <v>5.5535774973104725E-2</v>
       </c>
       <c r="L32" s="9" t="str">
         <f ca="1"/>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="M32" s="19">
         <f ca="1"/>
-        <v>1.6246375025068962</v>
+        <v>1.8700954097027678</v>
       </c>
       <c r="N32" s="9" t="str">
         <f ca="1"/>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="Q32" s="45">
         <f ca="1"/>
-        <v>1.6246375025068962E-4</v>
+        <v>1.8700954097027679E-4</v>
       </c>
       <c r="R32" s="19" t="str">
         <f ca="1"/>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="Y32" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.06621734651013</v>
+        <v>-55.357749731047221</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -6359,11 +6359,11 @@
       </c>
       <c r="C36" s="6" t="str">
         <f t="array" aca="1" ref="C36:D45" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuotes('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!C10:C26)</f>
-        <v>AUD-IRSwap-3Y-0.05-20/06/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-22/08/2021</v>
       </c>
       <c r="D36" s="84">
         <f ca="1"/>
-        <v>7.4335026625046582E-2</v>
+        <v>4.8104344512396986E-2</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="array" ref="G36:G44">_xll.HLV5r3.Financial.Cache.SupportedRateMetrics()</f>
@@ -6377,11 +6377,11 @@
       </c>
       <c r="C37" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-18/09/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-20/11/2021</v>
       </c>
       <c r="D37" s="84">
         <f ca="1"/>
-        <v>7.436714203517604E-2</v>
+        <v>4.8111102373148903E-2</v>
       </c>
       <c r="G37" s="6" t="str">
         <v>NPV</v>
@@ -6410,11 +6410,11 @@
       </c>
       <c r="C38" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-17/12/2021</v>
+        <v>AUD-IRSwap-3Y-0.05-18/02/2022</v>
       </c>
       <c r="D38" s="84">
         <f ca="1"/>
-        <v>7.4399432464030385E-2</v>
+        <v>4.8117815875347622E-2</v>
       </c>
       <c r="G38" s="6" t="str">
         <v>AccrualFactor</v>
@@ -6441,18 +6441,18 @@
       </c>
       <c r="C39" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-17/03/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-19/05/2022</v>
       </c>
       <c r="D39" s="84">
         <f ca="1"/>
-        <v>7.4335274400096532E-2</v>
+        <v>4.8104337866520401E-2</v>
       </c>
       <c r="G39" s="6" t="str">
         <v>ImpliedQuote</v>
       </c>
       <c r="I39" s="50" t="str">
         <f t="array" aca="1" ref="I39:W70" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(G2:G7,'GetInfo &amp; GetInstrumentInfo'!$D$9,C3:C32,$A$2)</f>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J39" s="14" t="str">
         <f ca="1"/>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="K39" s="28">
         <f ca="1"/>
-        <v>7.4629901229968487E-2</v>
+        <v>4.854796185397766E-2</v>
       </c>
       <c r="L39" s="14" t="e">
         <f ca="1"/>
@@ -6517,18 +6517,18 @@
       </c>
       <c r="C40" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-15/06/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-17/08/2022</v>
       </c>
       <c r="D40" s="84">
         <f ca="1"/>
-        <v>7.4334894968071663E-2</v>
+        <v>4.8104416852410535E-2</v>
       </c>
       <c r="G40" s="6" t="str">
         <v>ConvexityAdjustment</v>
       </c>
       <c r="I40" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J40" s="9" t="str">
         <f ca="1"/>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="K40" s="29">
         <f ca="1"/>
-        <v>2.6406177227896381</v>
+        <v>2.7492584186692977</v>
       </c>
       <c r="L40" s="9" t="e">
         <f ca="1"/>
@@ -6593,18 +6593,18 @@
       </c>
       <c r="C41" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-13/09/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-15/11/2022</v>
       </c>
       <c r="D41" s="84">
         <f ca="1"/>
-        <v>7.4359947091565778E-2</v>
+        <v>4.8108736874178569E-2</v>
       </c>
       <c r="G41" s="6" t="str">
         <v>DeltaR</v>
       </c>
       <c r="I41" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J41" s="9" t="str">
         <f ca="1"/>
@@ -6669,18 +6669,18 @@
       </c>
       <c r="C42" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/12/2022</v>
+        <v>AUD-IRSwap-3Y-0.05-13/02/2023</v>
       </c>
       <c r="D42" s="84">
         <f ca="1"/>
-        <v>7.4385037012894534E-2</v>
+        <v>4.8112987113816071E-2</v>
       </c>
       <c r="G42" s="6" t="str">
         <v>MarketQuote</v>
       </c>
       <c r="I42" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J42" s="9" t="str">
         <f ca="1"/>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="K42" s="29">
         <f ca="1"/>
-        <v>2.6406177227896382E-4</v>
+        <v>2.7492584186692977E-4</v>
       </c>
       <c r="L42" s="9" t="e">
         <f ca="1"/>
@@ -6745,18 +6745,18 @@
       </c>
       <c r="C43" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-12/03/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-14/05/2023</v>
       </c>
       <c r="D43" s="84">
         <f ca="1"/>
-        <v>7.4334972961416862E-2</v>
+        <v>4.810447011496586E-2</v>
       </c>
       <c r="G43" s="6" t="str">
         <v>NPVChange</v>
       </c>
       <c r="I43" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J43" s="9" t="str">
         <f ca="1"/>
@@ -6821,18 +6821,18 @@
       </c>
       <c r="C44" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-10/06/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-12/08/2023</v>
       </c>
       <c r="D44" s="84">
         <f ca="1"/>
-        <v>7.4397822719886611E-2</v>
+        <v>4.8111183292857108E-2</v>
       </c>
       <c r="G44" s="6" t="e">
         <v>#N/A</v>
       </c>
       <c r="I44" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J44" s="9" t="str">
         <f ca="1"/>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="K44" s="29">
         <f ca="1"/>
-        <v>-6.5038153698413093E-2</v>
+        <v>3.9920280971808813E-3</v>
       </c>
       <c r="L44" s="9" t="e">
         <f ca="1"/>
@@ -6897,15 +6897,15 @@
       </c>
       <c r="C45" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-8/09/2023</v>
+        <v>AUD-IRSwap-3Y-0.05-10/11/2023</v>
       </c>
       <c r="D45" s="84">
         <f ca="1"/>
-        <v>7.4399459900428816E-2</v>
+        <v>4.8117838628174814E-2</v>
       </c>
       <c r="I45" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J45" s="9" t="str">
         <f ca="1"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="K45" s="29">
         <f ca="1"/>
-        <v>7.5263531118901772E-2</v>
+        <v>4.9146484750953283E-2</v>
       </c>
       <c r="L45" s="9" t="e">
         <f ca="1"/>
@@ -6971,7 +6971,7 @@
       <c r="D46" s="84"/>
       <c r="I46" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J46" s="9" t="str">
         <f ca="1"/>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="K46" s="29">
         <f ca="1"/>
-        <v>2.5919809309848469</v>
+        <v>2.7136964628382114</v>
       </c>
       <c r="L46" s="9" t="e">
         <f ca="1"/>
@@ -7036,11 +7036,11 @@
       </c>
       <c r="D47" s="84">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuote('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!C2)</f>
-        <v>7.4385377875522213E-2</v>
+        <v>4.811300978824095E-2</v>
       </c>
       <c r="I47" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J47" s="9" t="str">
         <f ca="1"/>
@@ -7105,11 +7105,11 @@
       </c>
       <c r="D48" s="84">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetAssetImpliedQuote( 'GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Rate Assets'!B2, 'Priceable Rate Assets'!D2, 'Priceable Rate Assets'!F2, 'Priceable Rate Assets'!A2)</f>
-        <v>7.4385377875522213E-2</v>
+        <v>4.811300978824095E-2</v>
       </c>
       <c r="I48" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J48" s="9" t="str">
         <f ca="1"/>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="K48" s="29">
         <f ca="1"/>
-        <v>2.5919809309848469E-4</v>
+        <v>2.7136964628382115E-4</v>
       </c>
       <c r="L48" s="9" t="e">
         <f ca="1"/>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="I49" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J49" s="9" t="str">
         <f ca="1"/>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="I50" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-IRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J50" s="9" t="str">
         <f ca="1"/>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="K50" s="29">
         <f ca="1"/>
-        <v>-6.5482590909535662E-2</v>
+        <v>2.3161813123165663E-3</v>
       </c>
       <c r="L50" s="9" t="e">
         <f ca="1"/>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="I51" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J51" s="9" t="str">
         <f ca="1"/>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="K51" s="29">
         <f ca="1"/>
-        <v>7.5874092663343135E-2</v>
+        <v>4.9786158458676316E-2</v>
       </c>
       <c r="L51" s="9" t="e">
         <f ca="1"/>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I52" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J52" s="9" t="str">
         <f ca="1"/>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="K52" s="29">
         <f ca="1"/>
-        <v>2.5418202792644817</v>
+        <v>2.6804246440408335</v>
       </c>
       <c r="L52" s="9" t="e">
         <f ca="1"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="I53" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J53" s="9" t="str">
         <f ca="1"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="I54" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J54" s="9" t="str">
         <f ca="1"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="K54" s="29">
         <f ca="1"/>
-        <v>2.5418202792644814E-4</v>
+        <v>2.6804246440408335E-4</v>
       </c>
       <c r="L54" s="9" t="e">
         <f ca="1"/>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I55" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J55" s="9" t="str">
         <f ca="1"/>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="I56" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J56" s="9" t="str">
         <f ca="1"/>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="K56" s="29">
         <f ca="1"/>
-        <v>-6.5767293439253929E-2</v>
+        <v>5.7318613728367938E-4</v>
       </c>
       <c r="L56" s="9" t="e">
         <f ca="1"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="I57" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J57" s="9" t="str">
         <f ca="1"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="K57" s="29">
         <f ca="1"/>
-        <v>7.6271379922207311E-2</v>
+        <v>5.0459026976231586E-2</v>
       </c>
       <c r="L57" s="9" t="e">
         <f ca="1"/>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="I58" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J58" s="9" t="str">
         <f ca="1"/>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="K58" s="29">
         <f ca="1"/>
-        <v>2.4959608664967061</v>
+        <v>2.6482006543150449</v>
       </c>
       <c r="L58" s="9" t="e">
         <f ca="1"/>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="I59" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J59" s="9" t="str">
         <f ca="1"/>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I60" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J60" s="9" t="str">
         <f ca="1"/>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="K60" s="29">
         <f ca="1"/>
-        <v>2.4959608664967061E-4</v>
+        <v>2.6482006543150448E-4</v>
       </c>
       <c r="L60" s="9" t="e">
         <f ca="1"/>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="I61" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J61" s="9" t="str">
         <f ca="1"/>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="I62" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J62" s="9" t="str">
         <f ca="1"/>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="K62" s="29">
         <f ca="1"/>
-        <v>-6.5572336194696698E-2</v>
+        <v>-1.2155955388047503E-3</v>
       </c>
       <c r="L62" s="9" t="e">
         <f ca="1"/>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="I63" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J63" s="9" t="str">
         <f ca="1"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="K63" s="29">
         <f ca="1"/>
-        <v>7.6787994261508508E-2</v>
+        <v>5.1003122680912817E-2</v>
       </c>
       <c r="L63" s="9" t="e">
         <f ca="1"/>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="I64" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J64" s="9" t="str">
         <f ca="1"/>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="K64" s="29">
         <f ca="1"/>
-        <v>2.4515898936126841</v>
+        <v>2.6174935710797289</v>
       </c>
       <c r="L64" s="9" t="e">
         <f ca="1"/>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="I65" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J65" s="9" t="str">
         <f ca="1"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="I66" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J66" s="9" t="str">
         <f ca="1"/>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="K66" s="29">
         <f ca="1"/>
-        <v>2.4515898936126841E-4</v>
+        <v>2.6174935710797289E-4</v>
       </c>
       <c r="L66" s="9" t="e">
         <f ca="1"/>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="I67" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J67" s="9" t="str">
         <f ca="1"/>
@@ -8410,7 +8410,7 @@
       <c r="D68" s="47"/>
       <c r="I68" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J68" s="9" t="str">
         <f ca="1"/>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="K68" s="29">
         <f ca="1"/>
-        <v>-6.5673176001668804E-2</v>
+        <v>-2.6256671682935574E-3</v>
       </c>
       <c r="L68" s="9" t="e">
         <f ca="1"/>
@@ -8476,7 +8476,7 @@
       <c r="D69" s="47"/>
       <c r="I69" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-23/02/2021</v>
       </c>
       <c r="J69" s="9" t="str">
         <f ca="1"/>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="K69" s="29">
         <f ca="1"/>
-        <v>7.7615749020259486E-2</v>
+        <v>5.1540982898413377E-2</v>
       </c>
       <c r="L69" s="9" t="e">
         <f ca="1"/>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="I70" s="23" t="str">
         <f ca="1"/>
-        <v>AUD-IRSwap-3Y-0.05-22/12/2020</v>
+        <v>AUD-IRSwap-3Y-0.05-23/02/2021</v>
       </c>
       <c r="J70" s="24" t="str">
         <f ca="1"/>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="K70" s="30">
         <f ca="1"/>
-        <v>2.4113694402775385</v>
+        <v>2.5868170057047029</v>
       </c>
       <c r="L70" s="24" t="e">
         <f ca="1"/>
@@ -8714,7 +8714,7 @@
   <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -8786,14 +8786,14 @@
     <row r="2" spans="1:25" ht="12" thickBot="1">
       <c r="A2" s="54">
         <f ca="1">BaseDate</f>
-        <v>43647</v>
+        <v>43710</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B2, A2,E2, F2)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-1/07/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-2/09/2019</v>
       </c>
       <c r="D2" s="27">
         <f>E2+F2</f>
@@ -8835,14 +8835,14 @@
     <row r="3" spans="1:25">
       <c r="A3" s="54">
         <f ca="1">A2+90</f>
-        <v>43737</v>
+        <v>43800</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B3, A3,E3, F3)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="D3" s="27">
         <f t="shared" ref="D3:D32" si="0">E3+F3</f>
@@ -8861,7 +8861,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="13" t="str">
         <f t="array" aca="1" ref="I3:W34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($G$2:$G$7,'GetInfo &amp; GetInstrumentInfo'!$D$9, C3:C32, $A$2)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J3" s="14" t="str">
         <f ca="1"/>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="K3" s="48">
         <f ca="1"/>
-        <v>7.4629901229968487E-2</v>
+        <v>4.854796185397766E-2</v>
       </c>
       <c r="L3" s="14" t="str">
         <f ca="1"/>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="M3" s="15">
         <f ca="1"/>
-        <v>2.6406177227896381</v>
+        <v>2.7492584186692977</v>
       </c>
       <c r="N3" s="14" t="str">
         <f ca="1"/>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="Q3" s="44">
         <f ca="1"/>
-        <v>2.6406177227896382E-4</v>
+        <v>2.7492584186692977E-4</v>
       </c>
       <c r="R3" s="15" t="str">
         <f ca="1"/>
@@ -8925,20 +8925,20 @@
       </c>
       <c r="Y3" s="37">
         <f ca="1">(S3-K3)*10000</f>
-        <v>-246.29901229968485</v>
+        <v>14.520381460223428</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="54">
         <f t="shared" ref="A4:A32" ca="1" si="2">A3+90</f>
-        <v>43827</v>
+        <v>43890</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B4, A4,E4, F4)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="D4" s="27">
         <f t="shared" si="0"/>
@@ -8957,7 +8957,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J4" s="9" t="str">
         <f ca="1"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="K4" s="49">
         <f ca="1"/>
-        <v>7.5263531118901772E-2</v>
+        <v>4.9146484750953283E-2</v>
       </c>
       <c r="L4" s="9" t="str">
         <f ca="1"/>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="M4" s="19">
         <f ca="1"/>
-        <v>2.5919809309848469</v>
+        <v>2.7136964628382114</v>
       </c>
       <c r="N4" s="9" t="str">
         <f ca="1"/>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="Q4" s="45">
         <f ca="1"/>
-        <v>2.5919809309848469E-4</v>
+        <v>2.7136964628382115E-4</v>
       </c>
       <c r="R4" s="19" t="str">
         <f ca="1"/>
@@ -9021,20 +9021,20 @@
       </c>
       <c r="Y4" s="36">
         <f t="shared" ref="Y4:Y33" ca="1" si="3">(S4-K4)*10000</f>
-        <v>-252.6353111890177</v>
+        <v>8.5351524904671994</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43917</v>
+        <v>43980</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B5, A5,E5, F5)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="D5" s="27">
         <f t="shared" si="0"/>
@@ -9053,7 +9053,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J5" s="9" t="str">
         <f ca="1"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="K5" s="49">
         <f ca="1"/>
-        <v>7.5874092663343135E-2</v>
+        <v>4.9786158458676316E-2</v>
       </c>
       <c r="L5" s="9" t="str">
         <f ca="1"/>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="M5" s="19">
         <f ca="1"/>
-        <v>2.5418202792644817</v>
+        <v>2.6804246440408335</v>
       </c>
       <c r="N5" s="9" t="str">
         <f ca="1"/>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="Q5" s="45">
         <f ca="1"/>
-        <v>2.5418202792644814E-4</v>
+        <v>2.6804246440408335E-4</v>
       </c>
       <c r="R5" s="19" t="str">
         <f ca="1"/>
@@ -9117,20 +9117,20 @@
       </c>
       <c r="Y5" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-258.74092663343134</v>
+        <v>2.1384154132368662</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44007</v>
+        <v>44070</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B6, A6,E6, F6)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="0"/>
@@ -9149,7 +9149,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J6" s="9" t="str">
         <f ca="1"/>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1"/>
-        <v>7.6271379922207311E-2</v>
+        <v>5.0459026976231586E-2</v>
       </c>
       <c r="L6" s="9" t="str">
         <f ca="1"/>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="M6" s="19">
         <f ca="1"/>
-        <v>2.4959608664967061</v>
+        <v>2.6482006543150449</v>
       </c>
       <c r="N6" s="9" t="str">
         <f ca="1"/>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="Q6" s="45">
         <f ca="1"/>
-        <v>2.4959608664967061E-4</v>
+        <v>2.6482006543150448E-4</v>
       </c>
       <c r="R6" s="19" t="str">
         <f ca="1"/>
@@ -9213,20 +9213,20 @@
       </c>
       <c r="Y6" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-262.71379922207308</v>
+        <v>-4.5902697623158293</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44097</v>
+        <v>44160</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B7, A7,E7, F7)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="D7" s="27">
         <f t="shared" si="0"/>
@@ -9245,7 +9245,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J7" s="9" t="str">
         <f ca="1"/>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="K7" s="49">
         <f ca="1"/>
-        <v>7.6787994261508508E-2</v>
+        <v>5.1003122680912817E-2</v>
       </c>
       <c r="L7" s="9" t="str">
         <f ca="1"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="M7" s="19">
         <f ca="1"/>
-        <v>2.4515898936126841</v>
+        <v>2.6174935710797289</v>
       </c>
       <c r="N7" s="9" t="str">
         <f ca="1"/>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="Q7" s="45">
         <f ca="1"/>
-        <v>2.4515898936126841E-4</v>
+        <v>2.6174935710797289E-4</v>
       </c>
       <c r="R7" s="19" t="str">
         <f ca="1"/>
@@ -9309,20 +9309,20 @@
       </c>
       <c r="Y7" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-267.87994261508504</v>
+        <v>-10.031226809128144</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44187</v>
+        <v>44250</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B8, A8,E8, F8)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-23/02/2021</v>
       </c>
       <c r="D8" s="27">
         <f t="shared" si="0"/>
@@ -9339,7 +9339,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-23/02/2021</v>
       </c>
       <c r="J8" s="9" t="str">
         <f ca="1"/>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="K8" s="49">
         <f ca="1"/>
-        <v>7.3968096422983354E-2</v>
+        <v>5.3334280652905838E-2</v>
       </c>
       <c r="L8" s="9" t="str">
         <f ca="1"/>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="M8" s="19">
         <f ca="1"/>
-        <v>3.7059305712703634</v>
+        <v>4.0617240274393067</v>
       </c>
       <c r="N8" s="9" t="str">
         <f ca="1"/>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="Q8" s="45">
         <f ca="1"/>
-        <v>3.7059305712703634E-4</v>
+        <v>4.0617240274393065E-4</v>
       </c>
       <c r="R8" s="19" t="str">
         <f ca="1"/>
@@ -9403,20 +9403,20 @@
       </c>
       <c r="Y8" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-239.68096422983351</v>
+        <v>-33.342806529058358</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B9, A9,E9, F9)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/03/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-24/05/2021</v>
       </c>
       <c r="D9" s="27">
         <f t="shared" si="0"/>
@@ -9433,7 +9433,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/03/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-24/05/2021</v>
       </c>
       <c r="J9" s="9" t="str">
         <f ca="1"/>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="K9" s="49">
         <f ca="1"/>
-        <v>7.3917224735432913E-2</v>
+        <v>5.374666339961217E-2</v>
       </c>
       <c r="L9" s="9" t="str">
         <f ca="1"/>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="M9" s="19">
         <f ca="1"/>
-        <v>3.6408712262720457</v>
+        <v>4.0087602443666626</v>
       </c>
       <c r="N9" s="9" t="str">
         <f ca="1"/>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="Q9" s="45">
         <f ca="1"/>
-        <v>3.6408712262720459E-4</v>
+        <v>4.0087602443666622E-4</v>
       </c>
       <c r="R9" s="19" t="str">
         <f ca="1"/>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="Y9" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-239.1722473543291</v>
+        <v>-37.466633996121672</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44367</v>
+        <v>44430</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B10, A10,E10, F10)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/08/2021</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="0"/>
@@ -9527,7 +9527,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/08/2021</v>
       </c>
       <c r="J10" s="9" t="str">
         <f ca="1"/>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="K10" s="49">
         <f ca="1"/>
-        <v>7.3917927743234246E-2</v>
+        <v>5.416717816427357E-2</v>
       </c>
       <c r="L10" s="9" t="str">
         <f ca="1"/>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="M10" s="19">
         <f ca="1"/>
-        <v>3.5772929829481743</v>
+        <v>3.9579117754927293</v>
       </c>
       <c r="N10" s="9" t="str">
         <f ca="1"/>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="Q10" s="45">
         <f ca="1"/>
-        <v>3.5772929829481744E-4</v>
+        <v>3.9579117754927296E-4</v>
       </c>
       <c r="R10" s="19" t="str">
         <f ca="1"/>
@@ -9591,20 +9591,20 @@
       </c>
       <c r="Y10" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-239.17927743234245</v>
+        <v>-41.671781642735674</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44457</v>
+        <v>44520</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B11, A11,E11, F11)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/11/2021</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="0"/>
@@ -9621,7 +9621,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/11/2021</v>
       </c>
       <c r="J11" s="9" t="str">
         <f ca="1"/>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="K11" s="49">
         <f ca="1"/>
-        <v>7.3346517935106395E-2</v>
+        <v>5.452844724295685E-2</v>
       </c>
       <c r="L11" s="9" t="str">
         <f ca="1"/>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="M11" s="19">
         <f ca="1"/>
-        <v>3.5147522679223702</v>
+        <v>3.9050615217007292</v>
       </c>
       <c r="N11" s="9" t="str">
         <f ca="1"/>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="Q11" s="45">
         <f ca="1"/>
-        <v>3.5147522679223703E-4</v>
+        <v>3.9050615217007292E-4</v>
       </c>
       <c r="R11" s="19" t="str">
         <f ca="1"/>
@@ -9685,20 +9685,20 @@
       </c>
       <c r="Y11" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-233.46517935106391</v>
+        <v>-45.284472429568467</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44547</v>
+        <v>44610</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B12, A12,E12, F12)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/02/2022</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
@@ -9715,7 +9715,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/02/2022</v>
       </c>
       <c r="J12" s="9" t="str">
         <f ca="1"/>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="K12" s="49">
         <f ca="1"/>
-        <v>7.181495393340738E-2</v>
+        <v>5.4881277081401371E-2</v>
       </c>
       <c r="L12" s="9" t="str">
         <f ca="1"/>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="M12" s="19">
         <f ca="1"/>
-        <v>3.4536714778430837</v>
+        <v>3.8525006891149083</v>
       </c>
       <c r="N12" s="9" t="str">
         <f ca="1"/>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="Q12" s="45">
         <f ca="1"/>
-        <v>3.4536714778430835E-4</v>
+        <v>3.8525006891149084E-4</v>
       </c>
       <c r="R12" s="19" t="str">
         <f ca="1"/>
@@ -9779,20 +9779,20 @@
       </c>
       <c r="Y12" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-218.14953933407378</v>
+        <v>-48.812770814013682</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44637</v>
+        <v>44700</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B13, A13,E13, F13)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-19/05/2022</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="0"/>
@@ -9809,7 +9809,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-19/05/2022</v>
       </c>
       <c r="J13" s="9" t="str">
         <f ca="1"/>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="K13" s="49">
         <f ca="1"/>
-        <v>6.9995319652005214E-2</v>
+        <v>5.5218725955172396E-2</v>
       </c>
       <c r="L13" s="9" t="str">
         <f ca="1"/>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="M13" s="19">
         <f ca="1"/>
-        <v>3.3966212959215349</v>
+        <v>3.8003267493428146</v>
       </c>
       <c r="N13" s="9" t="str">
         <f ca="1"/>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="Q13" s="45">
         <f ca="1"/>
-        <v>3.3966212959215348E-4</v>
+        <v>3.8003267493428152E-4</v>
       </c>
       <c r="R13" s="19" t="str">
         <f ca="1"/>
@@ -9873,20 +9873,20 @@
       </c>
       <c r="Y13" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-199.9531965200521</v>
+        <v>-52.187259551723933</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44727</v>
+        <v>44790</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B14, A14,E14, F14)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/08/2022</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="0"/>
@@ -9903,7 +9903,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/08/2022</v>
       </c>
       <c r="J14" s="9" t="str">
         <f ca="1"/>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="K14" s="49">
         <f ca="1"/>
-        <v>6.7828399835785369E-2</v>
+        <v>5.5563901133894401E-2</v>
       </c>
       <c r="L14" s="9" t="str">
         <f ca="1"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="M14" s="19">
         <f ca="1"/>
-        <v>3.3417175734203215</v>
+        <v>3.7491165818488388</v>
       </c>
       <c r="N14" s="9" t="str">
         <f ca="1"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="Q14" s="45">
         <f ca="1"/>
-        <v>3.3417175734203205E-4</v>
+        <v>3.7491165818488389E-4</v>
       </c>
       <c r="R14" s="19" t="str">
         <f ca="1"/>
@@ -9967,20 +9967,20 @@
       </c>
       <c r="Y14" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-178.28399835785368</v>
+        <v>-55.639011338943988</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44817</v>
+        <v>44880</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B15, A15,E15, F15)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/11/2022</v>
       </c>
       <c r="D15" s="27">
         <f t="shared" si="0"/>
@@ -9997,7 +9997,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/11/2022</v>
       </c>
       <c r="J15" s="9" t="str">
         <f ca="1"/>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="K15" s="49">
         <f ca="1"/>
-        <v>6.6953227578221988E-2</v>
+        <v>5.5709587651920113E-2</v>
       </c>
       <c r="L15" s="9" t="str">
         <f ca="1"/>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="M15" s="19">
         <f ca="1"/>
-        <v>3.2881084228555766</v>
+        <v>3.698730321500038</v>
       </c>
       <c r="N15" s="9" t="str">
         <f ca="1"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="Q15" s="45">
         <f ca="1"/>
-        <v>3.2881084228555767E-4</v>
+        <v>3.698730321500038E-4</v>
       </c>
       <c r="R15" s="19" t="str">
         <f ca="1"/>
@@ -10061,20 +10061,20 @@
       </c>
       <c r="Y15" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-169.53227578221984</v>
+        <v>-57.095876519201106</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44907</v>
+        <v>44970</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B16, A16,E16, F16)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/02/2023</v>
       </c>
       <c r="D16" s="27">
         <f t="shared" si="0"/>
@@ -10091,7 +10091,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/02/2023</v>
       </c>
       <c r="J16" s="9" t="str">
         <f ca="1"/>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="K16" s="49">
         <f ca="1"/>
-        <v>6.644306722451726E-2</v>
+        <v>5.5785164703072321E-2</v>
       </c>
       <c r="L16" s="9" t="str">
         <f ca="1"/>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="M16" s="19">
         <f ca="1"/>
-        <v>3.235748618414207</v>
+        <v>3.6487743130825927</v>
       </c>
       <c r="N16" s="9" t="str">
         <f ca="1"/>
@@ -10123,7 +10123,7 @@
       </c>
       <c r="Q16" s="45">
         <f ca="1"/>
-        <v>3.2357486184142069E-4</v>
+        <v>3.6487743130825929E-4</v>
       </c>
       <c r="R16" s="19" t="str">
         <f ca="1"/>
@@ -10155,20 +10155,20 @@
       </c>
       <c r="Y16" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-164.43067224517259</v>
+        <v>-57.851647030723178</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>44997</v>
+        <v>45060</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B17, A17,E17, F17)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-14/05/2023</v>
       </c>
       <c r="D17" s="27">
         <f t="shared" si="0"/>
@@ -10185,7 +10185,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-14/05/2023</v>
       </c>
       <c r="J17" s="9" t="str">
         <f ca="1"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="K17" s="49">
         <f ca="1"/>
-        <v>6.5930704549826247E-2</v>
+        <v>5.5821034178884919E-2</v>
       </c>
       <c r="L17" s="9" t="str">
         <f ca="1"/>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="M17" s="19">
         <f ca="1"/>
-        <v>3.1860390334179223</v>
+        <v>3.6013339724618807</v>
       </c>
       <c r="N17" s="9" t="str">
         <f ca="1"/>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="Q17" s="45">
         <f ca="1"/>
-        <v>3.1860390334179225E-4</v>
+        <v>3.6013339724618804E-4</v>
       </c>
       <c r="R17" s="19" t="str">
         <f ca="1"/>
@@ -10249,20 +10249,20 @@
       </c>
       <c r="Y17" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-159.30704549826243</v>
+        <v>-58.210341788849163</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45087</v>
+        <v>45150</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B18, A18,E18, F18)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/08/2023</v>
       </c>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
@@ -10279,7 +10279,7 @@
       <c r="H18" s="17"/>
       <c r="I18" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/08/2023</v>
       </c>
       <c r="J18" s="9" t="str">
         <f ca="1"/>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="K18" s="49">
         <f ca="1"/>
-        <v>6.5405443147371317E-2</v>
+        <v>5.5821066956436141E-2</v>
       </c>
       <c r="L18" s="9" t="str">
         <f ca="1"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="M18" s="19">
         <f ca="1"/>
-        <v>3.1349931818983312</v>
+        <v>3.5521579145186122</v>
       </c>
       <c r="N18" s="9" t="str">
         <f ca="1"/>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="Q18" s="45">
         <f ca="1"/>
-        <v>3.1349931818983311E-4</v>
+        <v>3.5521579145186122E-4</v>
       </c>
       <c r="R18" s="19" t="str">
         <f ca="1"/>
@@ -10343,20 +10343,20 @@
       </c>
       <c r="Y18" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-154.05443147371315</v>
+        <v>-58.210669564361382</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45177</v>
+        <v>45240</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B19, A19,E19, F19)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/11/2023</v>
       </c>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
@@ -10373,7 +10373,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/11/2023</v>
       </c>
       <c r="J19" s="9" t="str">
         <f ca="1"/>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="K19" s="49">
         <f ca="1"/>
-        <v>6.4783701871841487E-2</v>
+        <v>5.5889809411311067E-2</v>
       </c>
       <c r="L19" s="9" t="str">
         <f ca="1"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="M19" s="19">
         <f ca="1"/>
-        <v>3.0863728133192811</v>
+        <v>3.5037064808456897</v>
       </c>
       <c r="N19" s="9" t="str">
         <f ca="1"/>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="Q19" s="45">
         <f ca="1"/>
-        <v>3.0863728133192814E-4</v>
+        <v>3.50370648084569E-4</v>
       </c>
       <c r="R19" s="19" t="str">
         <f ca="1"/>
@@ -10437,20 +10437,20 @@
       </c>
       <c r="Y19" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-147.83701871841484</v>
+        <v>-58.898094113110645</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45267</v>
+        <v>45330</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B20, A20,E20, F20)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/02/2024</v>
       </c>
       <c r="D20" s="27">
         <f t="shared" si="0"/>
@@ -10467,7 +10467,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-7/12/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/02/2024</v>
       </c>
       <c r="J20" s="9" t="str">
         <f ca="1"/>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="K20" s="49">
         <f ca="1"/>
-        <v>6.4123353971034705E-2</v>
+        <v>5.5962235825229599E-2</v>
       </c>
       <c r="L20" s="9" t="str">
         <f ca="1"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="M20" s="19">
         <f ca="1"/>
-        <v>3.0399720944867559</v>
+        <v>3.4573184194085802</v>
       </c>
       <c r="N20" s="9" t="str">
         <f ca="1"/>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="Q20" s="45">
         <f ca="1"/>
-        <v>3.039972094486756E-4</v>
+        <v>3.4573184194085802E-4</v>
       </c>
       <c r="R20" s="19" t="str">
         <f ca="1"/>
@@ -10531,20 +10531,20 @@
       </c>
       <c r="Y20" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-141.23353971034703</v>
+        <v>-59.62235825229596</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45357</v>
+        <v>45420</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B21, A21,E21, F21)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2024</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/05/2024</v>
       </c>
       <c r="D21" s="27">
         <f t="shared" si="0"/>
@@ -10561,7 +10561,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-6/03/2024</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-8/05/2024</v>
       </c>
       <c r="J21" s="9" t="str">
         <f ca="1"/>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="K21" s="49">
         <f ca="1"/>
-        <v>6.3424484496108741E-2</v>
+        <v>5.6013797732865862E-2</v>
       </c>
       <c r="L21" s="9" t="str">
         <f ca="1"/>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="M21" s="19">
         <f ca="1"/>
-        <v>2.9924454138530114</v>
+        <v>3.4089644501837175</v>
       </c>
       <c r="N21" s="9" t="str">
         <f ca="1"/>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="Q21" s="45">
         <f ca="1"/>
-        <v>2.9924454138530111E-4</v>
+        <v>3.4089644501837169E-4</v>
       </c>
       <c r="R21" s="19" t="str">
         <f ca="1"/>
@@ -10625,20 +10625,20 @@
       </c>
       <c r="Y21" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-134.24484496108738</v>
+        <v>-60.137977328658593</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45447</v>
+        <v>45510</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B22, A22,E22, F22)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-4/06/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-6/08/2024</v>
       </c>
       <c r="D22" s="27">
         <f t="shared" si="0"/>
@@ -10655,7 +10655,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-4/06/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-6/08/2024</v>
       </c>
       <c r="J22" s="9" t="str">
         <f ca="1"/>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="K22" s="49">
         <f ca="1"/>
-        <v>6.4121214114430516E-2</v>
+        <v>5.5428641716269912E-2</v>
       </c>
       <c r="L22" s="9" t="str">
         <f ca="1"/>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="M22" s="19">
         <f ca="1"/>
-        <v>0.6686035544993324</v>
+        <v>0.75394075818180217</v>
       </c>
       <c r="N22" s="9" t="str">
         <f ca="1"/>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="Q22" s="45">
         <f ca="1"/>
-        <v>6.6860355449933234E-5</v>
+        <v>7.5394075818180202E-5</v>
       </c>
       <c r="R22" s="19" t="str">
         <f ca="1"/>
@@ -10719,20 +10719,20 @@
       </c>
       <c r="Y22" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-141.21214114430515</v>
+        <v>-54.286417162699095</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45537</v>
+        <v>45600</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B23, A23,E23, F23)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-2/09/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-4/11/2024</v>
       </c>
       <c r="D23" s="27">
         <f t="shared" si="0"/>
@@ -10749,7 +10749,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-2/09/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-4/11/2024</v>
       </c>
       <c r="J23" s="9" t="str">
         <f ca="1"/>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="K23" s="49">
         <f ca="1"/>
-        <v>6.2519963511782822E-2</v>
+        <v>5.5625913448735145E-2</v>
       </c>
       <c r="L23" s="9" t="str">
         <f ca="1"/>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="M23" s="19">
         <f ca="1"/>
-        <v>0.65845623371172513</v>
+        <v>0.74374090338050403</v>
       </c>
       <c r="N23" s="9" t="str">
         <f ca="1"/>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="Q23" s="45">
         <f ca="1"/>
-        <v>6.5845623371172516E-5</v>
+        <v>7.4374090338050398E-5</v>
       </c>
       <c r="R23" s="19" t="str">
         <f ca="1"/>
@@ -10813,20 +10813,20 @@
       </c>
       <c r="Y23" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-125.19963511782819</v>
+        <v>-56.259134487351425</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45627</v>
+        <v>45690</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B24, A24,E24, F24)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-1/12/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-2/02/2025</v>
       </c>
       <c r="D24" s="27">
         <f t="shared" si="0"/>
@@ -10843,7 +10843,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-1/12/2024</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-2/02/2025</v>
       </c>
       <c r="J24" s="9" t="str">
         <f ca="1"/>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="K24" s="49">
         <f ca="1"/>
-        <v>6.162728266041452E-2</v>
+        <v>5.5819927817679617E-2</v>
       </c>
       <c r="L24" s="9" t="str">
         <f ca="1"/>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="M24" s="19">
         <f ca="1"/>
-        <v>0.64860173274239152</v>
+        <v>0.73364418607575588</v>
       </c>
       <c r="N24" s="9" t="str">
         <f ca="1"/>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="Q24" s="45">
         <f ca="1"/>
-        <v>6.4860173274239154E-5</v>
+        <v>7.3364418607575589E-5</v>
       </c>
       <c r="R24" s="19" t="str">
         <f ca="1"/>
@@ -10907,20 +10907,20 @@
       </c>
       <c r="Y24" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-116.27282660414518</v>
+        <v>-58.199278176796142</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45717</v>
+        <v>45780</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B25, A25,E25, F25)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-1/03/2025</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-3/05/2025</v>
       </c>
       <c r="D25" s="27">
         <f t="shared" si="0"/>
@@ -10937,7 +10937,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-1/03/2025</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-3/05/2025</v>
       </c>
       <c r="J25" s="9" t="str">
         <f ca="1"/>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="K25" s="49">
         <f ca="1"/>
-        <v>6.0725858079840704E-2</v>
+        <v>5.5998471262689795E-2</v>
       </c>
       <c r="L25" s="9" t="str">
         <f ca="1"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="M25" s="19">
         <f ca="1"/>
-        <v>0.63892700797218249</v>
+        <v>0.72354160140281343</v>
       </c>
       <c r="N25" s="9" t="str">
         <f ca="1"/>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="Q25" s="45">
         <f ca="1"/>
-        <v>6.3892700797218247E-5</v>
+        <v>7.2354160140281344E-5</v>
       </c>
       <c r="R25" s="19" t="str">
         <f ca="1"/>
@@ -11001,20 +11001,20 @@
       </c>
       <c r="Y25" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-107.25858079840701</v>
+        <v>-59.984712626897917</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45807</v>
+        <v>45870</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B26, A26,E26, F26)</f>
-        <v>AUD-ClearedIRSwap-1Y-0.05-30/05/2025</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/08/2025</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="0"/>
@@ -11031,7 +11031,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-1Y-0.05-30/05/2025</v>
+        <v>AUD-ClearedIRSwap-1Y-0.05-1/08/2025</v>
       </c>
       <c r="J26" s="9" t="str">
         <f ca="1"/>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="K26" s="49">
         <f ca="1"/>
-        <v>5.98252102609588E-2</v>
+        <v>5.6160437071136271E-2</v>
       </c>
       <c r="L26" s="9" t="str">
         <f ca="1"/>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="M26" s="19">
         <f ca="1"/>
-        <v>0.62953878296753685</v>
+        <v>0.71344246134314038</v>
       </c>
       <c r="N26" s="9" t="str">
         <f ca="1"/>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="Q26" s="45">
         <f ca="1"/>
-        <v>6.295387829675369E-5</v>
+        <v>7.1344246134314034E-5</v>
       </c>
       <c r="R26" s="19" t="str">
         <f ca="1"/>
@@ -11095,20 +11095,20 @@
       </c>
       <c r="Y26" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-98.252102609587965</v>
+        <v>-61.604370711362684</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45897</v>
+        <v>45960</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B27, A27,E27, F27)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-28/08/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-30/10/2025</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="0"/>
@@ -11125,7 +11125,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-28/08/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-30/10/2025</v>
       </c>
       <c r="J27" s="9" t="str">
         <f ca="1"/>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="K27" s="29">
         <f ca="1"/>
-        <v>6.1725951461019252E-2</v>
+        <v>5.589946248133397E-2</v>
       </c>
       <c r="L27" s="9" t="str">
         <f ca="1"/>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="M27" s="19">
         <f ca="1"/>
-        <v>1.2053562619648674</v>
+        <v>1.3665513280174224</v>
       </c>
       <c r="N27" s="9" t="str">
         <f ca="1"/>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="Q27" s="45">
         <f ca="1"/>
-        <v>1.2053562619648674E-4</v>
+        <v>1.3665513280174224E-4</v>
       </c>
       <c r="R27" s="19" t="str">
         <f ca="1"/>
@@ -11189,20 +11189,20 @@
       </c>
       <c r="Y27" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-117.25951461019248</v>
+        <v>-58.994624813339669</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45987</v>
+        <v>46050</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B28, A28,E28, F28)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-26/11/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/01/2026</v>
       </c>
       <c r="D28" s="27">
         <f t="shared" si="0"/>
@@ -11219,7 +11219,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-26/11/2025</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/01/2026</v>
       </c>
       <c r="J28" s="9" t="str">
         <f ca="1"/>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="K28" s="29">
         <f ca="1"/>
-        <v>6.1992478585146893E-2</v>
+        <v>5.5808124574640641E-2</v>
       </c>
       <c r="L28" s="9" t="str">
         <f ca="1"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="M28" s="19">
         <f ca="1"/>
-        <v>1.1887249915753371</v>
+        <v>1.3549580637951393</v>
       </c>
       <c r="N28" s="9" t="str">
         <f ca="1"/>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="Q28" s="45">
         <f ca="1"/>
-        <v>1.1887249915753372E-4</v>
+        <v>1.3549580637951391E-4</v>
       </c>
       <c r="R28" s="19" t="str">
         <f ca="1"/>
@@ -11283,20 +11283,20 @@
       </c>
       <c r="Y28" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-119.9247858514689</v>
+        <v>-58.081245746406381</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46077</v>
+        <v>46140</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B29, A29,E29, F29)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-24/02/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/04/2026</v>
       </c>
       <c r="D29" s="27">
         <f t="shared" si="0"/>
@@ -11313,7 +11313,7 @@
       <c r="H29" s="17"/>
       <c r="I29" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-24/02/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-28/04/2026</v>
       </c>
       <c r="J29" s="9" t="str">
         <f ca="1"/>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="K29" s="29">
         <f ca="1"/>
-        <v>6.2331836779521865E-2</v>
+        <v>5.5691454853873133E-2</v>
       </c>
       <c r="L29" s="9" t="str">
         <f ca="1"/>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="M29" s="19">
         <f ca="1"/>
-        <v>1.1677527755673711</v>
+        <v>1.3331718115134039</v>
       </c>
       <c r="N29" s="9" t="str">
         <f ca="1"/>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="Q29" s="45">
         <f ca="1"/>
-        <v>1.1677527755673712E-4</v>
+        <v>1.3331718115134041E-4</v>
       </c>
       <c r="R29" s="19" t="str">
         <f ca="1"/>
@@ -11377,20 +11377,20 @@
       </c>
       <c r="Y29" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-123.31836779521862</v>
+        <v>-56.914548538731303</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46167</v>
+        <v>46230</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B30, A30,E30, F30)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-25/05/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-27/07/2026</v>
       </c>
       <c r="D30" s="27">
         <f t="shared" si="0"/>
@@ -11407,7 +11407,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-25/05/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-27/07/2026</v>
       </c>
       <c r="J30" s="9" t="str">
         <f ca="1"/>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="K30" s="29">
         <f ca="1"/>
-        <v>6.2748053307891072E-2</v>
+        <v>5.5546667598135396E-2</v>
       </c>
       <c r="L30" s="9" t="str">
         <f ca="1"/>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="M30" s="19">
         <f ca="1"/>
-        <v>1.1514258437140557</v>
+        <v>1.3168553444852455</v>
       </c>
       <c r="N30" s="9" t="str">
         <f ca="1"/>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="Q30" s="45">
         <f ca="1"/>
-        <v>1.1514258437140556E-4</v>
+        <v>1.3168553444852456E-4</v>
       </c>
       <c r="R30" s="19" t="str">
         <f ca="1"/>
@@ -11471,20 +11471,20 @@
       </c>
       <c r="Y30" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-127.4805330789107</v>
+        <v>-55.466675981353937</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46257</v>
+        <v>46320</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B31, A31,E31, F31)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-23/08/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-25/10/2026</v>
       </c>
       <c r="D31" s="27">
         <f t="shared" si="0"/>
@@ -11501,7 +11501,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-23/08/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-25/10/2026</v>
       </c>
       <c r="J31" s="9" t="str">
         <f ca="1"/>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="K31" s="29">
         <f ca="1"/>
-        <v>6.2771190483140948E-2</v>
+        <v>5.5489135653039555E-2</v>
       </c>
       <c r="L31" s="9" t="str">
         <f ca="1"/>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="M31" s="19">
         <f ca="1"/>
-        <v>1.1338822985631629</v>
+        <v>1.2990822492373491</v>
       </c>
       <c r="N31" s="9" t="str">
         <f ca="1"/>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="Q31" s="45">
         <f ca="1"/>
-        <v>1.1338822985631631E-4</v>
+        <v>1.2990822492373489E-4</v>
       </c>
       <c r="R31" s="19" t="str">
         <f ca="1"/>
@@ -11565,20 +11565,20 @@
       </c>
       <c r="Y31" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-127.71190483140946</v>
+        <v>-54.89135653039552</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>46347</v>
+        <v>46410</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="55" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(B32, A32,E32, F32)</f>
-        <v>AUD-ClearedIRSwap-2Y-0.05-21/11/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-23/01/2027</v>
       </c>
       <c r="D32" s="27">
         <f t="shared" si="0"/>
@@ -11595,7 +11595,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-2Y-0.05-21/11/2026</v>
+        <v>AUD-ClearedIRSwap-2Y-0.05-23/01/2027</v>
       </c>
       <c r="J32" s="9" t="str">
         <f ca="1"/>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="K32" s="29">
         <f ca="1"/>
-        <v>6.246096589911327E-2</v>
+        <v>5.5497079897965054E-2</v>
       </c>
       <c r="L32" s="9" t="str">
         <f ca="1"/>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M32" s="19">
         <f ca="1"/>
-        <v>1.1164978861974026</v>
+        <v>1.2813548950683169</v>
       </c>
       <c r="N32" s="9" t="str">
         <f ca="1"/>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="Q32" s="45">
         <f ca="1"/>
-        <v>1.1164978861974024E-4</v>
+        <v>1.2813548950683167E-4</v>
       </c>
       <c r="R32" s="19" t="str">
         <f ca="1"/>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="Y32" s="36">
         <f t="shared" ca="1" si="3"/>
-        <v>-124.60965899113268</v>
+        <v>-54.970798979650517</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -11819,11 +11819,11 @@
       <c r="B36" s="85"/>
       <c r="C36" s="6" t="str">
         <f t="array" aca="1" ref="C36:D45" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuotes('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!C10:C26)</f>
-        <v>AUD-ClearedIRSwap-5Y-0.05-20/06/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-22/08/2021</v>
       </c>
       <c r="D36" s="83">
         <f ca="1"/>
-        <v>7.4489736981522905E-2</v>
+        <v>5.0802424859136483E-2</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12" thickBot="1">
@@ -11831,11 +11831,11 @@
       <c r="B37" s="85"/>
       <c r="C37" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-18/09/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-20/11/2021</v>
       </c>
       <c r="D37" s="83">
         <f ca="1"/>
-        <v>7.4494640034465404E-2</v>
+        <v>5.080768411212485E-2</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>5</v>
@@ -11858,11 +11858,11 @@
     <row r="38" spans="1:25" ht="12" thickBot="1">
       <c r="C38" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/12/2021</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-18/02/2022</v>
       </c>
       <c r="D38" s="83">
         <f ca="1"/>
-        <v>7.4499621908744151E-2</v>
+        <v>5.081289807084774E-2</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="10"/>
@@ -11883,15 +11883,15 @@
     <row r="39" spans="1:25">
       <c r="C39" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-17/03/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-19/05/2022</v>
       </c>
       <c r="D39" s="83">
         <f ca="1"/>
-        <v>7.4489096864969268E-2</v>
+        <v>5.0800057110160668E-2</v>
       </c>
       <c r="I39" s="50" t="str">
         <f t="array" aca="1" ref="I39:W70" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData(G2:G7,'GetInfo &amp; GetInstrumentInfo'!$D$9,C3:C32,$A$2)</f>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J39" s="14" t="str">
         <f ca="1"/>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="K39" s="28">
         <f ca="1"/>
-        <v>7.4629901229968487E-2</v>
+        <v>4.854796185397766E-2</v>
       </c>
       <c r="L39" s="14" t="e">
         <f ca="1"/>
@@ -11953,15 +11953,15 @@
     <row r="40" spans="1:25">
       <c r="C40" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-15/06/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-17/08/2022</v>
       </c>
       <c r="D40" s="83">
         <f ca="1"/>
-        <v>7.4488715539729675E-2</v>
+        <v>5.0800109421584652E-2</v>
       </c>
       <c r="I40" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J40" s="9" t="str">
         <f ca="1"/>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="K40" s="29">
         <f ca="1"/>
-        <v>2.6406177227896381</v>
+        <v>2.7492584186692977</v>
       </c>
       <c r="L40" s="9" t="e">
         <f ca="1"/>
@@ -12023,15 +12023,15 @@
     <row r="41" spans="1:25">
       <c r="C41" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-13/09/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-15/11/2022</v>
       </c>
       <c r="D41" s="83">
         <f ca="1"/>
-        <v>7.44892557150761E-2</v>
+        <v>5.0800059885384045E-2</v>
       </c>
       <c r="I41" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J41" s="9" t="str">
         <f ca="1"/>
@@ -12093,15 +12093,15 @@
     <row r="42" spans="1:25">
       <c r="C42" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/12/2022</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-13/02/2023</v>
       </c>
       <c r="D42" s="83">
         <f ca="1"/>
-        <v>7.4490241540043245E-2</v>
+        <v>5.0800065569257306E-2</v>
       </c>
       <c r="I42" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J42" s="9" t="str">
         <f ca="1"/>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="K42" s="29">
         <f ca="1"/>
-        <v>2.6406177227896382E-4</v>
+        <v>2.7492584186692977E-4</v>
       </c>
       <c r="L42" s="9" t="e">
         <f ca="1"/>
@@ -12163,15 +12163,15 @@
     <row r="43" spans="1:25">
       <c r="C43" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-12/03/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-14/05/2023</v>
       </c>
       <c r="D43" s="83">
         <f ca="1"/>
-        <v>7.4489631314805058E-2</v>
+        <v>5.0802481778769865E-2</v>
       </c>
       <c r="I43" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J43" s="9" t="str">
         <f ca="1"/>
@@ -12233,15 +12233,15 @@
     <row r="44" spans="1:25">
       <c r="C44" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-10/06/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-12/08/2023</v>
       </c>
       <c r="D44" s="83">
         <f ca="1"/>
-        <v>7.4499537111213043E-2</v>
+        <v>5.0807730816548345E-2</v>
       </c>
       <c r="I44" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-29/09/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-1/12/2019</v>
       </c>
       <c r="J44" s="9" t="str">
         <f ca="1"/>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="K44" s="29">
         <f ca="1"/>
-        <v>-6.5038153698413093E-2</v>
+        <v>3.9920280971808813E-3</v>
       </c>
       <c r="L44" s="9" t="e">
         <f ca="1"/>
@@ -12303,15 +12303,15 @@
     <row r="45" spans="1:25">
       <c r="C45" s="6" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-8/09/2023</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-10/11/2023</v>
       </c>
       <c r="D45" s="83">
         <f ca="1"/>
-        <v>7.4499577973310374E-2</v>
+        <v>5.0812889068958353E-2</v>
       </c>
       <c r="I45" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J45" s="9" t="str">
         <f ca="1"/>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="K45" s="29">
         <f ca="1"/>
-        <v>7.5263531118901772E-2</v>
+        <v>4.9146484750953283E-2</v>
       </c>
       <c r="L45" s="9" t="e">
         <f ca="1"/>
@@ -12373,11 +12373,11 @@
     <row r="46" spans="1:25">
       <c r="D46" s="83">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuote('GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!C2)</f>
-        <v>7.4385377875522213E-2</v>
+        <v>4.811300978824095E-2</v>
       </c>
       <c r="I46" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J46" s="9" t="str">
         <f ca="1"/>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="K46" s="29">
         <f ca="1"/>
-        <v>2.5919809309848469</v>
+        <v>2.7136964628382114</v>
       </c>
       <c r="L46" s="9" t="e">
         <f ca="1"/>
@@ -12439,11 +12439,11 @@
     <row r="47" spans="1:25">
       <c r="D47" s="83">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetAssetImpliedQuote( 'GetInfo &amp; GetInstrumentInfo'!$D$9, 'Priceable Cleared Rate Assets'!B2, 'Priceable Cleared Rate Assets'!D2, 'Priceable Cleared Rate Assets'!F2, 'Priceable Cleared Rate Assets'!A2)</f>
-        <v>7.4385377875522213E-2</v>
+        <v>4.811300978824095E-2</v>
       </c>
       <c r="I47" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J47" s="9" t="str">
         <f ca="1"/>
@@ -12505,7 +12505,7 @@
     <row r="48" spans="1:25">
       <c r="I48" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J48" s="9" t="str">
         <f ca="1"/>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="K48" s="29">
         <f ca="1"/>
-        <v>2.5919809309848469E-4</v>
+        <v>2.7136964628382115E-4</v>
       </c>
       <c r="L48" s="9" t="e">
         <f ca="1"/>
@@ -12567,7 +12567,7 @@
     <row r="49" spans="9:23">
       <c r="I49" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J49" s="9" t="str">
         <f ca="1"/>
@@ -12629,7 +12629,7 @@
     <row r="50" spans="9:23">
       <c r="I50" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-28/12/2019</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/02/2020</v>
       </c>
       <c r="J50" s="9" t="str">
         <f ca="1"/>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="K50" s="29">
         <f ca="1"/>
-        <v>-6.5482590909535662E-2</v>
+        <v>2.3161813123165663E-3</v>
       </c>
       <c r="L50" s="9" t="e">
         <f ca="1"/>
@@ -12691,7 +12691,7 @@
     <row r="51" spans="9:23">
       <c r="I51" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J51" s="9" t="str">
         <f ca="1"/>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="K51" s="29">
         <f ca="1"/>
-        <v>7.5874092663343135E-2</v>
+        <v>4.9786158458676316E-2</v>
       </c>
       <c r="L51" s="9" t="e">
         <f ca="1"/>
@@ -12753,7 +12753,7 @@
     <row r="52" spans="9:23">
       <c r="I52" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J52" s="9" t="str">
         <f ca="1"/>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="K52" s="29">
         <f ca="1"/>
-        <v>2.5418202792644817</v>
+        <v>2.6804246440408335</v>
       </c>
       <c r="L52" s="9" t="e">
         <f ca="1"/>
@@ -12815,7 +12815,7 @@
     <row r="53" spans="9:23">
       <c r="I53" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J53" s="9" t="str">
         <f ca="1"/>
@@ -12877,7 +12877,7 @@
     <row r="54" spans="9:23">
       <c r="I54" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J54" s="9" t="str">
         <f ca="1"/>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="K54" s="29">
         <f ca="1"/>
-        <v>2.5418202792644814E-4</v>
+        <v>2.6804246440408335E-4</v>
       </c>
       <c r="L54" s="9" t="e">
         <f ca="1"/>
@@ -12939,7 +12939,7 @@
     <row r="55" spans="9:23">
       <c r="I55" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J55" s="9" t="str">
         <f ca="1"/>
@@ -13001,7 +13001,7 @@
     <row r="56" spans="9:23">
       <c r="I56" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-27/03/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-29/05/2020</v>
       </c>
       <c r="J56" s="9" t="str">
         <f ca="1"/>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="K56" s="29">
         <f ca="1"/>
-        <v>-6.5767293439253929E-2</v>
+        <v>5.7318613728367938E-4</v>
       </c>
       <c r="L56" s="9" t="e">
         <f ca="1"/>
@@ -13063,7 +13063,7 @@
     <row r="57" spans="9:23">
       <c r="I57" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J57" s="9" t="str">
         <f ca="1"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="K57" s="29">
         <f ca="1"/>
-        <v>7.6271379922207311E-2</v>
+        <v>5.0459026976231586E-2</v>
       </c>
       <c r="L57" s="9" t="e">
         <f ca="1"/>
@@ -13125,7 +13125,7 @@
     <row r="58" spans="9:23">
       <c r="I58" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J58" s="9" t="str">
         <f ca="1"/>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="K58" s="29">
         <f ca="1"/>
-        <v>2.4959608664967061</v>
+        <v>2.6482006543150449</v>
       </c>
       <c r="L58" s="9" t="e">
         <f ca="1"/>
@@ -13187,7 +13187,7 @@
     <row r="59" spans="9:23">
       <c r="I59" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J59" s="9" t="str">
         <f ca="1"/>
@@ -13249,7 +13249,7 @@
     <row r="60" spans="9:23">
       <c r="I60" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J60" s="9" t="str">
         <f ca="1"/>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="K60" s="29">
         <f ca="1"/>
-        <v>2.4959608664967061E-4</v>
+        <v>2.6482006543150448E-4</v>
       </c>
       <c r="L60" s="9" t="e">
         <f ca="1"/>
@@ -13311,7 +13311,7 @@
     <row r="61" spans="9:23">
       <c r="I61" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J61" s="9" t="str">
         <f ca="1"/>
@@ -13373,7 +13373,7 @@
     <row r="62" spans="9:23">
       <c r="I62" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-25/06/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-27/08/2020</v>
       </c>
       <c r="J62" s="9" t="str">
         <f ca="1"/>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="K62" s="29">
         <f ca="1"/>
-        <v>-6.5572336194696698E-2</v>
+        <v>-1.2155955388047503E-3</v>
       </c>
       <c r="L62" s="9" t="e">
         <f ca="1"/>
@@ -13435,7 +13435,7 @@
     <row r="63" spans="9:23">
       <c r="I63" s="51" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J63" s="9" t="str">
         <f ca="1"/>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="K63" s="29">
         <f ca="1"/>
-        <v>7.6787994261508508E-2</v>
+        <v>5.1003122680912817E-2</v>
       </c>
       <c r="L63" s="9" t="e">
         <f ca="1"/>
@@ -13497,7 +13497,7 @@
     <row r="64" spans="9:23">
       <c r="I64" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J64" s="9" t="str">
         <f ca="1"/>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="K64" s="29">
         <f ca="1"/>
-        <v>2.4515898936126841</v>
+        <v>2.6174935710797289</v>
       </c>
       <c r="L64" s="9" t="e">
         <f ca="1"/>
@@ -13559,7 +13559,7 @@
     <row r="65" spans="4:23">
       <c r="I65" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J65" s="9" t="str">
         <f ca="1"/>
@@ -13621,7 +13621,7 @@
     <row r="66" spans="4:23">
       <c r="I66" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J66" s="9" t="str">
         <f ca="1"/>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="K66" s="29">
         <f ca="1"/>
-        <v>2.4515898936126841E-4</v>
+        <v>2.6174935710797289E-4</v>
       </c>
       <c r="L66" s="9" t="e">
         <f ca="1"/>
@@ -13683,7 +13683,7 @@
     <row r="67" spans="4:23">
       <c r="I67" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J67" s="9" t="str">
         <f ca="1"/>
@@ -13746,7 +13746,7 @@
       <c r="D68" s="47"/>
       <c r="I68" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-3Y-0.05-23/09/2020</v>
+        <v>AUD-ClearedIRSwap-3Y-0.05-25/11/2020</v>
       </c>
       <c r="J68" s="9" t="str">
         <f ca="1"/>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="K68" s="29">
         <f ca="1"/>
-        <v>-6.5673176001668804E-2</v>
+        <v>-2.6256671682935574E-3</v>
       </c>
       <c r="L68" s="9" t="e">
         <f ca="1"/>
@@ -13809,7 +13809,7 @@
       <c r="D69" s="47"/>
       <c r="I69" s="18" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-23/02/2021</v>
       </c>
       <c r="J69" s="9" t="str">
         <f ca="1"/>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="K69" s="29">
         <f ca="1"/>
-        <v>7.3968096422983354E-2</v>
+        <v>5.3334280652905838E-2</v>
       </c>
       <c r="L69" s="9" t="e">
         <f ca="1"/>
@@ -13871,7 +13871,7 @@
     <row r="70" spans="4:23" ht="12" thickBot="1">
       <c r="I70" s="23" t="str">
         <f ca="1"/>
-        <v>AUD-ClearedIRSwap-5Y-0.05-22/12/2020</v>
+        <v>AUD-ClearedIRSwap-5Y-0.05-23/02/2021</v>
       </c>
       <c r="J70" s="24" t="str">
         <f ca="1"/>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="K70" s="30">
         <f ca="1"/>
-        <v>3.7059305712703634</v>
+        <v>4.0617240274393067</v>
       </c>
       <c r="L70" s="24" t="e">
         <f ca="1"/>
@@ -14040,287 +14040,287 @@
     <row r="9" spans="3:11">
       <c r="C9" s="54">
         <f ca="1">BaseDate</f>
-        <v>43647</v>
+        <v>43710</v>
       </c>
       <c r="D9" s="82">
         <f t="array" aca="1" ref="D9:H19" ca="1">_xll.HLV5r3.Financial.Cache.GetImpliedQuoteMatrix(C9:C19, D8:H8, J5:K7)</f>
-        <v>2.5342388189716625E-2</v>
+        <v>2.5342382523899514E-2</v>
       </c>
       <c r="E9" s="82">
         <f ca="1"/>
-        <v>2.5327920908831774E-2</v>
+        <v>2.5327881974094347E-2</v>
       </c>
       <c r="F9" s="82">
         <f ca="1"/>
-        <v>2.5111708089527174E-2</v>
+        <v>2.5111667605683032E-2</v>
       </c>
       <c r="G9" s="82">
         <f ca="1"/>
-        <v>2.5189146808183651E-2</v>
+        <v>2.5189115910843593E-2</v>
       </c>
       <c r="H9" s="82">
         <f ca="1"/>
-        <v>2.5189356854965438E-2</v>
+        <v>2.5189330800617641E-2</v>
       </c>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="54">
         <f ca="1">C9+182</f>
-        <v>43829</v>
+        <v>43892</v>
       </c>
       <c r="D10" s="82">
         <f ca="1"/>
-        <v>2.5342382523899514E-2</v>
+        <v>2.5342207375901954E-2</v>
       </c>
       <c r="E10" s="82">
         <f ca="1"/>
-        <v>2.5327881269464086E-2</v>
+        <v>2.5327834839031806E-2</v>
       </c>
       <c r="F10" s="82">
         <f ca="1"/>
-        <v>2.51137241541796E-2</v>
+        <v>2.5113746777491276E-2</v>
       </c>
       <c r="G10" s="82">
         <f ca="1"/>
-        <v>2.5188812765459128E-2</v>
+        <v>2.5189147215529738E-2</v>
       </c>
       <c r="H10" s="82">
         <f ca="1"/>
-        <v>2.5189330350393307E-2</v>
+        <v>2.5189275247509128E-2</v>
       </c>
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="54">
         <f t="shared" ref="C11:C19" ca="1" si="0">C10+182</f>
-        <v>44011</v>
+        <v>44074</v>
       </c>
       <c r="D11" s="82">
         <f ca="1"/>
-        <v>2.5342203138008758E-2</v>
+        <v>2.5342198911613274E-2</v>
       </c>
       <c r="E11" s="82">
         <f ca="1"/>
-        <v>2.5327830550408142E-2</v>
+        <v>2.5327826266914828E-2</v>
       </c>
       <c r="F11" s="82">
         <f ca="1"/>
-        <v>2.5113726405229891E-2</v>
+        <v>2.51137210985539E-2</v>
       </c>
       <c r="G11" s="82">
         <f ca="1"/>
-        <v>2.5188807521787076E-2</v>
+        <v>2.5189110789993654E-2</v>
       </c>
       <c r="H11" s="82">
         <f ca="1"/>
-        <v>2.5189243692705452E-2</v>
+        <v>2.5189243805539555E-2</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44193</v>
+        <v>44256</v>
       </c>
       <c r="D12" s="82">
         <f ca="1"/>
-        <v>2.5342201749426745E-2</v>
+        <v>2.5342207375901954E-2</v>
       </c>
       <c r="E12" s="82">
         <f ca="1"/>
-        <v>2.5327828437067851E-2</v>
+        <v>2.5327834839031806E-2</v>
       </c>
       <c r="F12" s="82">
         <f ca="1"/>
-        <v>2.5113723365248912E-2</v>
+        <v>2.5111675716095405E-2</v>
       </c>
       <c r="G12" s="82">
         <f ca="1"/>
-        <v>2.5189109043424775E-2</v>
+        <v>2.5189119701944096E-2</v>
       </c>
       <c r="H12" s="82">
         <f ca="1"/>
-        <v>2.5189242389957432E-2</v>
+        <v>2.5189252947940739E-2</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44438</v>
       </c>
       <c r="D13" s="82">
         <f ca="1"/>
-        <v>2.5342203138008758E-2</v>
+        <v>2.5342198911613274E-2</v>
       </c>
       <c r="E13" s="82">
         <f ca="1"/>
-        <v>2.5327830550408142E-2</v>
+        <v>2.5327826266914828E-2</v>
       </c>
       <c r="F13" s="82">
         <f ca="1"/>
-        <v>2.5113726405229891E-2</v>
+        <v>2.5113721217176831E-2</v>
       </c>
       <c r="G13" s="82">
         <f ca="1"/>
-        <v>2.5189118393780487E-2</v>
+        <v>2.5188804055467227E-2</v>
       </c>
       <c r="H13" s="82">
         <f ca="1"/>
-        <v>2.5189249968356316E-2</v>
+        <v>2.5189237778228259E-2</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44557</v>
+        <v>44620</v>
       </c>
       <c r="D14" s="82">
         <f ca="1"/>
-        <v>2.5341938758007283E-2</v>
+        <v>2.5342207375901954E-2</v>
       </c>
       <c r="E14" s="82">
         <f ca="1"/>
-        <v>2.5327637717208206E-2</v>
+        <v>2.5327886312665863E-2</v>
       </c>
       <c r="F14" s="82">
         <f ca="1"/>
-        <v>2.5111301467120414E-2</v>
+        <v>2.5111677300586714E-2</v>
       </c>
       <c r="G14" s="82">
         <f ca="1"/>
-        <v>2.5188765313002279E-2</v>
+        <v>2.5189119442729745E-2</v>
       </c>
       <c r="H14" s="82">
         <f ca="1"/>
-        <v>2.5189046952988722E-2</v>
+        <v>2.518925273784928E-2</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44739</v>
+        <v>44802</v>
       </c>
       <c r="D15" s="82">
         <f ca="1"/>
-        <v>2.5342203138008758E-2</v>
+        <v>2.5342201744885506E-2</v>
       </c>
       <c r="E15" s="82">
         <f ca="1"/>
-        <v>2.5327882732440174E-2</v>
+        <v>2.5327882028422118E-2</v>
       </c>
       <c r="F15" s="82">
         <f ca="1"/>
-        <v>2.5111685775982627E-2</v>
+        <v>2.5113724783167653E-2</v>
       </c>
       <c r="G15" s="82">
         <f ca="1"/>
-        <v>2.5189112815340704E-2</v>
+        <v>2.5189117360359135E-2</v>
       </c>
       <c r="H15" s="82">
         <f ca="1"/>
-        <v>2.5189247366395502E-2</v>
+        <v>2.5189254166556603E-2</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>44921</v>
+        <v>44984</v>
       </c>
       <c r="D16" s="82">
         <f ca="1"/>
-        <v>2.5341938758007283E-2</v>
+        <v>2.5342198902847501E-2</v>
       </c>
       <c r="E16" s="82">
         <f ca="1"/>
-        <v>2.5327806886102883E-2</v>
+        <v>2.5327880821091903E-2</v>
       </c>
       <c r="F16" s="82">
         <f ca="1"/>
-        <v>2.51113200154107E-2</v>
+        <v>2.5113726070912914E-2</v>
       </c>
       <c r="G16" s="82">
         <f ca="1"/>
-        <v>2.5188888951130507E-2</v>
+        <v>2.5188809850366787E-2</v>
       </c>
       <c r="H16" s="82">
         <f ca="1"/>
-        <v>2.5189150891758182E-2</v>
+        <v>2.5189245576366242E-2</v>
       </c>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45103</v>
+        <v>45166</v>
       </c>
       <c r="D17" s="82">
         <f ca="1"/>
-        <v>2.5342385349981698E-2</v>
+        <v>2.5342391546762957E-2</v>
       </c>
       <c r="E17" s="82">
         <f ca="1"/>
-        <v>2.532788554865515E-2</v>
+        <v>2.5327888688635395E-2</v>
       </c>
       <c r="F17" s="82">
         <f ca="1"/>
-        <v>2.5111687658189601E-2</v>
+        <v>2.5111671407666021E-2</v>
       </c>
       <c r="G17" s="82">
         <f ca="1"/>
-        <v>2.5189118195091034E-2</v>
+        <v>2.5189117356177071E-2</v>
       </c>
       <c r="H17" s="82">
         <f ca="1"/>
-        <v>2.5189336498737697E-2</v>
+        <v>2.5189332996432303E-2</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45285</v>
+        <v>45348</v>
       </c>
       <c r="D18" s="82">
         <f ca="1"/>
-        <v>2.5342124266701332E-2</v>
+        <v>2.5342387323158619E-2</v>
       </c>
       <c r="E18" s="82">
         <f ca="1"/>
-        <v>2.5327809688467429E-2</v>
+        <v>2.5327887758101266E-2</v>
       </c>
       <c r="F18" s="82">
         <f ca="1"/>
-        <v>2.5111386886509449E-2</v>
+        <v>2.5113730719809026E-2</v>
       </c>
       <c r="G18" s="82">
         <f ca="1"/>
-        <v>2.5188996531450531E-2</v>
+        <v>2.5189119682816778E-2</v>
       </c>
       <c r="H18" s="82">
         <f ca="1"/>
-        <v>2.5189157330925086E-2</v>
+        <v>2.5189333856224704E-2</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45467</v>
+        <v>45530</v>
       </c>
       <c r="D19" s="82">
         <f ca="1"/>
-        <v>2.5342234752751092E-2</v>
+        <v>2.5342214140962358E-2</v>
       </c>
       <c r="E19" s="82">
         <f ca="1"/>
-        <v>2.5327896714954307E-2</v>
+        <v>2.5327841557721012E-2</v>
       </c>
       <c r="F19" s="82">
         <f ca="1"/>
-        <v>2.5113803763121795E-2</v>
+        <v>2.5113733772080676E-2</v>
       </c>
       <c r="G19" s="82">
         <f ca="1"/>
-        <v>2.5189205271176303E-2</v>
+        <v>2.5189126217799652E-2</v>
       </c>
       <c r="H19" s="82">
         <f ca="1"/>
-        <v>2.5189326019174261E-2</v>
+        <v>2.5189258228996848E-2</v>
       </c>
     </row>
   </sheetData>
